--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39DBB880-5836-4D3C-B2AD-71A9DB188E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F1284-65BA-4DB3-A5E8-117752767040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="1725" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4425" yWindow="2190" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,254 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KHmedia</author>
+  </authors>
+  <commentList>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{3680B718-6722-4E97-BB0D-676FD416E5CF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">[ : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">시작
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">f1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>첫번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">인자
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">/ : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인자를</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>구분하는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기호
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">f2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>인자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+] : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>끝</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +302,6 @@
   </si>
   <si>
     <t>스킬 테이블의 index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affect_idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -101,7 +343,197 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 효과 </t>
+      <t xml:space="preserve">스킬 이펙트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Effect Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 사운드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Sound Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 애니메이션 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Animation Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 아이콘 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Icon Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 범위 (스킬이 적중되는 범위)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 타입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0: 일반 / 1: 캐스팅 / 2: 지점 / 3: 체인)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">투사체 여부 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0: 투사체 x / 1: 투사체 o)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superarmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">슈퍼아머 타입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(0: 슈퍼아머 x / 1: 경직 면역 / 2: 피격이상 면역 / 3: 상태이상 면역)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 자원 타입
+(0: mp / 1: hp / 2: 이드)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect1_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect1_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect2_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect2_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1번 스킬 효과 </t>
     </r>
     <r>
       <rPr>
@@ -118,7 +550,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 이펙트 </t>
+      <t xml:space="preserve">2번 스킬 효과 </t>
     </r>
     <r>
       <rPr>
@@ -129,165 +561,33 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Effect Table의 index)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 사운드 </t>
+      <t>(Affect Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 스킬 효과의 인자값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1번 스킬 효과의 인자값 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FFFF0000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Sound Table의 index)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 애니메이션 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Animation Table의 index)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 아이콘 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Icon Table의 index)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재사용 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위 (스킬이 적중되는 범위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_bullet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">스킬 타입
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0: 일반 / 1: 캐스팅 / 2: 지점 / 3: 체인)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">투사체 여부 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0: 투사체 x / 1: 투사체 o)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>superarmor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">슈퍼아머 타입
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(0: 슈퍼아머 x / 1: 경직 면역 / 2: 피격이상 면역 / 3: 상태이상 면역)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 자원 타입
-(0: mp / 1: hp / 2: 이드)</t>
+      <t>(데이터 형식 : [f1/f2])</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -295,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,6 +634,27 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -862,11 +1183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A15" sqref="A15:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -909,188 +1230,213 @@
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.3">
       <c r="B13" s="10"/>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="10"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="11"/>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="10"/>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="10"/>
       <c r="C18" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="E19" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0F1284-65BA-4DB3-A5E8-117752767040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332F0C0-F1F2-4992-AC41-38F649E26CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4425" yWindow="2190" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15120" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Skill Table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,11 +28,927 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>KHmedia</author>
+    <author>홍진선</author>
   </authors>
   <commentList>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{3680B718-6722-4E97-BB0D-676FD416E5CF}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{317CF5FC-F8CB-4F2F-A747-97921871C0D3}">
       <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>무기</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>]</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+10 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">11 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>단검</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+13 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대검</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>환도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>곰방대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+16 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>너클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+17 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방패</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+18 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>언월도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+19 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">장궁
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">20 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>석궁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+21 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마법서</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+22 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">부채
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">23 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스태프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{64B556F2-FEAE-4BD7-B339-3794BD212A05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>[</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번호</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">]
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스위칭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2 : 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 : 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>4 : 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예외</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">단검
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">5: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">6: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">7: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">8: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">스킬
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{E4CDC4C6-6DE6-4E9A-9791-A0F8F44B1F88}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>데이터</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">형식
+</t>
+        </r>
         <r>
           <rPr>
             <sz val="9"/>
@@ -88,7 +1005,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>첫번째</t>
+          <t>첫</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번째</t>
         </r>
         <r>
           <rPr>
@@ -146,7 +1082,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>인자를</t>
+          <t>인자</t>
         </r>
         <r>
           <rPr>
@@ -165,7 +1101,27 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>구분하는</t>
+          <t xml:space="preserve">구분
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">f2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>두</t>
         </r>
         <r>
           <rPr>
@@ -184,7 +1140,26 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">기호
+          <t>번째</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">인자
 </t>
         </r>
         <r>
@@ -194,46 +1169,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">f2 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>두번째</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>인자</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-] : </t>
+          <t xml:space="preserve">] : </t>
         </r>
         <r>
           <rPr>
@@ -271,7 +1207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +1258,70 @@
   </si>
   <si>
     <t>name_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooltime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재사용 대기 시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_bullet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>superarmor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소모 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect1_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect1_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect2_idx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affect2_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -331,7 +1331,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -343,18 +1343,52 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 이펙트 </t>
+      <t xml:space="preserve">1번 스킬 효과 </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Effect Table의 index)</t>
+      <t>(Affect Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2번 스킬 효과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Affect Table의 index)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스킬 이펙트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Effect Table의 index)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -365,7 +1399,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -377,73 +1411,256 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 애니메이션 </t>
+      <t>스킬 애니메이션</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Animation Table의 index)</t>
+      <t xml:space="preserve"> (Animation Table의 index)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 아이콘 </t>
+      <t>스킬 아이콘</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0070C0"/>
+        <color rgb="FF00B050"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Icon Table의 index)</t>
+      <t xml:space="preserve"> (Icon Table의 index)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cooltime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>재사용 대기 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 범위 (스킬이 적중되는 범위)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_bullet</t>
+    <t>area_val1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_val2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area_type 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1 : 삼각형의 밑변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2 : 삼각형의 높이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 = f1 x f2 x 1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1 : 사각형의 가로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2 : 사각형의 세로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 = f1 x f2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f1 : 원의 반지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f2 : 원의 중심각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 테이블 index 넘버링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OO / N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">OO </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(예시)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 번째 범위 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">스킬 타입
+      <t>첫 번째 범위 값 (아래 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>area_type 정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">' 참고) </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위칭 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50/4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위 = 1/2 x f1^2 x f2    (f1=0, f2=0 : 자기 자신만 적용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 스위칭 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 1번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 스위칭 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 1번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 2번 스킬</t>
+  </si>
+  <si>
+    <t>단검 3번 스킬</t>
+  </si>
+  <si>
+    <t>단검 4번 스킬</t>
+  </si>
+  <si>
+    <t>단검 강화 2번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 강화 1번 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 강화 3번 스킬</t>
+  </si>
+  <si>
+    <t>단검 강화 4번 스킬</t>
+  </si>
+  <si>
+    <t>[2/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">소모 자원 타입 
 </t>
     </r>
     <r>
@@ -455,13 +1672,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(0: 일반 / 1: 캐스팅 / 2: 지점 / 3: 체인)</t>
+      <t>0: mp / 1: hp / 2: 이드</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">투사체 여부 </t>
+      <t xml:space="preserve">스킬 효과 적용 범위 타입 
+</t>
     </r>
     <r>
       <rPr>
@@ -472,12 +1690,26 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(0: 투사체 x / 1: 투사체 o)</t>
+      <t>0: 삼각형 / 1: 사각형 / 2: 원형</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>superarmor</t>
+    <r>
+      <t xml:space="preserve">투사체 여부 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: 투사체 x / 1: 투사체 o</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -494,46 +1726,14 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(0: 슈퍼아머 x / 1: 경직 면역 / 2: 피격이상 면역 / 3: 상태이상 면역)</t>
+      <t>0: 슈퍼아머 x / 1: 경직 면역 / 2: 피격이상 면역 / 3: 상태이상 면역</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cost_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>소모 자원 타입
-(0: mp / 1: hp / 2: 이드)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affect1_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affect1_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affect2_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>affect2_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">1번 스킬 효과 </t>
+      <t xml:space="preserve">조작 방법에 따른 스킬 타입 
+</t>
     </r>
     <r>
       <rPr>
@@ -544,38 +1744,65 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(Affect Table의 index)</t>
+      <t>0: 패시브 / 1: 일반 / 2: 캐스팅 / 3: 차지 / 4: 체인 / 5: 홀딩 / 6: 토글</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[스킬 타입 별 인자 설명]</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스팅 시간(s)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차지 시간(s)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 차지량</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 중 방향 전환 속도</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 스킬의 index</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 스킬의 index</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>재 입력 시간</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 홀딩 시간</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 소모 시간 단위</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> type_val1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_val2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type_val3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">2번 스킬 효과 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Affect Table의 index)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2번 스킬 효과의 인자값</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1번 스킬 효과의 인자값 </t>
+      <t xml:space="preserve">1번 스킬 효과의 수치값 </t>
     </r>
     <r>
       <rPr>
@@ -590,12 +1817,206 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2번 스킬 효과의 수치값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입별 데이터의 2번 수치 값</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 타입별 데이터의 3번 수치 값</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하지 않아도 자동으로 적용되는 스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 일반적인 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐스팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 키 입력 시 캐스팅을 시작하고 캐스팅이 끝나면 스킬이 발동하는 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 키를 누르고 있으면 차지를 시작하고 스킬 키를 떼는 순간 차지된 단계의 스킬이 발동하는 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 사용하면 연결된 다음 스킬이 사용가능해지는 타입. 
+(연결된 모든 스킬을 사용한 후에 재사용 대기시간이 적용된다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 키를 누르고 있는 동안 스킬이 발동하는 타입.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 키를 누를 때 마다 ON/OFF가 변하는 타입. (스킬이 ON일 때 자원 지속 소모)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(type_val1), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(type_val2), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(type_val3)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>v2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>스킬 타입별 데이터의 1번 수치 값 
+(아래 '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>스킬 타입 별 인자 설명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' 참고)</t>
+    </r>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>[150/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -656,8 +2077,134 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -670,8 +2217,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -853,11 +2436,585 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,6 +3059,418 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,6 +3479,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -919,6 +3493,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>746946</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>213908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83E40B1-8DBE-6938-F7FE-4FACD1AC1DDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937260" y="7437120"/>
+          <a:ext cx="2149026" cy="1135478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259081</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>815451</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>173915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DACBA3D-7A1A-A25D-C6B2-EED4EC34EF13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="929641" y="9044940"/>
+          <a:ext cx="2225150" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>250554</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>47898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{302EFAA1-024B-C688-08BB-755A9C11E0E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="949234" y="11006546"/>
+          <a:ext cx="1652634" cy="1015637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1184,259 +3911,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E22"/>
+  <dimension ref="B2:O55"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="2" customWidth="1"/>
+    <col min="7" max="8" width="8.796875" style="48"/>
+    <col min="9" max="9" width="10.3984375" style="48" customWidth="1"/>
+    <col min="10" max="10" width="8.796875" style="48"/>
+    <col min="11" max="11" width="11.296875" style="48" customWidth="1"/>
+    <col min="12" max="15" width="8.796875" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="67"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B5" s="10">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="69"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="2:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="10">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B7" s="10">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="61">
+        <v>100</v>
+      </c>
+      <c r="H7" s="73">
+        <v>10</v>
+      </c>
+      <c r="I7" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="73">
+        <v>0</v>
+      </c>
+      <c r="K7" s="63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="10">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="70">
+        <v>124</v>
+      </c>
+      <c r="H8" s="74">
+        <v>12</v>
+      </c>
+      <c r="I8" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="74">
+        <v>4</v>
+      </c>
+      <c r="K8" s="72" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" s="60">
+        <v>142</v>
+      </c>
+      <c r="H9" s="75">
+        <v>14</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="75">
+        <v>2</v>
+      </c>
+      <c r="K9" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B10" s="10">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B11" s="10">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="10">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="10">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B14" s="10">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="10">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="10">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B17" s="10">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B19" s="10">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B20" s="10">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B21" s="10">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="10">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B23" s="10">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B24" s="10">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B25" s="10">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B26" s="10">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+    </row>
+    <row r="29" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="30" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="89" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="90"/>
+      <c r="G30" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="92"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" spans="2:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="88"/>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="I31" s="114" t="s">
+        <v>3</v>
+      </c>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="67"/>
+    </row>
+    <row r="32" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B32" s="39">
+        <v>0</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="40"/>
+      <c r="G32" s="97">
+        <v>0</v>
+      </c>
+      <c r="H32" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="I32" s="113" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="93"/>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
+      <c r="M32" s="93"/>
+      <c r="N32" s="93"/>
+      <c r="O32" s="94"/>
+    </row>
+    <row r="33" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="29"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="97">
+        <v>1</v>
+      </c>
+      <c r="H33" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="99" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="100"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="105">
+        <v>2</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" s="142" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34" s="143"/>
+      <c r="K34" s="143"/>
+      <c r="L34" s="143"/>
+      <c r="M34" s="143"/>
+      <c r="N34" s="143"/>
+      <c r="O34" s="144"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="117" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" s="139" t="s">
+        <v>91</v>
+      </c>
+      <c r="K35" s="140"/>
+      <c r="L35" s="140"/>
+      <c r="M35" s="140"/>
+      <c r="N35" s="140"/>
+      <c r="O35" s="141"/>
+    </row>
+    <row r="36" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="22"/>
+      <c r="G36" s="130">
+        <v>3</v>
+      </c>
+      <c r="H36" s="132" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" s="125" t="s">
+        <v>115</v>
+      </c>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="134"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="22"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="137"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="22"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="J38" s="145" t="s">
+        <v>92</v>
+      </c>
+      <c r="K38" s="146"/>
+      <c r="L38" s="146"/>
+      <c r="M38" s="146"/>
+      <c r="N38" s="146"/>
+      <c r="O38" s="147"/>
+    </row>
+    <row r="39" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="22"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="J39" s="145" t="s">
+        <v>93</v>
+      </c>
+      <c r="K39" s="146"/>
+      <c r="L39" s="146"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="147"/>
+    </row>
+    <row r="40" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B40" s="39">
+        <v>1</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="43"/>
+      <c r="E40" s="40"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="J40" s="149" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="150"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="78"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G41" s="121">
+        <v>4</v>
+      </c>
+      <c r="H41" s="122" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="112" t="s">
+        <v>117</v>
+      </c>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="108"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="123"/>
+      <c r="H42" s="120"/>
+      <c r="I42" s="96"/>
+      <c r="J42" s="96"/>
+      <c r="K42" s="96"/>
+      <c r="L42" s="96"/>
+      <c r="M42" s="96"/>
+      <c r="N42" s="96"/>
+      <c r="O42" s="126"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="116"/>
+      <c r="H43" s="102"/>
+      <c r="I43" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="104" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" s="104"/>
+      <c r="L43" s="104"/>
+      <c r="M43" s="104"/>
+      <c r="N43" s="104"/>
+      <c r="O43" s="124"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="22"/>
+      <c r="G44" s="127"/>
+      <c r="H44" s="128"/>
+      <c r="I44" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="J44" s="104" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44" s="104"/>
+      <c r="L44" s="104"/>
+      <c r="M44" s="104"/>
+      <c r="N44" s="104"/>
+      <c r="O44" s="124"/>
+    </row>
+    <row r="45" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="22"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="64"/>
+      <c r="I45" s="117" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="110" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="111"/>
+    </row>
+    <row r="46" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="22"/>
+      <c r="G46" s="105">
+        <v>5</v>
+      </c>
+      <c r="H46" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="I46" s="151" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" s="152"/>
+      <c r="K46" s="152"/>
+      <c r="L46" s="152"/>
+      <c r="M46" s="152"/>
+      <c r="N46" s="152"/>
+      <c r="O46" s="153"/>
+    </row>
+    <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="25"/>
+      <c r="G47" s="116"/>
+      <c r="H47" s="148"/>
+      <c r="I47" s="117" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="118" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="119"/>
+    </row>
+    <row r="48" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="39">
+        <v>2</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="40"/>
+      <c r="G48" s="105">
+        <v>6</v>
+      </c>
+      <c r="H48" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="I48" s="151" t="s">
+        <v>121</v>
+      </c>
+      <c r="J48" s="152"/>
+      <c r="K48" s="152"/>
+      <c r="L48" s="152"/>
+      <c r="M48" s="152"/>
+      <c r="N48" s="152"/>
+      <c r="O48" s="153"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B49" s="38"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="116"/>
+      <c r="H49" s="148"/>
+      <c r="I49" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="J49" s="104" t="s">
+        <v>99</v>
+      </c>
+      <c r="K49" s="104"/>
+      <c r="L49" s="104"/>
+      <c r="M49" s="104"/>
+      <c r="N49" s="104"/>
+      <c r="O49" s="124"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="21"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="22"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="23"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="J47:O47"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="I46:O46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I48:O48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="J45:O45"/>
+    <mergeCell ref="G43:H45"/>
+    <mergeCell ref="I41:O42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="J38:O38"/>
+    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="G38:H40"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="J35:O35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="I36:O37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="I31:O31"/>
+    <mergeCell ref="I32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="B33:D39"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B41:D47"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="B49:D55"/>
+    <mergeCell ref="B30:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
+  <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="1" customWidth="1"/>
-    <col min="5" max="5" width="51.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="77" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="9" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.796875" style="48"/>
+    <col min="10" max="10" width="8.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="8.796875" style="48"/>
+    <col min="15" max="15" width="8.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="48" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.8984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.8984375" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.09765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13" style="48" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A2" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="48">
+        <v>100</v>
+      </c>
+      <c r="D2" s="48">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E2" s="48">
+        <v>0</v>
+      </c>
+      <c r="F2" s="48">
+        <v>0</v>
+      </c>
+      <c r="G2" s="48">
+        <v>0</v>
+      </c>
+      <c r="H2" s="48">
+        <v>0</v>
+      </c>
+      <c r="I2" s="48">
+        <v>0</v>
+      </c>
+      <c r="J2" s="48">
+        <v>0</v>
+      </c>
+      <c r="K2" s="48">
+        <v>0</v>
+      </c>
+      <c r="L2" s="48">
+        <v>1</v>
+      </c>
+      <c r="M2" s="48">
         <v>2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="N2" s="48">
+        <v>2</v>
+      </c>
+      <c r="O2" s="48">
+        <v>0</v>
+      </c>
+      <c r="P2" s="48">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="48">
+        <v>100</v>
+      </c>
+      <c r="R2" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="48">
+        <v>0</v>
+      </c>
+      <c r="T2" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A3" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="48">
+        <v>101</v>
+      </c>
+      <c r="D3" s="48">
+        <v>1</v>
+      </c>
+      <c r="E3" s="48">
+        <v>0</v>
+      </c>
+      <c r="F3" s="48">
+        <v>0</v>
+      </c>
+      <c r="G3" s="48">
+        <v>0</v>
+      </c>
+      <c r="H3" s="48">
+        <v>0</v>
+      </c>
+      <c r="I3" s="48">
+        <v>30</v>
+      </c>
+      <c r="J3" s="48">
+        <v>6</v>
+      </c>
+      <c r="K3" s="48">
+        <v>0</v>
+      </c>
+      <c r="L3" s="48">
+        <v>1</v>
+      </c>
+      <c r="M3" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="48">
+        <v>0</v>
+      </c>
+      <c r="P3" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="48">
+        <v>100</v>
+      </c>
+      <c r="R3" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" s="48">
+        <v>0</v>
+      </c>
+      <c r="T3" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A4" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="48">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A5" s="77" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="48">
+        <v>111</v>
+      </c>
+      <c r="D5" s="48">
+        <v>1</v>
+      </c>
+      <c r="E5" s="48">
+        <v>0</v>
+      </c>
+      <c r="F5" s="48">
+        <v>0</v>
+      </c>
+      <c r="G5" s="48">
+        <v>0</v>
+      </c>
+      <c r="H5" s="48">
+        <v>0</v>
+      </c>
+      <c r="I5" s="48">
+        <v>10</v>
+      </c>
+      <c r="J5" s="48">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="7">
+      <c r="K5" s="48">
+        <v>0</v>
+      </c>
+      <c r="L5" s="48">
+        <v>2</v>
+      </c>
+      <c r="M5" s="48">
+        <v>0</v>
+      </c>
+      <c r="N5" s="48">
+        <v>0</v>
+      </c>
+      <c r="O5" s="48">
+        <v>0</v>
+      </c>
+      <c r="P5" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>500</v>
+      </c>
+      <c r="R5" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="S5" s="48">
+        <v>0</v>
+      </c>
+      <c r="T5" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A6" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="48">
+        <v>112</v>
+      </c>
+      <c r="D6" s="48">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E6" s="48">
+        <v>0</v>
+      </c>
+      <c r="F6" s="48">
+        <v>0</v>
+      </c>
+      <c r="G6" s="48">
+        <v>0</v>
+      </c>
+      <c r="H6" s="48">
+        <v>0</v>
+      </c>
+      <c r="I6" s="48">
+        <v>15</v>
+      </c>
+      <c r="J6" s="48">
         <v>5</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6" t="s">
+      <c r="K6" s="48">
+        <v>0</v>
+      </c>
+      <c r="L6" s="48">
+        <v>0</v>
+      </c>
+      <c r="M6" s="48">
+        <v>0</v>
+      </c>
+      <c r="N6" s="48">
+        <v>0</v>
+      </c>
+      <c r="O6" s="48">
+        <v>0</v>
+      </c>
+      <c r="P6" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>0</v>
+      </c>
+      <c r="R6" s="48">
+        <v>0</v>
+      </c>
+      <c r="S6" s="48">
+        <v>0</v>
+      </c>
+      <c r="T6" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A7" s="77" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="48">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A8" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="48">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A9" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="48">
+        <v>115</v>
+      </c>
+      <c r="D9" s="48">
+        <v>1</v>
+      </c>
+      <c r="E9" s="48">
+        <v>0</v>
+      </c>
+      <c r="F9" s="48">
+        <v>0</v>
+      </c>
+      <c r="G9" s="48">
+        <v>0</v>
+      </c>
+      <c r="H9" s="48">
+        <v>0</v>
+      </c>
+      <c r="I9" s="48">
+        <v>20</v>
+      </c>
+      <c r="J9" s="48">
+        <v>3</v>
+      </c>
+      <c r="K9" s="48">
+        <v>0</v>
+      </c>
+      <c r="L9" s="48">
+        <v>2</v>
+      </c>
+      <c r="M9" s="48">
+        <v>3</v>
+      </c>
+      <c r="N9" s="48">
+        <v>3</v>
+      </c>
+      <c r="O9" s="48">
+        <v>0</v>
+      </c>
+      <c r="P9" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="48">
+        <v>100</v>
+      </c>
+      <c r="R9" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="S9" s="48">
+        <v>0</v>
+      </c>
+      <c r="T9" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A10" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="48">
+        <v>116</v>
+      </c>
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="E10" s="48">
+        <v>0</v>
+      </c>
+      <c r="F10" s="48">
+        <v>0</v>
+      </c>
+      <c r="G10" s="48">
+        <v>0</v>
+      </c>
+      <c r="H10" s="48">
+        <v>0</v>
+      </c>
+      <c r="I10" s="48">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="10"/>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="27" x14ac:dyDescent="0.3">
-      <c r="B13" s="10"/>
-      <c r="C13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="6" t="s">
+      <c r="J10" s="48">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
+      <c r="K10" s="48">
+        <v>0</v>
+      </c>
+      <c r="L10" s="48">
+        <v>1</v>
+      </c>
+      <c r="M10" s="48">
+        <v>1.5</v>
+      </c>
+      <c r="N10" s="48">
+        <v>3</v>
+      </c>
+      <c r="O10" s="48">
+        <v>0</v>
+      </c>
+      <c r="P10" s="48">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="48">
+        <v>100</v>
+      </c>
+      <c r="R10" s="48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A11" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="48">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="A12" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="48">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332F0C0-F1F2-4992-AC41-38F649E26CD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31AF7C-9E3E-4D74-A604-E5E1EF001F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15120" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -372,7 +372,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -383,7 +383,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
@@ -393,7 +393,7 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
@@ -404,12 +404,119 @@
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
+            <sz val="10"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">]
+* </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>십의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>세부</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>분류</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
         <r>
@@ -419,17 +526,37 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">0 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스위칭</t>
+          <t xml:space="preserve">0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기본
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1: 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
         </r>
         <r>
           <rPr>
@@ -458,7 +585,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1 : 1</t>
+          <t>2: 2</t>
         </r>
         <r>
           <rPr>
@@ -497,7 +624,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>2 : 2</t>
+          <t>3: 3</t>
         </r>
         <r>
           <rPr>
@@ -536,7 +663,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3 : 3</t>
+          <t>4: 4</t>
         </r>
         <r>
           <rPr>
@@ -547,6 +674,67 @@
             <charset val="129"/>
           </rPr>
           <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">00 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스위칭</t>
         </r>
         <r>
           <rPr>
@@ -575,17 +763,57 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4 : 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번</t>
+          <t xml:space="preserve">01: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>이동기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+02: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">기상기
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">03: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
         </r>
         <r>
           <rPr>
@@ -604,11 +832,38 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>스킬</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>평타</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="돋움"/>
@@ -622,6 +877,72 @@
           <rPr>
             <sz val="9"/>
             <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>10 : 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="돋움"/>
             <family val="3"/>
             <charset val="129"/>
@@ -631,6 +952,226 @@
         </r>
         <r>
           <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>20 : 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>30 : 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>40 : 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
@@ -638,17 +1179,157 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>예외</t>
+          <t xml:space="preserve">
+</t>
         </r>
         <r>
           <rPr>
             <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1)</t>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">* </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자리</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬의</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>형태</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>판별</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>예시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
         <r>
           <rPr>
@@ -677,26 +1358,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">5: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 1</t>
+          <t>11: 1</t>
         </r>
         <r>
           <rPr>
@@ -725,196 +1387,291 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t xml:space="preserve">스킬
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">6: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스킬
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">7: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 3</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스킬
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">8: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>강화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 4</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>번</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">스킬
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>21: 2</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>31: 3</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>41: 4</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>번</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>강화형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{E4CDC4C6-6DE6-4E9A-9791-A0F8F44B1F88}">
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{E4CDC4C6-6DE6-4E9A-9791-A0F8F44B1F88}">
       <text>
         <r>
           <rPr>
@@ -1207,7 +1964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1512,19 +2269,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OO / N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">OO </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>무기 번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1757,15 +2502,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>최대 차지 시간(s)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>최대 차지량</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>차지 중 방향 전환 속도</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1867,11 +2604,6 @@
   </si>
   <si>
     <t>체인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬을 사용하면 연결된 다음 스킬이 사용가능해지는 타입. 
-(연결된 모든 스킬을 사용한 후에 재사용 대기시간이 적용된다.)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2011,12 +2743,111 @@
     <t>[150/1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>movement_type</t>
+  </si>
+  <si>
+    <t>movement_dis</t>
+  </si>
+  <si>
+    <t>이동거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_dis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콤보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 사용하면 연결된 다음 스킬이 사용가능해지는 타입. 
+(연결된 모든 스킬을 사용한 후에 재사용 대기시간이 적용된다.)
+(재 입력 시간 동안에 다른 행동이 가능하다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 스킬이지만 연속으로 사용해야 발동되는 스킬 타입. 
+(재 입력 시간 동안 다른 행동을 하면 콤보가 풀린다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차지 중 방향 전환 각도 (중앙 기준 좌우)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 콤보 횟수</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 사용 시 이동 여부 및 타입
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: 이동 x / 1: 단순 이동 / 2: 대쉬 / 3: 텔레포트</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 기상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 이동기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 기상기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM / NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2203,6 +3034,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -2254,7 +3100,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -3010,11 +3856,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3070,66 +3938,15 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3137,93 +3954,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3243,52 +3991,184 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3296,73 +4176,130 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3371,99 +4308,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3472,6 +4316,66 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3501,14 +4405,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>746946</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>213908</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3545,13 +4449,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>259081</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>815451</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>173915</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3595,14 +4499,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>274320</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>120832</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>250554</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>47898</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>25486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3911,27 +4815,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O55"/>
+  <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.796875" style="48"/>
-    <col min="9" max="9" width="10.3984375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="8.796875" style="48"/>
-    <col min="11" max="11" width="11.296875" style="48" customWidth="1"/>
-    <col min="12" max="15" width="8.796875" style="48"/>
+    <col min="7" max="8" width="8.75" style="26"/>
+    <col min="9" max="9" width="10.375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="26"/>
+    <col min="11" max="11" width="11.25" style="26" customWidth="1"/>
+    <col min="12" max="15" width="8.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3944,15 +4848,15 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="65" t="s">
+      <c r="G3" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H3" s="157"/>
+      <c r="I3" s="157"/>
+      <c r="J3" s="157"/>
+      <c r="K3" s="69"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -3965,23 +4869,23 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="158" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="I4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="J4" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -3994,13 +4898,13 @@
       <c r="E5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="57"/>
-    </row>
-    <row r="6" spans="2:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="159"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="2:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -4011,104 +4915,104 @@
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="51"/>
-    </row>
-    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="91"/>
+    </row>
+    <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="61">
-        <v>100</v>
-      </c>
-      <c r="H7" s="73">
+      <c r="E7" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" s="160">
+        <v>1000</v>
+      </c>
+      <c r="H7" s="33">
         <v>10</v>
       </c>
-      <c r="I7" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-      <c r="K7" s="63" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="163" t="s">
+        <v>134</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="70">
-        <v>124</v>
-      </c>
-      <c r="H8" s="74">
+      <c r="E8" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="161">
+        <v>1240</v>
+      </c>
+      <c r="H8" s="34">
         <v>12</v>
       </c>
-      <c r="I8" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="74">
-        <v>4</v>
-      </c>
-      <c r="K8" s="72" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I8" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="164" t="s">
+        <v>135</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="60">
-        <v>142</v>
-      </c>
-      <c r="H9" s="75">
+      <c r="E9" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" s="162">
+        <v>1420</v>
+      </c>
+      <c r="H9" s="35">
         <v>14</v>
       </c>
-      <c r="I9" s="58" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="75">
-        <v>2</v>
-      </c>
-      <c r="K9" s="59" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="I9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" s="165" t="s">
+        <v>136</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -4119,15 +5023,15 @@
         <v>5</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -4136,7 +5040,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -4150,7 +5054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -4164,703 +5068,768 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E15" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>22</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>23</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E26" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="29" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="89" t="s">
+    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="90"/>
-      <c r="G30" s="45" t="s">
+      <c r="C32" s="69"/>
+      <c r="G32" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="154" t="s">
+        <v>116</v>
+      </c>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="156"/>
+    </row>
+    <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="80"/>
+      <c r="E33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>3</v>
+      </c>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="81"/>
+      <c r="N33" s="81"/>
+      <c r="O33" s="82"/>
+    </row>
+    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="22">
+        <v>0</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="23"/>
+      <c r="G34" s="40">
+        <v>0</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="97"/>
+      <c r="O34" s="98"/>
+    </row>
+    <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="40">
+        <v>1</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="99" t="s">
+        <v>106</v>
+      </c>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
+      <c r="L35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="100"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="73"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="75"/>
+      <c r="E36" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="43">
+        <v>2</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="107" t="s">
+        <v>108</v>
+      </c>
+      <c r="J36" s="108"/>
+      <c r="K36" s="108"/>
+      <c r="L36" s="108"/>
+      <c r="M36" s="108"/>
+      <c r="N36" s="108"/>
+      <c r="O36" s="109"/>
+    </row>
+    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="73"/>
+      <c r="C37" s="74"/>
+      <c r="D37" s="75"/>
+      <c r="E37" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="113"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="112"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="73"/>
+      <c r="C38" s="74"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="123">
+        <v>3</v>
+      </c>
+      <c r="H38" s="121" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="116"/>
+      <c r="N38" s="116"/>
+      <c r="O38" s="117"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="73"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="122"/>
+      <c r="I39" s="118"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="120"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="73"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="K40" s="102"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="102"/>
+      <c r="N40" s="102"/>
+      <c r="O40" s="103"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="76"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J41" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="105"/>
+      <c r="N41" s="105"/>
+      <c r="O41" s="106"/>
+    </row>
+    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="22">
+        <v>1</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="23"/>
+      <c r="G42" s="139">
+        <v>4</v>
+      </c>
+      <c r="H42" s="137" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" s="132" t="s">
+        <v>130</v>
+      </c>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="134"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="48"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="140"/>
+      <c r="H43" s="138"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="135"/>
+      <c r="L43" s="135"/>
+      <c r="M43" s="135"/>
+      <c r="N43" s="135"/>
+      <c r="O43" s="136"/>
+    </row>
+    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="51"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="113"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J44" s="125" t="s">
+        <v>132</v>
+      </c>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
+      <c r="O44" s="126"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="51"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G45" s="123">
+        <v>4</v>
+      </c>
+      <c r="H45" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="116" t="s">
+        <v>129</v>
+      </c>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="116"/>
+      <c r="N45" s="116"/>
+      <c r="O45" s="117"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="51"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="20"/>
+      <c r="G46" s="152"/>
+      <c r="H46" s="153"/>
+      <c r="I46" s="149"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="149"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="150"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="51"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="20"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="122"/>
+      <c r="I47" s="119"/>
+      <c r="J47" s="119"/>
+      <c r="K47" s="119"/>
+      <c r="L47" s="119"/>
+      <c r="M47" s="119"/>
+      <c r="N47" s="119"/>
+      <c r="O47" s="120"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="51"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="20"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="146"/>
+      <c r="I48" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="92"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-    </row>
-    <row r="31" spans="2:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="87" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="88"/>
-      <c r="E31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G31" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="H31" s="95" t="s">
-        <v>107</v>
-      </c>
-      <c r="I31" s="114" t="s">
-        <v>3</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="67"/>
-    </row>
-    <row r="32" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B32" s="39">
-        <v>0</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="40"/>
-      <c r="G32" s="97">
-        <v>0</v>
-      </c>
-      <c r="H32" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="113" t="s">
-        <v>109</v>
-      </c>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="94"/>
-    </row>
-    <row r="33" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="29"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="97">
-        <v>1</v>
-      </c>
-      <c r="H33" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="I33" s="99" t="s">
-        <v>111</v>
-      </c>
-      <c r="J33" s="99"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="99"/>
-      <c r="M33" s="99"/>
-      <c r="N33" s="99"/>
-      <c r="O33" s="100"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="105">
+      <c r="K48" s="102"/>
+      <c r="L48" s="102"/>
+      <c r="M48" s="102"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="103"/>
+    </row>
+    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="54"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="130"/>
+      <c r="H49" s="147"/>
+      <c r="I49" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J49" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49" s="102"/>
+      <c r="L49" s="102"/>
+      <c r="M49" s="102"/>
+      <c r="N49" s="102"/>
+      <c r="O49" s="103"/>
+    </row>
+    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="H34" s="106" t="s">
+      <c r="C50" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="58"/>
+      <c r="E50" s="23"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="148"/>
+      <c r="I50" s="151" t="s">
+        <v>120</v>
+      </c>
+      <c r="J50" s="110" t="s">
+        <v>92</v>
+      </c>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="112"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="G51" s="43">
+        <v>5</v>
+      </c>
+      <c r="H51" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="I34" s="142" t="s">
+      <c r="I51" s="143" t="s">
         <v>113</v>
       </c>
-      <c r="J34" s="143"/>
-      <c r="K34" s="143"/>
-      <c r="L34" s="143"/>
-      <c r="M34" s="143"/>
-      <c r="N34" s="143"/>
-      <c r="O34" s="144"/>
-    </row>
-    <row r="35" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="117" t="s">
-        <v>123</v>
-      </c>
-      <c r="J35" s="139" t="s">
-        <v>91</v>
-      </c>
-      <c r="K35" s="140"/>
-      <c r="L35" s="140"/>
-      <c r="M35" s="140"/>
-      <c r="N35" s="140"/>
-      <c r="O35" s="141"/>
-    </row>
-    <row r="36" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="22"/>
-      <c r="G36" s="130">
-        <v>3</v>
-      </c>
-      <c r="H36" s="132" t="s">
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="145"/>
+    </row>
+    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="62"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="G52" s="129"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="J52" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="142"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="62"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="64"/>
+      <c r="E53" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="47">
+        <v>6</v>
+      </c>
+      <c r="H53" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I36" s="125" t="s">
+      <c r="I53" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="J36" s="115"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
-      <c r="N36" s="115"/>
-      <c r="O36" s="134"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B37" s="32"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="22"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="133"/>
-      <c r="I37" s="135"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="137"/>
-    </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B38" s="32"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="22"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="145" t="s">
-        <v>92</v>
-      </c>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="146"/>
-      <c r="N38" s="146"/>
-      <c r="O38" s="147"/>
-    </row>
-    <row r="39" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="35"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="22"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="145" t="s">
-        <v>93</v>
-      </c>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="146"/>
-      <c r="N39" s="146"/>
-      <c r="O39" s="147"/>
-    </row>
-    <row r="40" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B40" s="39">
-        <v>1</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="43"/>
-      <c r="E40" s="40"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="J40" s="149" t="s">
+      <c r="J53" s="144"/>
+      <c r="K53" s="144"/>
+      <c r="L53" s="144"/>
+      <c r="M53" s="144"/>
+      <c r="N53" s="144"/>
+      <c r="O53" s="145"/>
+    </row>
+    <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="62"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="19"/>
+      <c r="G54" s="113"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="151" t="s">
+        <v>118</v>
+      </c>
+      <c r="J54" s="127" t="s">
         <v>94</v>
       </c>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="150"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="78"/>
-      <c r="C41" s="79"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" s="121">
-        <v>4</v>
-      </c>
-      <c r="H41" s="122" t="s">
-        <v>116</v>
-      </c>
-      <c r="I41" s="112" t="s">
-        <v>117</v>
-      </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
-      <c r="O41" s="108"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B42" s="81"/>
-      <c r="C42" s="82"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="G42" s="123"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="96"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="126"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B43" s="81"/>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="116"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="J43" s="104" t="s">
-        <v>95</v>
-      </c>
-      <c r="K43" s="104"/>
-      <c r="L43" s="104"/>
-      <c r="M43" s="104"/>
-      <c r="N43" s="104"/>
-      <c r="O43" s="124"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B44" s="81"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="22"/>
-      <c r="G44" s="127"/>
-      <c r="H44" s="128"/>
-      <c r="I44" s="103" t="s">
-        <v>125</v>
-      </c>
-      <c r="J44" s="104" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44" s="104"/>
-      <c r="L44" s="104"/>
-      <c r="M44" s="104"/>
-      <c r="N44" s="104"/>
-      <c r="O44" s="124"/>
-    </row>
-    <row r="45" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="81"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="22"/>
-      <c r="G45" s="129"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="117" t="s">
-        <v>126</v>
-      </c>
-      <c r="J45" s="110" t="s">
-        <v>97</v>
-      </c>
-      <c r="K45" s="110"/>
-      <c r="L45" s="110"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
-      <c r="O45" s="111"/>
-    </row>
-    <row r="46" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B46" s="81"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="22"/>
-      <c r="G46" s="105">
-        <v>5</v>
-      </c>
-      <c r="H46" s="106" t="s">
-        <v>118</v>
-      </c>
-      <c r="I46" s="151" t="s">
-        <v>119</v>
-      </c>
-      <c r="J46" s="152"/>
-      <c r="K46" s="152"/>
-      <c r="L46" s="152"/>
-      <c r="M46" s="152"/>
-      <c r="N46" s="152"/>
-      <c r="O46" s="153"/>
-    </row>
-    <row r="47" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="84"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="25"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="117" t="s">
-        <v>124</v>
-      </c>
-      <c r="J47" s="118" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="119"/>
-    </row>
-    <row r="48" spans="2:15" s="41" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="39">
-        <v>2</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D48" s="43"/>
-      <c r="E48" s="40"/>
-      <c r="G48" s="105">
-        <v>6</v>
-      </c>
-      <c r="H48" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="151" t="s">
-        <v>121</v>
-      </c>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="153"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B49" s="38"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="G49" s="116"/>
-      <c r="H49" s="148"/>
-      <c r="I49" s="103" t="s">
-        <v>124</v>
-      </c>
-      <c r="J49" s="104" t="s">
-        <v>99</v>
-      </c>
-      <c r="K49" s="104"/>
-      <c r="L49" s="104"/>
-      <c r="M49" s="104"/>
-      <c r="N49" s="104"/>
-      <c r="O49" s="124"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="22"/>
-    </row>
-    <row r="54" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="22"/>
-    </row>
-    <row r="55" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="25"/>
+      <c r="K54" s="127"/>
+      <c r="L54" s="127"/>
+      <c r="M54" s="127"/>
+      <c r="N54" s="127"/>
+      <c r="O54" s="128"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="20"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="20"/>
+    </row>
+    <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="J47:O47"/>
+  <mergeCells count="47">
     <mergeCell ref="J49:O49"/>
-    <mergeCell ref="I46:O46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I48:O48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J43:O43"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:O43"/>
     <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J45:O45"/>
-    <mergeCell ref="G43:H45"/>
-    <mergeCell ref="I41:O42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="J38:O38"/>
-    <mergeCell ref="J39:O39"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="I45:O47"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="I35:O35"/>
     <mergeCell ref="J40:O40"/>
-    <mergeCell ref="G38:H40"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
     <mergeCell ref="I34:O34"/>
-    <mergeCell ref="J35:O35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="I36:O37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:O30"/>
-    <mergeCell ref="I31:O31"/>
-    <mergeCell ref="I32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="B33:D39"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C31:D31"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B41:D47"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="B49:D55"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4872,40 +5841,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="77" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="48" customWidth="1"/>
-    <col min="3" max="3" width="9" style="48" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="48" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="9" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.796875" style="48"/>
-    <col min="10" max="10" width="8.59765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="8.796875" style="48"/>
-    <col min="15" max="15" width="8.09765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="48" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.09765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.8984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.09765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.09765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.59765625" style="48" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13" style="48" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.796875" style="48"/>
+    <col min="1" max="1" width="14.75" style="37" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="26" customWidth="1"/>
+    <col min="6" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="26"/>
+    <col min="10" max="10" width="8.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.75" style="26"/>
+    <col min="17" max="17" width="8.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="26" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="76" t="s">
-        <v>71</v>
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
+        <v>68</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -4917,19 +5888,19 @@
         <v>17</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>21</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>13</v>
@@ -4938,431 +5909,502 @@
         <v>15</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="O1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="P1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="Q1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="R1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="S1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="T1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="Y1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A2" s="77" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="26">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
+        <v>0</v>
+      </c>
+      <c r="H2" s="26">
+        <v>0</v>
+      </c>
+      <c r="I2" s="26">
+        <v>0</v>
+      </c>
+      <c r="J2" s="26">
+        <v>0</v>
+      </c>
+      <c r="K2" s="26">
+        <v>0</v>
+      </c>
+      <c r="L2" s="26">
+        <v>1</v>
+      </c>
+      <c r="M2" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N2" s="26">
+        <v>1</v>
+      </c>
+      <c r="O2" s="26">
+        <v>2</v>
+      </c>
+      <c r="P2" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>0</v>
+      </c>
+      <c r="R2" s="26">
+        <v>2</v>
+      </c>
+      <c r="S2" s="26">
+        <v>100</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" s="26">
+        <v>0</v>
+      </c>
+      <c r="V2" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1001</v>
+      </c>
+      <c r="D3" s="26">
+        <v>1</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0</v>
+      </c>
+      <c r="I3" s="26">
+        <v>0</v>
+      </c>
+      <c r="J3" s="26">
+        <v>8</v>
+      </c>
+      <c r="L3" s="26">
+        <v>2</v>
+      </c>
+      <c r="M3" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1002</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1010</v>
+      </c>
+      <c r="D5" s="26">
+        <v>1</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
+        <v>0</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0</v>
+      </c>
+      <c r="I5" s="26">
+        <v>30</v>
+      </c>
+      <c r="J5" s="26">
+        <v>6</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26">
+        <v>3</v>
+      </c>
+      <c r="N5" s="26">
+        <v>1</v>
+      </c>
+      <c r="O5" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="P5" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>0</v>
+      </c>
+      <c r="R5" s="26">
+        <v>0</v>
+      </c>
+      <c r="S5" s="26">
+        <v>100</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="U5" s="26">
+        <v>0</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="26">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="26">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="26">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B9" s="26">
+        <v>1110</v>
+      </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>10</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="N9" s="26">
+        <v>2</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <v>0</v>
+      </c>
+      <c r="S9" s="26">
+        <v>500</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="26">
+        <v>1111</v>
+      </c>
+      <c r="D10" s="26">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>20</v>
+      </c>
+      <c r="J10" s="26">
+        <v>3</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>2</v>
+      </c>
+      <c r="O10" s="26">
+        <v>3</v>
+      </c>
+      <c r="P10" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
         <v>100</v>
       </c>
-      <c r="D2" s="48">
+      <c r="T10" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="26">
+        <v>1120</v>
+      </c>
+      <c r="D11" s="26">
         <v>1</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E11" s="26">
         <v>0</v>
       </c>
-      <c r="F2" s="48">
+      <c r="F11" s="26">
         <v>0</v>
       </c>
-      <c r="G2" s="48">
+      <c r="G11" s="26">
         <v>0</v>
       </c>
-      <c r="H2" s="48">
+      <c r="H11" s="26">
         <v>0</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I11" s="26">
+        <v>15</v>
+      </c>
+      <c r="J11" s="26">
+        <v>5</v>
+      </c>
+      <c r="K11" s="26">
         <v>0</v>
       </c>
-      <c r="J2" s="48">
+      <c r="N11" s="26">
         <v>0</v>
       </c>
-      <c r="K2" s="48">
+      <c r="O11" s="26">
         <v>0</v>
       </c>
-      <c r="L2" s="48">
+      <c r="P11" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>0</v>
+      </c>
+      <c r="R11" s="26">
+        <v>0</v>
+      </c>
+      <c r="S11" s="26">
+        <v>0</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="26">
+        <v>1121</v>
+      </c>
+      <c r="D12" s="26">
         <v>1</v>
       </c>
-      <c r="M2" s="48">
-        <v>2</v>
-      </c>
-      <c r="N2" s="48">
-        <v>2</v>
-      </c>
-      <c r="O2" s="48">
+      <c r="E12" s="26">
         <v>0</v>
       </c>
-      <c r="P2" s="48">
-        <v>2</v>
-      </c>
-      <c r="Q2" s="48">
+      <c r="F12" s="26">
+        <v>0</v>
+      </c>
+      <c r="G12" s="26">
+        <v>0</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
+        <v>30</v>
+      </c>
+      <c r="J12" s="26">
+        <v>8</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0</v>
+      </c>
+      <c r="N12" s="26">
+        <v>1</v>
+      </c>
+      <c r="O12" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="P12" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>0</v>
+      </c>
+      <c r="R12" s="26">
+        <v>1</v>
+      </c>
+      <c r="S12" s="26">
         <v>100</v>
       </c>
-      <c r="R2" s="48" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="48">
-        <v>0</v>
-      </c>
-      <c r="T2" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A3" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="48">
-        <v>101</v>
-      </c>
-      <c r="D3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="48">
-        <v>0</v>
-      </c>
-      <c r="F3" s="48">
-        <v>0</v>
-      </c>
-      <c r="G3" s="48">
-        <v>0</v>
-      </c>
-      <c r="H3" s="48">
-        <v>0</v>
-      </c>
-      <c r="I3" s="48">
-        <v>30</v>
-      </c>
-      <c r="J3" s="48">
-        <v>6</v>
-      </c>
-      <c r="K3" s="48">
-        <v>0</v>
-      </c>
-      <c r="L3" s="48">
-        <v>1</v>
-      </c>
-      <c r="M3" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="N3" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="O3" s="48">
-        <v>0</v>
-      </c>
-      <c r="P3" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="48">
-        <v>100</v>
-      </c>
-      <c r="R3" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="48">
-        <v>0</v>
-      </c>
-      <c r="T3" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A4" s="77" t="s">
+      <c r="T12" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="48">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A5" s="77" t="s">
+      <c r="B13" s="26">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="48">
-        <v>111</v>
-      </c>
-      <c r="D5" s="48">
-        <v>1</v>
-      </c>
-      <c r="E5" s="48">
-        <v>0</v>
-      </c>
-      <c r="F5" s="48">
-        <v>0</v>
-      </c>
-      <c r="G5" s="48">
-        <v>0</v>
-      </c>
-      <c r="H5" s="48">
-        <v>0</v>
-      </c>
-      <c r="I5" s="48">
-        <v>10</v>
-      </c>
-      <c r="J5" s="48">
-        <v>3</v>
-      </c>
-      <c r="K5" s="48">
-        <v>0</v>
-      </c>
-      <c r="L5" s="48">
-        <v>2</v>
-      </c>
-      <c r="M5" s="48">
-        <v>0</v>
-      </c>
-      <c r="N5" s="48">
-        <v>0</v>
-      </c>
-      <c r="O5" s="48">
-        <v>0</v>
-      </c>
-      <c r="P5" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="48">
-        <v>500</v>
-      </c>
-      <c r="R5" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="S5" s="48">
-        <v>0</v>
-      </c>
-      <c r="T5" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A6" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="48">
-        <v>112</v>
-      </c>
-      <c r="D6" s="48">
-        <v>1</v>
-      </c>
-      <c r="E6" s="48">
-        <v>0</v>
-      </c>
-      <c r="F6" s="48">
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <v>0</v>
-      </c>
-      <c r="I6" s="48">
-        <v>15</v>
-      </c>
-      <c r="J6" s="48">
-        <v>5</v>
-      </c>
-      <c r="K6" s="48">
-        <v>0</v>
-      </c>
-      <c r="L6" s="48">
-        <v>0</v>
-      </c>
-      <c r="M6" s="48">
-        <v>0</v>
-      </c>
-      <c r="N6" s="48">
-        <v>0</v>
-      </c>
-      <c r="O6" s="48">
-        <v>0</v>
-      </c>
-      <c r="P6" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="48">
-        <v>0</v>
-      </c>
-      <c r="R6" s="48">
-        <v>0</v>
-      </c>
-      <c r="S6" s="48">
-        <v>0</v>
-      </c>
-      <c r="T6" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A7" s="77" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="48">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="48">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A9" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="48">
-        <v>115</v>
-      </c>
-      <c r="D9" s="48">
-        <v>1</v>
-      </c>
-      <c r="E9" s="48">
-        <v>0</v>
-      </c>
-      <c r="F9" s="48">
-        <v>0</v>
-      </c>
-      <c r="G9" s="48">
-        <v>0</v>
-      </c>
-      <c r="H9" s="48">
-        <v>0</v>
-      </c>
-      <c r="I9" s="48">
-        <v>20</v>
-      </c>
-      <c r="J9" s="48">
-        <v>3</v>
-      </c>
-      <c r="K9" s="48">
-        <v>0</v>
-      </c>
-      <c r="L9" s="48">
-        <v>2</v>
-      </c>
-      <c r="M9" s="48">
-        <v>3</v>
-      </c>
-      <c r="N9" s="48">
-        <v>3</v>
-      </c>
-      <c r="O9" s="48">
-        <v>0</v>
-      </c>
-      <c r="P9" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="48">
-        <v>100</v>
-      </c>
-      <c r="R9" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="S9" s="48">
-        <v>0</v>
-      </c>
-      <c r="T9" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A10" s="77" t="s">
+      <c r="B15" s="26">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="48">
-        <v>116</v>
-      </c>
-      <c r="D10" s="48">
-        <v>1</v>
-      </c>
-      <c r="E10" s="48">
-        <v>0</v>
-      </c>
-      <c r="F10" s="48">
-        <v>0</v>
-      </c>
-      <c r="G10" s="48">
-        <v>0</v>
-      </c>
-      <c r="H10" s="48">
-        <v>0</v>
-      </c>
-      <c r="I10" s="48">
-        <v>30</v>
-      </c>
-      <c r="J10" s="48">
-        <v>8</v>
-      </c>
-      <c r="K10" s="48">
-        <v>0</v>
-      </c>
-      <c r="L10" s="48">
-        <v>1</v>
-      </c>
-      <c r="M10" s="48">
-        <v>1.5</v>
-      </c>
-      <c r="N10" s="48">
-        <v>3</v>
-      </c>
-      <c r="O10" s="48">
-        <v>0</v>
-      </c>
-      <c r="P10" s="48">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="48">
-        <v>100</v>
-      </c>
-      <c r="R10" s="48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A11" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="48">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A12" s="77" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="48">
-        <v>118</v>
+      <c r="B16" s="26">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C31AF7C-9E3E-4D74-A604-E5E1EF001F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9089CB-CC9B-4E72-9E6C-EB82B2AC5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3450" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -1964,7 +1964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2027,10 +2027,6 @@
   </si>
   <si>
     <t>range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2840,6 +2836,44 @@
   </si>
   <si>
     <t>MM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단검 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">스킬 사정거리 (스킬을 사용할 수 있는 최대 거리)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF00B050"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>* 보통 영역을 지정하는 스킬에 적용</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[3/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40/3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4023,148 +4057,235 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4176,205 +4297,118 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4456,7 +4490,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>815451</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>173915</xdr:rowOff>
+      <xdr:rowOff>173916</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4506,7 +4540,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>250554</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>25486</xdr:rowOff>
+      <xdr:rowOff>25487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4817,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:K6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4848,13 +4882,13 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157"/>
-      <c r="J3" s="157"/>
-      <c r="K3" s="69"/>
+      <c r="G3" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
@@ -4869,20 +4903,20 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="158" t="s">
+      <c r="G4" s="135" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="85" t="s">
-        <v>143</v>
-      </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="131" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="137" t="s">
         <v>53</v>
-      </c>
-      <c r="J4" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="K4" s="87" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4896,62 +4930,62 @@
         <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="159"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="88"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="136"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="134"/>
+      <c r="K5" s="138"/>
     </row>
     <row r="6" spans="2:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G6" s="89" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="91"/>
+        <v>85</v>
+      </c>
+      <c r="G6" s="113" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="114"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="115"/>
     </row>
     <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="160">
+        <v>120</v>
+      </c>
+      <c r="G7" s="49">
         <v>1000</v>
       </c>
       <c r="H7" s="33">
         <v>10</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="163" t="s">
-        <v>134</v>
+        <v>55</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -4959,28 +4993,28 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G8" s="161">
+        <v>99</v>
+      </c>
+      <c r="G8" s="50">
         <v>1240</v>
       </c>
       <c r="H8" s="34">
         <v>12</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="164" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4988,28 +5022,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G9" s="162">
+        <v>100</v>
+      </c>
+      <c r="G9" s="51">
         <v>1420</v>
       </c>
       <c r="H9" s="35">
         <v>14</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="165" t="s">
-        <v>136</v>
+        <v>63</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>135</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5017,13 +5051,13 @@
         <v>7</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -5031,13 +5065,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -5054,7 +5088,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -5065,7 +5099,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5073,13 +5107,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -5087,13 +5121,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5101,13 +5135,13 @@
         <v>13</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -5115,13 +5149,13 @@
         <v>14</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -5129,13 +5163,13 @@
         <v>15</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
@@ -5143,13 +5177,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
@@ -5157,13 +5191,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -5171,13 +5205,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.3">
@@ -5185,13 +5219,13 @@
         <v>19</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -5199,13 +5233,13 @@
         <v>20</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.3">
@@ -5213,13 +5247,13 @@
         <v>21</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="E24" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -5233,7 +5267,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
@@ -5247,7 +5281,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
@@ -5261,7 +5295,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
@@ -5275,7 +5309,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5286,503 +5320,537 @@
     </row>
     <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="69"/>
-      <c r="G32" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-      <c r="J32" s="154" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" s="155"/>
-      <c r="L32" s="155"/>
-      <c r="M32" s="155"/>
-      <c r="N32" s="155"/>
-      <c r="O32" s="156"/>
+      <c r="B32" s="128" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="130"/>
+      <c r="G32" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="117"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="119" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="120"/>
+      <c r="L32" s="120"/>
+      <c r="M32" s="120"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="121"/>
     </row>
     <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="80"/>
+      <c r="C33" s="164" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="165"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="I33" s="95" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="81"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="81"/>
-      <c r="O33" s="82"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="123"/>
+      <c r="L33" s="123"/>
+      <c r="M33" s="123"/>
+      <c r="N33" s="123"/>
+      <c r="O33" s="124"/>
     </row>
     <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="58"/>
+      <c r="C34" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="149"/>
       <c r="E34" s="23"/>
       <c r="G34" s="40">
         <v>0</v>
       </c>
       <c r="H34" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="125" t="s">
         <v>103</v>
       </c>
-      <c r="I34" s="96" t="s">
-        <v>104</v>
-      </c>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="98"/>
+      <c r="J34" s="126"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="127"/>
     </row>
     <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="70"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="72"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="157"/>
       <c r="E35" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="40">
         <v>1</v>
       </c>
       <c r="H35" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="I35" s="99" t="s">
-        <v>106</v>
-      </c>
-      <c r="J35" s="99"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="99"/>
-      <c r="M35" s="99"/>
-      <c r="N35" s="99"/>
-      <c r="O35" s="100"/>
+      <c r="J35" s="103"/>
+      <c r="K35" s="103"/>
+      <c r="L35" s="103"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="104"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="73"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="75"/>
+      <c r="B36" s="158"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="160"/>
       <c r="E36" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="43">
         <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="I36" s="107" t="s">
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="109"/>
+      <c r="M36" s="109"/>
+      <c r="N36" s="109"/>
+      <c r="O36" s="110"/>
+    </row>
+    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="158"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="160"/>
+      <c r="E37" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="67"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="60"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="158"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="160"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="100">
+        <v>3</v>
+      </c>
+      <c r="H38" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="J36" s="108"/>
-      <c r="K36" s="108"/>
-      <c r="L36" s="108"/>
-      <c r="M36" s="108"/>
-      <c r="N36" s="108"/>
-      <c r="O36" s="109"/>
-    </row>
-    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="73"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="113"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="45" t="s">
+      <c r="I38" s="111" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="91"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="91"/>
+      <c r="O38" s="92"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="158"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="160"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="95"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="96"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="158"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="160"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="J37" s="110" t="s">
+      <c r="J40" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
-    </row>
-    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="73"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="123">
-        <v>3</v>
-      </c>
-      <c r="H38" s="121" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="116"/>
-      <c r="N38" s="116"/>
-      <c r="O38" s="117"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="73"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="122"/>
-      <c r="I39" s="118"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="119"/>
-      <c r="L39" s="119"/>
-      <c r="M39" s="119"/>
-      <c r="N39" s="119"/>
-      <c r="O39" s="120"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="73"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="20"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="61"/>
-      <c r="I40" s="42" t="s">
+      <c r="K40" s="56"/>
+      <c r="L40" s="56"/>
+      <c r="M40" s="56"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="57"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="161"/>
+      <c r="C41" s="162"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J40" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="102"/>
-      <c r="L40" s="102"/>
-      <c r="M40" s="102"/>
-      <c r="N40" s="102"/>
-      <c r="O40" s="103"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="76"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="20"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J41" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41" s="105"/>
-      <c r="L41" s="105"/>
-      <c r="M41" s="105"/>
-      <c r="N41" s="105"/>
-      <c r="O41" s="106"/>
+      <c r="J41" s="105" t="s">
+        <v>130</v>
+      </c>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
+      <c r="O41" s="107"/>
     </row>
     <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="58"/>
+      <c r="C42" s="148" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="149"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="139">
+      <c r="G42" s="73">
         <v>4</v>
       </c>
-      <c r="H42" s="137" t="s">
+      <c r="H42" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="J42" s="78"/>
+      <c r="K42" s="78"/>
+      <c r="L42" s="78"/>
+      <c r="M42" s="78"/>
+      <c r="N42" s="78"/>
+      <c r="O42" s="79"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="139"/>
+      <c r="C43" s="140"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="74"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="81"/>
+    </row>
+    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="142"/>
+      <c r="C44" s="143"/>
+      <c r="D44" s="144"/>
+      <c r="E44" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="67"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J44" s="82" t="s">
+        <v>131</v>
+      </c>
+      <c r="K44" s="82"/>
+      <c r="L44" s="82"/>
+      <c r="M44" s="82"/>
+      <c r="N44" s="82"/>
+      <c r="O44" s="83"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="142"/>
+      <c r="C45" s="143"/>
+      <c r="D45" s="144"/>
+      <c r="E45" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G45" s="100">
+        <v>4</v>
+      </c>
+      <c r="H45" s="97" t="s">
+        <v>110</v>
+      </c>
+      <c r="I45" s="91" t="s">
         <v>128</v>
       </c>
-      <c r="I42" s="132" t="s">
-        <v>130</v>
-      </c>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
-      <c r="O42" s="134"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="50"/>
-      <c r="E43" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" s="140"/>
-      <c r="H43" s="138"/>
-      <c r="I43" s="135"/>
-      <c r="J43" s="135"/>
-      <c r="K43" s="135"/>
-      <c r="L43" s="135"/>
-      <c r="M43" s="135"/>
-      <c r="N43" s="135"/>
-      <c r="O43" s="136"/>
-    </row>
-    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="51"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="G44" s="113"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="42" t="s">
+      <c r="J45" s="91"/>
+      <c r="K45" s="91"/>
+      <c r="L45" s="91"/>
+      <c r="M45" s="91"/>
+      <c r="N45" s="91"/>
+      <c r="O45" s="92"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="142"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="20"/>
+      <c r="G46" s="101"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93"/>
+      <c r="M46" s="93"/>
+      <c r="N46" s="93"/>
+      <c r="O46" s="94"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="142"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="20"/>
+      <c r="G47" s="102"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="96"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="142"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="20"/>
+      <c r="G48" s="61"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J48" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="57"/>
+    </row>
+    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="145"/>
+      <c r="C49" s="146"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="21"/>
+      <c r="G49" s="63"/>
+      <c r="H49" s="64"/>
+      <c r="I49" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="J44" s="125" t="s">
-        <v>132</v>
-      </c>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="126"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="51"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="123">
-        <v>4</v>
-      </c>
-      <c r="H45" s="121" t="s">
-        <v>111</v>
-      </c>
-      <c r="I45" s="116" t="s">
-        <v>129</v>
-      </c>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="116"/>
-      <c r="N45" s="116"/>
-      <c r="O45" s="117"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="51"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="20"/>
-      <c r="G46" s="152"/>
-      <c r="H46" s="153"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="150"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="51"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="20"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="122"/>
-      <c r="I47" s="119"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="119"/>
-      <c r="M47" s="119"/>
-      <c r="N47" s="119"/>
-      <c r="O47" s="120"/>
-    </row>
-    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="51"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="20"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="146"/>
-      <c r="I48" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J48" s="101" t="s">
+      <c r="J49" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="K48" s="102"/>
-      <c r="L48" s="102"/>
-      <c r="M48" s="102"/>
-      <c r="N48" s="102"/>
-      <c r="O48" s="103"/>
-    </row>
-    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="54"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="21"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="147"/>
-      <c r="I49" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="J49" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="K49" s="102"/>
-      <c r="L49" s="102"/>
-      <c r="M49" s="102"/>
-      <c r="N49" s="102"/>
-      <c r="O49" s="103"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="57"/>
     </row>
     <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50" s="58"/>
+      <c r="C50" s="148" t="s">
+        <v>42</v>
+      </c>
+      <c r="D50" s="149"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="148"/>
-      <c r="I50" s="151" t="s">
-        <v>120</v>
-      </c>
-      <c r="J50" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="112"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="J50" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="60"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="150"/>
+      <c r="D51" s="70"/>
       <c r="E51" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G51" s="43">
         <v>5</v>
       </c>
       <c r="H51" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I51" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="I51" s="143" t="s">
-        <v>113</v>
-      </c>
-      <c r="J51" s="144"/>
-      <c r="K51" s="144"/>
-      <c r="L51" s="144"/>
-      <c r="M51" s="144"/>
-      <c r="N51" s="144"/>
-      <c r="O51" s="145"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="89"/>
+      <c r="M51" s="89"/>
+      <c r="N51" s="89"/>
+      <c r="O51" s="90"/>
     </row>
     <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="62"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="64"/>
+      <c r="B52" s="151"/>
+      <c r="C52" s="152"/>
+      <c r="D52" s="153"/>
       <c r="E52" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="G52" s="129"/>
-      <c r="H52" s="146"/>
+        <v>50</v>
+      </c>
+      <c r="G52" s="61"/>
+      <c r="H52" s="62"/>
       <c r="I52" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J52" s="141" t="s">
-        <v>93</v>
-      </c>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="141"/>
-      <c r="O52" s="142"/>
+        <v>117</v>
+      </c>
+      <c r="J52" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="85"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="63"/>
-      <c r="D53" s="64"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
+      <c r="D53" s="153"/>
       <c r="E53" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="47">
         <v>6</v>
       </c>
       <c r="H53" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="I53" s="88" t="s">
         <v>114</v>
       </c>
-      <c r="I53" s="143" t="s">
-        <v>115</v>
-      </c>
-      <c r="J53" s="144"/>
-      <c r="K53" s="144"/>
-      <c r="L53" s="144"/>
-      <c r="M53" s="144"/>
-      <c r="N53" s="144"/>
-      <c r="O53" s="145"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="89"/>
+      <c r="M53" s="89"/>
+      <c r="N53" s="89"/>
+      <c r="O53" s="90"/>
     </row>
     <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="62"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="64"/>
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="153"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="113"/>
-      <c r="H54" s="114"/>
-      <c r="I54" s="151" t="s">
-        <v>118</v>
-      </c>
-      <c r="J54" s="127" t="s">
-        <v>94</v>
-      </c>
-      <c r="K54" s="127"/>
-      <c r="L54" s="127"/>
-      <c r="M54" s="127"/>
-      <c r="N54" s="127"/>
-      <c r="O54" s="128"/>
+      <c r="G54" s="67"/>
+      <c r="H54" s="68"/>
+      <c r="I54" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="K54" s="86"/>
+      <c r="L54" s="86"/>
+      <c r="M54" s="86"/>
+      <c r="N54" s="86"/>
+      <c r="O54" s="87"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="64"/>
+      <c r="B55" s="151"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="153"/>
       <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="64"/>
+      <c r="B56" s="151"/>
+      <c r="C56" s="152"/>
+      <c r="D56" s="153"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="J49:O49"/>
     <mergeCell ref="J50:O50"/>
     <mergeCell ref="G48:H50"/>
@@ -5792,44 +5860,10 @@
     <mergeCell ref="H42:H43"/>
     <mergeCell ref="I42:O43"/>
     <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="I45:O47"/>
     <mergeCell ref="H45:H47"/>
     <mergeCell ref="G45:G47"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I38:O39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5841,10 +5875,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5876,7 +5910,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -5885,22 +5919,22 @@
         <v>12</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G1" s="17" t="s">
-        <v>97</v>
-      </c>
       <c r="H1" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>13</v>
@@ -5909,37 +5943,37 @@
         <v>15</v>
       </c>
       <c r="L1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="N1" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>37</v>
-      </c>
       <c r="Q1" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="17" t="s">
-        <v>19</v>
-      </c>
       <c r="S1" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="U1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>24</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>25</v>
       </c>
       <c r="W1" s="17" t="s">
         <v>8</v>
@@ -5956,7 +5990,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="26">
         <v>1000</v>
@@ -6010,7 +6044,7 @@
         <v>100</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U2" s="26">
         <v>0</v>
@@ -6021,7 +6055,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B3" s="26">
         <v>1001</v>
@@ -6029,6 +6063,15 @@
       <c r="D3" s="26">
         <v>1</v>
       </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
+        <v>0</v>
+      </c>
       <c r="H3" s="26">
         <v>0</v>
       </c>
@@ -6038,16 +6081,46 @@
       <c r="J3" s="26">
         <v>8</v>
       </c>
+      <c r="K3" s="26">
+        <v>0</v>
+      </c>
       <c r="L3" s="26">
         <v>2</v>
       </c>
       <c r="M3" s="26">
         <v>5</v>
       </c>
+      <c r="N3" s="26">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>0</v>
+      </c>
+      <c r="R3" s="26">
+        <v>3</v>
+      </c>
+      <c r="S3" s="26">
+        <v>0</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B4" s="26">
         <v>1002</v>
@@ -6055,13 +6128,67 @@
       <c r="D4" s="26">
         <v>1</v>
       </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
+        <v>0</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0</v>
+      </c>
+      <c r="J4" s="26">
+        <v>25</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>2</v>
+      </c>
+      <c r="M4" s="26">
+        <v>5</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>0</v>
+      </c>
+      <c r="R4" s="26">
+        <v>3</v>
+      </c>
+      <c r="S4" s="26">
+        <v>299</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" s="26">
+        <v>0</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="B5" s="26">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="D5" s="26">
         <v>1</v>
@@ -6079,19 +6206,19 @@
         <v>0</v>
       </c>
       <c r="I5" s="26">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J5" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K5" s="26">
         <v>0</v>
       </c>
       <c r="L5" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" s="26">
         <v>1</v>
@@ -6112,7 +6239,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="U5" s="26">
         <v>0</v>
@@ -6123,152 +6250,107 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="26">
-        <v>1100</v>
+        <v>1010</v>
+      </c>
+      <c r="D6" s="26">
+        <v>1</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
+      <c r="I6" s="26">
+        <v>30</v>
+      </c>
+      <c r="J6" s="26">
+        <v>6</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>1</v>
+      </c>
+      <c r="M6" s="26">
+        <v>3</v>
+      </c>
+      <c r="N6" s="26">
+        <v>1</v>
+      </c>
+      <c r="O6" s="26">
+        <v>2</v>
+      </c>
+      <c r="P6" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
+        <v>0</v>
+      </c>
+      <c r="S6" s="26">
+        <v>100</v>
+      </c>
+      <c r="T6" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6" s="26">
+        <v>203</v>
+      </c>
+      <c r="V6" s="26" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="B7" s="26">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8" s="26">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="B9" s="26">
-        <v>1110</v>
-      </c>
-      <c r="D9" s="26">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-      <c r="H9" s="26">
-        <v>0</v>
-      </c>
-      <c r="I9" s="26">
-        <v>10</v>
-      </c>
-      <c r="J9" s="26">
-        <v>3</v>
-      </c>
-      <c r="K9" s="26">
-        <v>0</v>
-      </c>
-      <c r="N9" s="26">
-        <v>2</v>
-      </c>
-      <c r="O9" s="26">
-        <v>0</v>
-      </c>
-      <c r="P9" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="26">
-        <v>0</v>
-      </c>
-      <c r="R9" s="26">
-        <v>0</v>
-      </c>
-      <c r="S9" s="26">
-        <v>500</v>
-      </c>
-      <c r="T9" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="U9" s="26">
-        <v>0</v>
-      </c>
-      <c r="V9" s="26">
-        <v>0</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="B10" s="26">
-        <v>1111</v>
-      </c>
-      <c r="D10" s="26">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
-        <v>0</v>
-      </c>
-      <c r="F10" s="26">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-      <c r="H10" s="26">
-        <v>0</v>
-      </c>
-      <c r="I10" s="26">
-        <v>20</v>
-      </c>
-      <c r="J10" s="26">
-        <v>3</v>
-      </c>
-      <c r="K10" s="26">
-        <v>0</v>
-      </c>
-      <c r="N10" s="26">
-        <v>2</v>
-      </c>
-      <c r="O10" s="26">
-        <v>3</v>
-      </c>
-      <c r="P10" s="26">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>0</v>
-      </c>
-      <c r="R10" s="26">
-        <v>0</v>
-      </c>
-      <c r="S10" s="26">
-        <v>100</v>
-      </c>
-      <c r="T10" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="26">
-        <v>0</v>
-      </c>
-      <c r="V10" s="26">
-        <v>0</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="26">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="D11" s="26">
         <v>1</v>
@@ -6286,16 +6368,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J11" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="26">
         <v>0</v>
       </c>
       <c r="N11" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="26">
         <v>0</v>
@@ -6310,10 +6392,10 @@
         <v>0</v>
       </c>
       <c r="S11" s="26">
-        <v>0</v>
-      </c>
-      <c r="T11" s="26">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="U11" s="26">
         <v>0</v>
@@ -6327,7 +6409,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="26">
-        <v>1121</v>
+        <v>1111</v>
       </c>
       <c r="D12" s="26">
         <v>1</v>
@@ -6345,19 +6427,19 @@
         <v>0</v>
       </c>
       <c r="I12" s="26">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J12" s="26">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K12" s="26">
         <v>0</v>
       </c>
       <c r="N12" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O12" s="26">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="P12" s="26">
         <v>3</v>
@@ -6366,44 +6448,162 @@
         <v>0</v>
       </c>
       <c r="R12" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="26">
         <v>100</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>122</v>
+        <v>80</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B13" s="26">
-        <v>1130</v>
+        <v>1120</v>
+      </c>
+      <c r="D13" s="26">
+        <v>1</v>
+      </c>
+      <c r="E13" s="26">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="26">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="26">
+        <v>15</v>
+      </c>
+      <c r="J13" s="26">
+        <v>5</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="N13" s="26">
+        <v>0</v>
+      </c>
+      <c r="O13" s="26">
+        <v>0</v>
+      </c>
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0</v>
+      </c>
+      <c r="S13" s="26">
+        <v>0</v>
+      </c>
+      <c r="T13" s="26">
+        <v>0</v>
+      </c>
+      <c r="U13" s="26">
+        <v>0</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B14" s="26">
-        <v>1131</v>
+        <v>1121</v>
+      </c>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
+      <c r="E14" s="26">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="26">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="26">
+        <v>30</v>
+      </c>
+      <c r="J14" s="26">
+        <v>8</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
+      <c r="N14" s="26">
+        <v>1</v>
+      </c>
+      <c r="O14" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="P14" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>1</v>
+      </c>
+      <c r="S14" s="26">
+        <v>100</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" s="26">
-        <v>1140</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="26">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="26">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="26">
         <v>1141</v>
       </c>
     </row>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9089CB-CC9B-4E72-9E6C-EB82B2AC5014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B62E6-EC8C-4BDD-AFBE-8BAA3848F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3450" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="2430" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,26 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
+12 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대검</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 13 : </t>
         </r>
         <r>
@@ -143,7 +163,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>대검</t>
+          <t>환도</t>
         </r>
         <r>
           <rPr>
@@ -163,7 +183,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>환도</t>
+          <t>곰방대</t>
         </r>
         <r>
           <rPr>
@@ -183,7 +203,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>곰방대</t>
+          <t>너클</t>
         </r>
         <r>
           <rPr>
@@ -203,7 +223,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>너클</t>
+          <t>방패</t>
         </r>
         <r>
           <rPr>
@@ -223,7 +243,7 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>방패</t>
+          <t>언월도</t>
         </r>
         <r>
           <rPr>
@@ -243,26 +263,6 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>언월도</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-19 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t xml:space="preserve">장궁
 </t>
         </r>
@@ -273,7 +273,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">20 : </t>
+          <t xml:space="preserve">19 : </t>
         </r>
         <r>
           <rPr>
@@ -284,6 +284,26 @@
             <charset val="129"/>
           </rPr>
           <t>석궁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+20 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>마법서</t>
         </r>
         <r>
           <rPr>
@@ -303,26 +323,6 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>마법서</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-22 : </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
           <t xml:space="preserve">부채
 </t>
         </r>
@@ -333,7 +333,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">23 : </t>
+          <t xml:space="preserve">22 : </t>
         </r>
         <r>
           <rPr>
@@ -1964,7 +1964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2254,10 +2254,6 @@
   </si>
   <si>
     <t>f1 : 원의 반지름</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f2 : 원의 중심각</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2468,24 +2464,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>0: 슈퍼아머 x / 1: 경직 면역 / 2: 피격이상 면역 / 3: 상태이상 면역</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">조작 방법에 따른 스킬 타입 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0: 패시브 / 1: 일반 / 2: 캐스팅 / 3: 차지 / 4: 체인 / 5: 홀딩 / 6: 토글</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2876,12 +2854,196 @@
     <t>[40/3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>f2 : 원의 중심각 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+        <charset val="161"/>
+      </rPr>
+      <t>π는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3.14로 계산)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">조작 방법에 따른 스킬 타입 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0: 패시브 / 1: 일반 / 2: 캐스팅 / 3: 차지 / 4: 콤보 / 5: 체인 / 6: 홀딩 / 
+7: 토글</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[30/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80/4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70/8]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80/5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[300/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[500/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환도 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>환도 이동기</t>
+  </si>
+  <si>
+    <t>환도 기상기</t>
+  </si>
+  <si>
+    <t>환도 일반공격</t>
+  </si>
+  <si>
+    <t>환도 1번 스킬</t>
+  </si>
+  <si>
+    <t>환도 2번 스킬</t>
+  </si>
+  <si>
+    <t>환도 3번 스킬</t>
+  </si>
+  <si>
+    <t>환도 4번 스킬</t>
+  </si>
+  <si>
+    <t>[110/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[35/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50/7]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[800/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>곰방대 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>곰방대 이동기</t>
+  </si>
+  <si>
+    <t>곰방대 기상기</t>
+  </si>
+  <si>
+    <t>곰방대 일반공격</t>
+  </si>
+  <si>
+    <t>곰방대 1번 스킬</t>
+  </si>
+  <si>
+    <t>곰방대 2번 스킬</t>
+  </si>
+  <si>
+    <t>곰방대 3번 스킬</t>
+  </si>
+  <si>
+    <t>곰방대 4번 스킬</t>
+  </si>
+  <si>
+    <t>[90/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[45/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3083,6 +3245,20 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -4078,6 +4254,219 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4087,6 +4476,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4096,6 +4503,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4112,24 +4540,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4165,250 +4575,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4852,7 +5028,7 @@
   <dimension ref="B2:O57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4882,13 +5058,13 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="128" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="129"/>
-      <c r="K3" s="130"/>
+      <c r="G3" s="75" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="76"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
@@ -4903,20 +5079,20 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="135" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" s="133" t="s">
-        <v>142</v>
-      </c>
-      <c r="I4" s="131" t="s">
+      <c r="G4" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K4" s="95" t="s">
         <v>52</v>
-      </c>
-      <c r="J4" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="137" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -4932,13 +5108,13 @@
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="136"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="132"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="138"/>
-    </row>
-    <row r="6" spans="2:11" ht="27.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="94"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="2:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -4949,28 +5125,28 @@
         <v>5</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="113" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="114"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="115"/>
+        <v>149</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="49">
         <v>1000</v>
@@ -4979,13 +5155,13 @@
         <v>10</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K7" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
@@ -4993,13 +5169,13 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G8" s="50">
         <v>1240</v>
@@ -5008,13 +5184,13 @@
         <v>12</v>
       </c>
       <c r="I8" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -5022,28 +5198,28 @@
         <v>6</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G9" s="51">
-        <v>1420</v>
+        <v>1320</v>
       </c>
       <c r="H9" s="35">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="54" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5057,7 +5233,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
@@ -5065,7 +5241,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>5</v>
@@ -5099,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5107,13 +5283,13 @@
         <v>11</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
@@ -5121,13 +5297,13 @@
         <v>12</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
@@ -5141,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -5155,7 +5331,7 @@
         <v>27</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -5169,7 +5345,7 @@
         <v>27</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
@@ -5183,7 +5359,7 @@
         <v>6</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
@@ -5197,7 +5373,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -5225,7 +5401,7 @@
         <v>25</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.3">
@@ -5253,7 +5429,7 @@
         <v>25</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
@@ -5320,32 +5496,32 @@
     </row>
     <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="128" t="s">
+      <c r="B32" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="G32" s="116" t="s">
-        <v>86</v>
-      </c>
-      <c r="H32" s="117"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="119" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="120"/>
-      <c r="L32" s="120"/>
-      <c r="M32" s="120"/>
-      <c r="N32" s="120"/>
-      <c r="O32" s="121"/>
+      <c r="C32" s="76"/>
+      <c r="G32" s="112" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
     </row>
     <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="164" t="s">
+      <c r="C33" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="165"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
@@ -5353,47 +5529,47 @@
         <v>40</v>
       </c>
       <c r="H33" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="123"/>
-      <c r="K33" s="123"/>
-      <c r="L33" s="123"/>
-      <c r="M33" s="123"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="124"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="120"/>
     </row>
     <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="148" t="s">
+      <c r="C34" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="149"/>
+      <c r="D34" s="65"/>
       <c r="E34" s="23"/>
       <c r="G34" s="40">
         <v>0</v>
       </c>
       <c r="H34" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I34" s="125" t="s">
-        <v>103</v>
-      </c>
-      <c r="J34" s="126"/>
-      <c r="K34" s="126"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="126"/>
-      <c r="N34" s="126"/>
-      <c r="O34" s="127"/>
+        <v>100</v>
+      </c>
+      <c r="I34" s="121" t="s">
+        <v>101</v>
+      </c>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
     </row>
     <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="155"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="157"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
       <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
@@ -5402,22 +5578,22 @@
         <v>1</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I35" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="103"/>
-      <c r="M35" s="103"/>
-      <c r="N35" s="103"/>
-      <c r="O35" s="104"/>
+        <v>102</v>
+      </c>
+      <c r="I35" s="124" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="125"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="158"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="160"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="82"/>
       <c r="E36" s="19" t="s">
         <v>44</v>
       </c>
@@ -5426,411 +5602,420 @@
         <v>2</v>
       </c>
       <c r="H36" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="108" t="s">
-        <v>107</v>
-      </c>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
-      <c r="L36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="110"/>
+        <v>104</v>
+      </c>
+      <c r="I36" s="132" t="s">
+        <v>105</v>
+      </c>
+      <c r="J36" s="133"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="133"/>
+      <c r="M36" s="133"/>
+      <c r="N36" s="133"/>
+      <c r="O36" s="134"/>
     </row>
     <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="158"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="160"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="82"/>
       <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="68"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="98"/>
       <c r="I37" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
+      <c r="O37" s="137"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="20"/>
+      <c r="G38" s="107">
+        <v>3</v>
+      </c>
+      <c r="H38" s="105" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="101"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="82"/>
+      <c r="E39" s="20"/>
+      <c r="G39" s="108"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="104"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="82"/>
+      <c r="E40" s="20"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="J40" s="126" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
+      <c r="M40" s="127"/>
+      <c r="N40" s="127"/>
+      <c r="O40" s="128"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="83"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="20"/>
+      <c r="G41" s="72"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="J37" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="60"/>
-    </row>
-    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="158"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="100">
-        <v>3</v>
-      </c>
-      <c r="H38" s="97" t="s">
-        <v>108</v>
-      </c>
-      <c r="I38" s="111" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="92"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="158"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="160"/>
-      <c r="E39" s="20"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="95"/>
-      <c r="K39" s="95"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="96"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="158"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="160"/>
-      <c r="E40" s="20"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="57"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="161"/>
-      <c r="C41" s="162"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="20"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J41" s="105" t="s">
-        <v>130</v>
-      </c>
-      <c r="K41" s="106"/>
-      <c r="L41" s="106"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="106"/>
-      <c r="O41" s="107"/>
+      <c r="J41" s="129" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="130"/>
+      <c r="L41" s="130"/>
+      <c r="M41" s="130"/>
+      <c r="N41" s="130"/>
+      <c r="O41" s="131"/>
     </row>
     <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="148" t="s">
+      <c r="C42" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="149"/>
+      <c r="D42" s="65"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="73">
+      <c r="G42" s="151">
         <v>4</v>
       </c>
-      <c r="H42" s="75" t="s">
+      <c r="H42" s="153" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42" s="155" t="s">
         <v>127</v>
       </c>
-      <c r="I42" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="J42" s="78"/>
-      <c r="K42" s="78"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="79"/>
+      <c r="J42" s="156"/>
+      <c r="K42" s="156"/>
+      <c r="L42" s="156"/>
+      <c r="M42" s="156"/>
+      <c r="N42" s="156"/>
+      <c r="O42" s="157"/>
     </row>
     <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="139"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="141"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="56"/>
+      <c r="D43" s="57"/>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="81"/>
+      <c r="G43" s="152"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
+      <c r="O43" s="159"/>
     </row>
     <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="142"/>
-      <c r="C44" s="143"/>
-      <c r="D44" s="144"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="60"/>
       <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="67"/>
-      <c r="H44" s="68"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="98"/>
       <c r="I44" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J44" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="K44" s="82"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="82"/>
-      <c r="N44" s="82"/>
-      <c r="O44" s="83"/>
+        <v>115</v>
+      </c>
+      <c r="J44" s="160" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44" s="160"/>
+      <c r="L44" s="160"/>
+      <c r="M44" s="160"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="161"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="142"/>
-      <c r="C45" s="143"/>
-      <c r="D45" s="144"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="100">
-        <v>4</v>
-      </c>
-      <c r="H45" s="97" t="s">
-        <v>110</v>
-      </c>
-      <c r="I45" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="92"/>
+      <c r="G45" s="107">
+        <v>5</v>
+      </c>
+      <c r="H45" s="105" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="100"/>
+      <c r="K45" s="100"/>
+      <c r="L45" s="100"/>
+      <c r="M45" s="100"/>
+      <c r="N45" s="100"/>
+      <c r="O45" s="101"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="142"/>
-      <c r="C46" s="143"/>
-      <c r="D46" s="144"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="20"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="98"/>
-      <c r="I46" s="93"/>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="93"/>
-      <c r="M46" s="93"/>
-      <c r="N46" s="93"/>
-      <c r="O46" s="94"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="164"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="162"/>
+      <c r="K46" s="162"/>
+      <c r="L46" s="162"/>
+      <c r="M46" s="162"/>
+      <c r="N46" s="162"/>
+      <c r="O46" s="163"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="142"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="144"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="60"/>
       <c r="E47" s="20"/>
-      <c r="G47" s="102"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="95"/>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95"/>
-      <c r="L47" s="95"/>
-      <c r="M47" s="95"/>
-      <c r="N47" s="95"/>
-      <c r="O47" s="96"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="103"/>
+      <c r="K47" s="103"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="103"/>
+      <c r="N47" s="103"/>
+      <c r="O47" s="104"/>
     </row>
     <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="142"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="144"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="60"/>
       <c r="E48" s="20"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
+      <c r="G48" s="145"/>
+      <c r="H48" s="146"/>
       <c r="I48" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="J48" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="K48" s="56"/>
-      <c r="L48" s="56"/>
-      <c r="M48" s="56"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="57"/>
+        <v>115</v>
+      </c>
+      <c r="J48" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="K48" s="127"/>
+      <c r="L48" s="127"/>
+      <c r="M48" s="127"/>
+      <c r="N48" s="127"/>
+      <c r="O48" s="128"/>
     </row>
     <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="147"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
       <c r="E49" s="21"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="64"/>
+      <c r="G49" s="147"/>
+      <c r="H49" s="148"/>
       <c r="I49" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="J49" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="K49" s="56"/>
-      <c r="L49" s="56"/>
-      <c r="M49" s="56"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="57"/>
+        <v>116</v>
+      </c>
+      <c r="J49" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="K49" s="127"/>
+      <c r="L49" s="127"/>
+      <c r="M49" s="127"/>
+      <c r="N49" s="127"/>
+      <c r="O49" s="128"/>
     </row>
     <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="148" t="s">
+      <c r="C50" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="149"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="66"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="150"/>
       <c r="I50" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="J50" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="60"/>
+        <v>117</v>
+      </c>
+      <c r="J50" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="137"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="69"/>
-      <c r="C51" s="150"/>
-      <c r="D51" s="70"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G51" s="43">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" s="142" t="s">
+        <v>110</v>
+      </c>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="144"/>
+    </row>
+    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="69"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="71"/>
+      <c r="E52" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="145"/>
+      <c r="H52" s="146"/>
+      <c r="I52" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="K52" s="138"/>
+      <c r="L52" s="138"/>
+      <c r="M52" s="138"/>
+      <c r="N52" s="138"/>
+      <c r="O52" s="139"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="69"/>
+      <c r="C53" s="70"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G53" s="47">
+        <v>7</v>
+      </c>
+      <c r="H53" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="88" t="s">
+      <c r="I53" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="90"/>
-    </row>
-    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="151"/>
-      <c r="C52" s="152"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="61"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="J52" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="85"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="151"/>
-      <c r="C53" s="152"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="47">
-        <v>6</v>
-      </c>
-      <c r="H53" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="I53" s="88" t="s">
-        <v>114</v>
-      </c>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="90"/>
+      <c r="J53" s="143"/>
+      <c r="K53" s="143"/>
+      <c r="L53" s="143"/>
+      <c r="M53" s="143"/>
+      <c r="N53" s="143"/>
+      <c r="O53" s="144"/>
     </row>
     <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="151"/>
-      <c r="C54" s="152"/>
-      <c r="D54" s="153"/>
+      <c r="B54" s="69"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="71"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="67"/>
-      <c r="H54" s="68"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="98"/>
       <c r="I54" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="J54" s="86" t="s">
-        <v>93</v>
-      </c>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="87"/>
+        <v>115</v>
+      </c>
+      <c r="J54" s="140" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54" s="140"/>
+      <c r="L54" s="140"/>
+      <c r="M54" s="140"/>
+      <c r="N54" s="140"/>
+      <c r="O54" s="141"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="151"/>
-      <c r="C55" s="152"/>
-      <c r="D55" s="153"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="70"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="151"/>
-      <c r="C56" s="152"/>
-      <c r="D56" s="153"/>
+      <c r="B56" s="69"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="71"/>
-      <c r="C57" s="154"/>
-      <c r="D57" s="72"/>
+      <c r="B57" s="72"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="J40:O40"/>
+    <mergeCell ref="J41:O41"/>
+    <mergeCell ref="I36:O36"/>
+    <mergeCell ref="J37:O37"/>
+    <mergeCell ref="J52:O52"/>
+    <mergeCell ref="J49:O49"/>
+    <mergeCell ref="J50:O50"/>
+    <mergeCell ref="I42:O43"/>
+    <mergeCell ref="J44:O44"/>
+    <mergeCell ref="J48:O48"/>
+    <mergeCell ref="I45:O47"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I38:O39"/>
     <mergeCell ref="H38:H39"/>
@@ -5841,29 +6026,20 @@
     <mergeCell ref="I33:O33"/>
     <mergeCell ref="I34:O34"/>
     <mergeCell ref="I35:O35"/>
-    <mergeCell ref="J40:O40"/>
-    <mergeCell ref="J41:O41"/>
-    <mergeCell ref="I36:O36"/>
-    <mergeCell ref="J37:O37"/>
-    <mergeCell ref="J52:O52"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="J49:O49"/>
-    <mergeCell ref="J50:O50"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:O43"/>
-    <mergeCell ref="J44:O44"/>
-    <mergeCell ref="J48:O48"/>
-    <mergeCell ref="I45:O47"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5875,10 +6051,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5910,7 +6086,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>4</v>
@@ -5922,19 +6098,19 @@
         <v>16</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="17" t="s">
         <v>94</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="H1" s="17" t="s">
         <v>20</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>13</v>
@@ -5943,10 +6119,10 @@
         <v>15</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M1" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>26</v>
@@ -5990,7 +6166,7 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="26">
         <v>1000</v>
@@ -6008,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="H2" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" s="26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J2" s="26">
         <v>0</v>
@@ -6029,10 +6205,10 @@
         <v>1</v>
       </c>
       <c r="O2" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q2" s="26">
         <v>0</v>
@@ -6044,7 +6220,7 @@
         <v>100</v>
       </c>
       <c r="T2" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U2" s="26">
         <v>0</v>
@@ -6055,7 +6231,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" s="26">
         <v>1001</v>
@@ -6103,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" s="26">
         <v>0</v>
@@ -6120,7 +6296,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B4" s="26">
         <v>1002</v>
@@ -6174,7 +6350,7 @@
         <v>299</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="U4" s="26">
         <v>0</v>
@@ -6185,13 +6361,13 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B5" s="26">
         <v>1003</v>
       </c>
       <c r="D5" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="26">
         <v>0</v>
@@ -6224,10 +6400,10 @@
         <v>1</v>
       </c>
       <c r="O5" s="26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P5" s="26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="26">
         <v>0</v>
@@ -6239,7 +6415,7 @@
         <v>100</v>
       </c>
       <c r="T5" s="26" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="U5" s="26">
         <v>0</v>
@@ -6250,7 +6426,7 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="26">
         <v>1010</v>
@@ -6289,10 +6465,10 @@
         <v>1</v>
       </c>
       <c r="O6" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" s="26">
         <v>0</v>
@@ -6304,65 +6480,293 @@
         <v>100</v>
       </c>
       <c r="T6" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U6" s="26">
         <v>203</v>
       </c>
       <c r="V6" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="26">
         <v>1100</v>
       </c>
+      <c r="D7" s="26">
+        <v>1</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26">
+        <v>100</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="26">
+        <v>0</v>
+      </c>
+      <c r="N7" s="26">
+        <v>2</v>
+      </c>
+      <c r="O7" s="26">
+        <v>6</v>
+      </c>
+      <c r="P7" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>0</v>
+      </c>
+      <c r="R7" s="26">
+        <v>2</v>
+      </c>
+      <c r="S7" s="26">
+        <v>101</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="U7" s="26">
+        <v>303</v>
+      </c>
+      <c r="V7" s="26" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="26">
         <v>1101</v>
       </c>
+      <c r="D8" s="26">
+        <v>1</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>6</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>2</v>
+      </c>
+      <c r="M8" s="26">
+        <v>6</v>
+      </c>
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="26">
+        <v>0</v>
+      </c>
+      <c r="P8" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>0</v>
+      </c>
+      <c r="R8" s="26">
+        <v>2</v>
+      </c>
+      <c r="S8" s="26">
+        <v>0</v>
+      </c>
+      <c r="T8" s="26">
+        <v>0</v>
+      </c>
+      <c r="U8" s="26">
+        <v>0</v>
+      </c>
+      <c r="V8" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B9" s="26">
         <v>1102</v>
       </c>
+      <c r="D9" s="26">
+        <v>1</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0</v>
+      </c>
+      <c r="J9" s="26">
+        <v>20</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>2</v>
+      </c>
+      <c r="M9" s="26">
+        <v>6</v>
+      </c>
+      <c r="N9" s="26">
+        <v>0</v>
+      </c>
+      <c r="O9" s="26">
+        <v>0</v>
+      </c>
+      <c r="P9" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="26">
+        <v>0</v>
+      </c>
+      <c r="R9" s="26">
+        <v>3</v>
+      </c>
+      <c r="S9" s="26">
+        <v>299</v>
+      </c>
+      <c r="T9" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="26">
+        <v>0</v>
+      </c>
+      <c r="V9" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10" s="26">
         <v>1103</v>
       </c>
+      <c r="D10" s="26">
+        <v>4</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26">
+        <v>0</v>
+      </c>
+      <c r="N10" s="26">
+        <v>1</v>
+      </c>
+      <c r="O10" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="P10" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>0</v>
+      </c>
+      <c r="R10" s="26">
+        <v>0</v>
+      </c>
+      <c r="S10" s="26">
+        <v>100</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U10" s="26">
+        <v>0</v>
+      </c>
+      <c r="V10" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="26">
         <v>1110</v>
       </c>
       <c r="D11" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" s="26">
         <v>0</v>
       </c>
       <c r="F11" s="26">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="G11" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="26">
         <v>0</v>
@@ -6376,6 +6780,12 @@
       <c r="K11" s="26">
         <v>0</v>
       </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="26">
+        <v>0</v>
+      </c>
       <c r="N11" s="26">
         <v>2</v>
       </c>
@@ -6395,7 +6805,7 @@
         <v>500</v>
       </c>
       <c r="T11" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U11" s="26">
         <v>0</v>
@@ -6406,7 +6816,7 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="26">
         <v>1111</v>
@@ -6427,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J12" s="26">
         <v>3</v>
@@ -6435,14 +6845,20 @@
       <c r="K12" s="26">
         <v>0</v>
       </c>
+      <c r="L12" s="26">
+        <v>0</v>
+      </c>
+      <c r="M12" s="26">
+        <v>0</v>
+      </c>
       <c r="N12" s="26">
         <v>2</v>
       </c>
       <c r="O12" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P12" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q12" s="26">
         <v>0</v>
@@ -6454,7 +6870,7 @@
         <v>100</v>
       </c>
       <c r="T12" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U12" s="26">
         <v>0</v>
@@ -6465,7 +6881,7 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="26">
         <v>1120</v>
@@ -6494,6 +6910,12 @@
       <c r="K13" s="26">
         <v>0</v>
       </c>
+      <c r="L13" s="26">
+        <v>3</v>
+      </c>
+      <c r="M13" s="26">
+        <v>6</v>
+      </c>
       <c r="N13" s="26">
         <v>0</v>
       </c>
@@ -6524,7 +6946,7 @@
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="26">
         <v>1121</v>
@@ -6545,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="26">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J14" s="26">
         <v>8</v>
@@ -6553,14 +6975,20 @@
       <c r="K14" s="26">
         <v>0</v>
       </c>
+      <c r="L14" s="26">
+        <v>3</v>
+      </c>
+      <c r="M14" s="26">
+        <v>8</v>
+      </c>
       <c r="N14" s="26">
         <v>1</v>
       </c>
       <c r="O14" s="26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="P14" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q14" s="26">
         <v>0</v>
@@ -6572,43 +7000,1090 @@
         <v>100</v>
       </c>
       <c r="T14" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="U14" s="26">
+        <v>303</v>
+      </c>
+      <c r="V14" s="26" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="26">
         <v>1130</v>
       </c>
+      <c r="D15" s="26">
+        <v>1</v>
+      </c>
+      <c r="E15" s="26">
+        <v>0</v>
+      </c>
+      <c r="F15" s="26">
+        <v>0</v>
+      </c>
+      <c r="G15" s="26">
+        <v>0</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>30</v>
+      </c>
+      <c r="J15" s="26">
+        <v>8</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0</v>
+      </c>
+      <c r="M15" s="26">
+        <v>0</v>
+      </c>
+      <c r="N15" s="26">
+        <v>1</v>
+      </c>
+      <c r="O15" s="26">
+        <v>5</v>
+      </c>
+      <c r="P15" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="26">
+        <v>0</v>
+      </c>
+      <c r="R15" s="26">
+        <v>0</v>
+      </c>
+      <c r="S15" s="26">
+        <v>100</v>
+      </c>
+      <c r="T15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="U15" s="26">
+        <v>0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" s="26">
         <v>1131</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="26">
+        <v>1</v>
+      </c>
+      <c r="E16" s="26">
+        <v>0</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0</v>
+      </c>
+      <c r="G16" s="26">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>40</v>
+      </c>
+      <c r="J16" s="26">
+        <v>12</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26">
+        <v>2</v>
+      </c>
+      <c r="O16" s="26">
+        <v>8</v>
+      </c>
+      <c r="P16" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q16" s="26">
+        <v>1</v>
+      </c>
+      <c r="R16" s="26">
+        <v>0</v>
+      </c>
+      <c r="S16" s="26">
+        <v>100</v>
+      </c>
+      <c r="T16" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="U16" s="26">
+        <v>0</v>
+      </c>
+      <c r="V16" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="26">
         <v>1140</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="26">
+        <v>1</v>
+      </c>
+      <c r="E17" s="26">
+        <v>0</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0</v>
+      </c>
+      <c r="G17" s="26">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="26">
+        <v>80</v>
+      </c>
+      <c r="J17" s="26">
+        <v>15</v>
+      </c>
+      <c r="K17" s="26">
+        <v>0</v>
+      </c>
+      <c r="L17" s="26">
+        <v>0</v>
+      </c>
+      <c r="M17" s="26">
+        <v>0</v>
+      </c>
+      <c r="N17" s="26">
+        <v>2</v>
+      </c>
+      <c r="O17" s="26">
+        <v>15</v>
+      </c>
+      <c r="P17" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q17" s="26">
+        <v>0</v>
+      </c>
+      <c r="R17" s="26">
+        <v>1</v>
+      </c>
+      <c r="S17" s="26">
+        <v>101</v>
+      </c>
+      <c r="T17" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="U17" s="26">
+        <v>100</v>
+      </c>
+      <c r="V17" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" s="26">
         <v>1141</v>
+      </c>
+      <c r="D18" s="26">
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <v>0</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0</v>
+      </c>
+      <c r="G18" s="26">
+        <v>0</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="26">
+        <v>150</v>
+      </c>
+      <c r="J18" s="26">
+        <v>20</v>
+      </c>
+      <c r="K18" s="26">
+        <v>0</v>
+      </c>
+      <c r="L18" s="26">
+        <v>0</v>
+      </c>
+      <c r="M18" s="26">
+        <v>0</v>
+      </c>
+      <c r="N18" s="26">
+        <v>2</v>
+      </c>
+      <c r="O18" s="26">
+        <v>20</v>
+      </c>
+      <c r="P18" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q18" s="26">
+        <v>0</v>
+      </c>
+      <c r="R18" s="26">
+        <v>1</v>
+      </c>
+      <c r="S18" s="26">
+        <v>101</v>
+      </c>
+      <c r="T18" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="U18" s="26">
+        <v>100</v>
+      </c>
+      <c r="V18" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="26">
+        <v>1300</v>
+      </c>
+      <c r="D19" s="26">
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>100</v>
+      </c>
+      <c r="J19" s="26">
+        <v>0</v>
+      </c>
+      <c r="K19" s="26">
+        <v>0</v>
+      </c>
+      <c r="L19" s="26">
+        <v>0</v>
+      </c>
+      <c r="M19" s="26">
+        <v>0</v>
+      </c>
+      <c r="N19" s="26">
+        <v>1</v>
+      </c>
+      <c r="O19" s="26">
+        <v>6</v>
+      </c>
+      <c r="P19" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="26">
+        <v>1</v>
+      </c>
+      <c r="R19" s="26">
+        <v>2</v>
+      </c>
+      <c r="S19" s="26">
+        <v>100</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="U19" s="26">
+        <v>204</v>
+      </c>
+      <c r="V19" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B20" s="26">
+        <v>1301</v>
+      </c>
+      <c r="D20" s="26">
+        <v>1</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="26">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="26">
+        <v>0</v>
+      </c>
+      <c r="J20" s="26">
+        <v>8</v>
+      </c>
+      <c r="K20" s="26">
+        <v>0</v>
+      </c>
+      <c r="L20" s="26">
+        <v>2</v>
+      </c>
+      <c r="M20" s="26">
+        <v>5</v>
+      </c>
+      <c r="N20" s="26">
+        <v>0</v>
+      </c>
+      <c r="O20" s="26">
+        <v>0</v>
+      </c>
+      <c r="P20" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="26">
+        <v>0</v>
+      </c>
+      <c r="R20" s="26">
+        <v>2</v>
+      </c>
+      <c r="S20" s="26">
+        <v>0</v>
+      </c>
+      <c r="T20" s="26">
+        <v>0</v>
+      </c>
+      <c r="U20" s="26">
+        <v>0</v>
+      </c>
+      <c r="V20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="26">
+        <v>1302</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0</v>
+      </c>
+      <c r="J21" s="26">
+        <v>25</v>
+      </c>
+      <c r="K21" s="26">
+        <v>0</v>
+      </c>
+      <c r="L21" s="26">
+        <v>2</v>
+      </c>
+      <c r="M21" s="26">
+        <v>5</v>
+      </c>
+      <c r="N21" s="26">
+        <v>0</v>
+      </c>
+      <c r="O21" s="26">
+        <v>0</v>
+      </c>
+      <c r="P21" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="26">
+        <v>0</v>
+      </c>
+      <c r="R21" s="26">
+        <v>3</v>
+      </c>
+      <c r="S21" s="26">
+        <v>299</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U21" s="26">
+        <v>0</v>
+      </c>
+      <c r="V21" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="26">
+        <v>1303</v>
+      </c>
+      <c r="D22" s="26">
+        <v>4</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="26">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="26">
+        <v>0</v>
+      </c>
+      <c r="J22" s="26">
+        <v>0</v>
+      </c>
+      <c r="K22" s="26">
+        <v>0</v>
+      </c>
+      <c r="L22" s="26">
+        <v>1</v>
+      </c>
+      <c r="M22" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="N22" s="26">
+        <v>1</v>
+      </c>
+      <c r="O22" s="26">
+        <v>2</v>
+      </c>
+      <c r="P22" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="26">
+        <v>0</v>
+      </c>
+      <c r="R22" s="26">
+        <v>0</v>
+      </c>
+      <c r="S22" s="26">
+        <v>100</v>
+      </c>
+      <c r="T22" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="U22" s="26">
+        <v>0</v>
+      </c>
+      <c r="V22" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B23" s="26">
+        <v>1310</v>
+      </c>
+      <c r="D23" s="26">
+        <v>1</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="26">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="26">
+        <v>20</v>
+      </c>
+      <c r="J23" s="26">
+        <v>5</v>
+      </c>
+      <c r="K23" s="26">
+        <v>0</v>
+      </c>
+      <c r="L23" s="26">
+        <v>2</v>
+      </c>
+      <c r="M23" s="26">
+        <v>4</v>
+      </c>
+      <c r="N23" s="26">
+        <v>1</v>
+      </c>
+      <c r="O23" s="26">
+        <v>4</v>
+      </c>
+      <c r="P23" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="26">
+        <v>0</v>
+      </c>
+      <c r="R23" s="26">
+        <v>1</v>
+      </c>
+      <c r="S23" s="26">
+        <v>100</v>
+      </c>
+      <c r="T23" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="U23" s="26">
+        <v>0</v>
+      </c>
+      <c r="V23" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="B24" s="26">
+        <v>1320</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="26">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="26">
+        <v>40</v>
+      </c>
+      <c r="J24" s="26">
+        <v>6</v>
+      </c>
+      <c r="K24" s="26">
+        <v>0</v>
+      </c>
+      <c r="L24" s="26">
+        <v>0</v>
+      </c>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26">
+        <v>1</v>
+      </c>
+      <c r="O24" s="26">
+        <v>3</v>
+      </c>
+      <c r="P24" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q24" s="26">
+        <v>0</v>
+      </c>
+      <c r="R24" s="26">
+        <v>1</v>
+      </c>
+      <c r="S24" s="26">
+        <v>100</v>
+      </c>
+      <c r="T24" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="U24" s="26">
+        <v>204</v>
+      </c>
+      <c r="V24" s="26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="26">
+        <v>1330</v>
+      </c>
+      <c r="D25" s="26">
+        <v>1</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="26">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="26">
+        <v>70</v>
+      </c>
+      <c r="J25" s="26">
+        <v>10</v>
+      </c>
+      <c r="K25" s="26">
+        <v>0</v>
+      </c>
+      <c r="L25" s="26">
+        <v>0</v>
+      </c>
+      <c r="M25" s="26">
+        <v>0</v>
+      </c>
+      <c r="N25" s="26">
+        <v>2</v>
+      </c>
+      <c r="O25" s="26">
+        <v>10</v>
+      </c>
+      <c r="P25" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q25" s="26">
+        <v>0</v>
+      </c>
+      <c r="R25" s="26">
+        <v>2</v>
+      </c>
+      <c r="S25" s="26">
+        <v>100</v>
+      </c>
+      <c r="T25" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="U25" s="26">
+        <v>299</v>
+      </c>
+      <c r="V25" s="26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="26">
+        <v>1340</v>
+      </c>
+      <c r="D26" s="26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="26">
+        <v>100</v>
+      </c>
+      <c r="F26" s="26">
+        <v>90</v>
+      </c>
+      <c r="G26" s="26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="26">
+        <v>150</v>
+      </c>
+      <c r="J26" s="26">
+        <v>25</v>
+      </c>
+      <c r="K26" s="26">
+        <v>0</v>
+      </c>
+      <c r="L26" s="26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="26">
+        <v>0</v>
+      </c>
+      <c r="N26" s="26">
+        <v>1</v>
+      </c>
+      <c r="O26" s="26">
+        <v>6</v>
+      </c>
+      <c r="P26" s="26">
+        <v>15</v>
+      </c>
+      <c r="Q26" s="26">
+        <v>1</v>
+      </c>
+      <c r="R26" s="26">
+        <v>0</v>
+      </c>
+      <c r="S26" s="26">
+        <v>100</v>
+      </c>
+      <c r="T26" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="U26" s="26">
+        <v>0</v>
+      </c>
+      <c r="V26" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B27" s="26">
+        <v>1400</v>
+      </c>
+      <c r="D27" s="26">
+        <v>1</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0</v>
+      </c>
+      <c r="G27" s="26">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26">
+        <v>2</v>
+      </c>
+      <c r="I27" s="26">
+        <v>100</v>
+      </c>
+      <c r="J27" s="26">
+        <v>0</v>
+      </c>
+      <c r="K27" s="26">
+        <v>0</v>
+      </c>
+      <c r="L27" s="26">
+        <v>0</v>
+      </c>
+      <c r="M27" s="26">
+        <v>0</v>
+      </c>
+      <c r="N27" s="26">
+        <v>1</v>
+      </c>
+      <c r="O27" s="26">
+        <v>3</v>
+      </c>
+      <c r="P27" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="26">
+        <v>0</v>
+      </c>
+      <c r="R27" s="26">
+        <v>2</v>
+      </c>
+      <c r="S27" s="26">
+        <v>100</v>
+      </c>
+      <c r="T27" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="U27" s="26">
+        <v>210</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="26">
+        <v>1401</v>
+      </c>
+      <c r="D28" s="26">
+        <v>1</v>
+      </c>
+      <c r="E28" s="26">
+        <v>0</v>
+      </c>
+      <c r="F28" s="26">
+        <v>0</v>
+      </c>
+      <c r="G28" s="26">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26">
+        <v>0</v>
+      </c>
+      <c r="I28" s="26">
+        <v>0</v>
+      </c>
+      <c r="J28" s="26">
+        <v>8</v>
+      </c>
+      <c r="K28" s="26">
+        <v>0</v>
+      </c>
+      <c r="L28" s="26">
+        <v>2</v>
+      </c>
+      <c r="M28" s="26">
+        <v>4</v>
+      </c>
+      <c r="N28" s="26">
+        <v>0</v>
+      </c>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26">
+        <v>0</v>
+      </c>
+      <c r="R28" s="26">
+        <v>2</v>
+      </c>
+      <c r="S28" s="26">
+        <v>0</v>
+      </c>
+      <c r="T28" s="26">
+        <v>0</v>
+      </c>
+      <c r="U28" s="26">
+        <v>0</v>
+      </c>
+      <c r="V28" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="26">
+        <v>1402</v>
+      </c>
+      <c r="D29" s="26">
+        <v>1</v>
+      </c>
+      <c r="E29" s="26">
+        <v>0</v>
+      </c>
+      <c r="F29" s="26">
+        <v>0</v>
+      </c>
+      <c r="G29" s="26">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26">
+        <v>0</v>
+      </c>
+      <c r="I29" s="26">
+        <v>0</v>
+      </c>
+      <c r="J29" s="26">
+        <v>23</v>
+      </c>
+      <c r="K29" s="26">
+        <v>0</v>
+      </c>
+      <c r="L29" s="26">
+        <v>2</v>
+      </c>
+      <c r="M29" s="26">
+        <v>4</v>
+      </c>
+      <c r="N29" s="26">
+        <v>0</v>
+      </c>
+      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="P29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26">
+        <v>0</v>
+      </c>
+      <c r="R29" s="26">
+        <v>3</v>
+      </c>
+      <c r="S29" s="26">
+        <v>299</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U29" s="26">
+        <v>0</v>
+      </c>
+      <c r="V29" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="26">
+        <v>1403</v>
+      </c>
+      <c r="D30" s="26">
+        <v>4</v>
+      </c>
+      <c r="E30" s="26">
+        <v>0</v>
+      </c>
+      <c r="F30" s="26">
+        <v>0</v>
+      </c>
+      <c r="G30" s="26">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26">
+        <v>0</v>
+      </c>
+      <c r="I30" s="26">
+        <v>0</v>
+      </c>
+      <c r="J30" s="26">
+        <v>0</v>
+      </c>
+      <c r="K30" s="26">
+        <v>0</v>
+      </c>
+      <c r="L30" s="26">
+        <v>0</v>
+      </c>
+      <c r="M30" s="26">
+        <v>0</v>
+      </c>
+      <c r="N30" s="26">
+        <v>1</v>
+      </c>
+      <c r="O30" s="26">
+        <v>3</v>
+      </c>
+      <c r="P30" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q30" s="26">
+        <v>0</v>
+      </c>
+      <c r="R30" s="26">
+        <v>0</v>
+      </c>
+      <c r="S30" s="26">
+        <v>100</v>
+      </c>
+      <c r="T30" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="U30" s="26">
+        <v>0</v>
+      </c>
+      <c r="V30" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" s="26">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="26">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B33" s="26">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B34" s="26">
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526B62E6-EC8C-4BDD-AFBE-8BAA3848F05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E432AC71-BDE7-4C59-9B75-EF203D9EC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="945" yWindow="2430" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="16224" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -4092,7 +4092,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4227,195 +4227,195 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4467,124 +4467,118 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4756,10 +4750,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5027,25 +5017,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="26"/>
-    <col min="9" max="9" width="10.375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="26"/>
-    <col min="11" max="11" width="11.25" style="26" customWidth="1"/>
-    <col min="12" max="15" width="8.75" style="26"/>
+    <col min="7" max="8" width="8.69921875" style="26"/>
+    <col min="9" max="9" width="10.3984375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="26"/>
+    <col min="11" max="11" width="11.19921875" style="26" customWidth="1"/>
+    <col min="12" max="15" width="8.69921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5058,15 +5048,15 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -5079,23 +5069,23 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="91" t="s">
+      <c r="H4" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="91" t="s">
+      <c r="J4" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="95" t="s">
+      <c r="K4" s="135" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -5108,13 +5098,13 @@
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="96"/>
-    </row>
-    <row r="6" spans="2:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="134"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="136"/>
+    </row>
+    <row r="6" spans="2:11" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -5135,7 +5125,7 @@
       <c r="J6" s="110"/>
       <c r="K6" s="111"/>
     </row>
-    <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -5148,7 +5138,7 @@
       <c r="E7" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="49">
+      <c r="G7" s="47">
         <v>1000</v>
       </c>
       <c r="H7" s="33">
@@ -5157,14 +5147,14 @@
       <c r="I7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="J7" s="50" t="s">
         <v>131</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -5177,7 +5167,7 @@
       <c r="E8" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="48">
         <v>1240</v>
       </c>
       <c r="H8" s="34">
@@ -5186,14 +5176,14 @@
       <c r="I8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="51" t="s">
         <v>132</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -5206,7 +5196,7 @@
       <c r="E9" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="49">
         <v>1320</v>
       </c>
       <c r="H9" s="35">
@@ -5215,14 +5205,14 @@
       <c r="I9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="54" t="s">
+      <c r="J9" s="52" t="s">
         <v>133</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -5236,7 +5226,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -5250,7 +5240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -5264,7 +5254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -5278,7 +5268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -5292,7 +5282,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>12</v>
       </c>
@@ -5306,7 +5296,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -5320,7 +5310,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>14</v>
       </c>
@@ -5334,7 +5324,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -5348,7 +5338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>16</v>
       </c>
@@ -5362,7 +5352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -5376,7 +5366,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>18</v>
       </c>
@@ -5390,7 +5380,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -5404,7 +5394,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>20</v>
       </c>
@@ -5418,7 +5408,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>21</v>
       </c>
@@ -5432,7 +5422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>22</v>
       </c>
@@ -5446,7 +5436,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -5460,7 +5450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>24</v>
       </c>
@@ -5474,7 +5464,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -5488,18 +5478,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="75" t="s">
+    <row r="31" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="128"/>
       <c r="G32" s="112" t="s">
         <v>84</v>
       </c>
@@ -5514,14 +5504,14 @@
       <c r="N32" s="116"/>
       <c r="O32" s="117"/>
     </row>
-    <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="87"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
@@ -5541,14 +5531,14 @@
       <c r="N33" s="119"/>
       <c r="O33" s="120"/>
     </row>
-    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="64" t="s">
+      <c r="C34" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="65"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="23"/>
       <c r="G34" s="40">
         <v>0</v>
@@ -5566,10 +5556,10 @@
       <c r="N34" s="122"/>
       <c r="O34" s="123"/>
     </row>
-    <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
+    <row r="35" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="153"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
@@ -5590,10 +5580,10 @@
       <c r="N35" s="124"/>
       <c r="O35" s="125"/>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="82"/>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="156"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="158"/>
       <c r="E36" s="19" t="s">
         <v>44</v>
       </c>
@@ -5604,293 +5594,293 @@
       <c r="H36" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="132" t="s">
+      <c r="I36" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="133"/>
-      <c r="K36" s="133"/>
-      <c r="L36" s="133"/>
-      <c r="M36" s="133"/>
-      <c r="N36" s="133"/>
-      <c r="O36" s="134"/>
-    </row>
-    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="82"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="156"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
       <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="98"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="135" t="s">
+      <c r="J37" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
-      <c r="O37" s="137"/>
-    </row>
-    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="82"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="156"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="107">
+      <c r="G38" s="72">
         <v>3</v>
       </c>
-      <c r="H38" s="105" t="s">
+      <c r="H38" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="99" t="s">
+      <c r="I38" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="101"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="82"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="102"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="156"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
       <c r="E39" s="20"/>
-      <c r="G39" s="108"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="104"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="82"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="106"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="156"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="20"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="68"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="126" t="s">
+      <c r="J40" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="127"/>
-      <c r="N40" s="127"/>
-      <c r="O40" s="128"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="83"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="85"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="82"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="20"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="74"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="129" t="s">
+      <c r="J41" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="K41" s="130"/>
-      <c r="L41" s="130"/>
-      <c r="M41" s="130"/>
-      <c r="N41" s="130"/>
-      <c r="O41" s="131"/>
-    </row>
-    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="85"/>
+    </row>
+    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="64" t="s">
+      <c r="C42" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="65"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="151">
+      <c r="G42" s="65">
         <v>4</v>
       </c>
-      <c r="H42" s="153" t="s">
+      <c r="H42" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="155" t="s">
+      <c r="I42" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="156"/>
-      <c r="K42" s="156"/>
-      <c r="L42" s="156"/>
-      <c r="M42" s="156"/>
-      <c r="N42" s="156"/>
-      <c r="O42" s="157"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="55"/>
-      <c r="C43" s="56"/>
-      <c r="D43" s="57"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="96"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="152"/>
-      <c r="H43" s="154"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
-      <c r="O43" s="159"/>
-    </row>
-    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="58"/>
-      <c r="C44" s="59"/>
-      <c r="D44" s="60"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="98"/>
+    </row>
+    <row r="44" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="140"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="142"/>
       <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="97"/>
-      <c r="H44" s="98"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="160" t="s">
+      <c r="J44" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="160"/>
-      <c r="L44" s="160"/>
-      <c r="M44" s="160"/>
-      <c r="N44" s="160"/>
-      <c r="O44" s="161"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="60"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="100"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="142"/>
       <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="107">
+      <c r="G45" s="72">
         <v>5</v>
       </c>
-      <c r="H45" s="105" t="s">
+      <c r="H45" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="100" t="s">
+      <c r="I45" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="100"/>
-      <c r="M45" s="100"/>
-      <c r="N45" s="100"/>
-      <c r="O45" s="101"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="58"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="60"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="102"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="140"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="142"/>
       <c r="E46" s="20"/>
-      <c r="G46" s="165"/>
-      <c r="H46" s="164"/>
-      <c r="I46" s="162"/>
-      <c r="J46" s="162"/>
-      <c r="K46" s="162"/>
-      <c r="L46" s="162"/>
-      <c r="M46" s="162"/>
-      <c r="N46" s="162"/>
-      <c r="O46" s="163"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="58"/>
-      <c r="C47" s="59"/>
-      <c r="D47" s="60"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="104"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="140"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142"/>
       <c r="E47" s="20"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="103"/>
-      <c r="J47" s="103"/>
-      <c r="K47" s="103"/>
-      <c r="L47" s="103"/>
-      <c r="M47" s="103"/>
-      <c r="N47" s="103"/>
-      <c r="O47" s="104"/>
-    </row>
-    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="58"/>
-      <c r="C48" s="59"/>
-      <c r="D48" s="60"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="106"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="140"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="142"/>
       <c r="E48" s="20"/>
-      <c r="G48" s="145"/>
-      <c r="H48" s="146"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="126" t="s">
+      <c r="J48" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="127"/>
-      <c r="L48" s="127"/>
-      <c r="M48" s="127"/>
-      <c r="N48" s="127"/>
-      <c r="O48" s="128"/>
-    </row>
-    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="61"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="82"/>
+    </row>
+    <row r="49" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="21"/>
-      <c r="G49" s="147"/>
-      <c r="H49" s="148"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="126" t="s">
+      <c r="J49" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="127"/>
-      <c r="O49" s="128"/>
-    </row>
-    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="82"/>
+    </row>
+    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="147"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="150"/>
-      <c r="I50" s="48" t="s">
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="135" t="s">
+      <c r="J50" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
-      <c r="O50" s="137"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="91"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="61"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
@@ -5900,111 +5890,123 @@
       <c r="H51" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="142" t="s">
+      <c r="I51" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="144"/>
-    </row>
-    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="69"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="71"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="79"/>
+    </row>
+    <row r="52" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="145"/>
-      <c r="H52" s="146"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="138" t="s">
+      <c r="J52" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="138"/>
-      <c r="L52" s="138"/>
-      <c r="M52" s="138"/>
-      <c r="N52" s="138"/>
-      <c r="O52" s="139"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="69"/>
-      <c r="C53" s="70"/>
-      <c r="D53" s="71"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="93"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="47">
+      <c r="G53" s="43">
         <v>7</v>
       </c>
-      <c r="H53" s="46" t="s">
+      <c r="H53" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="142" t="s">
+      <c r="I53" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="143"/>
-      <c r="K53" s="143"/>
-      <c r="L53" s="143"/>
-      <c r="M53" s="143"/>
-      <c r="N53" s="143"/>
-      <c r="O53" s="144"/>
-    </row>
-    <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="69"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="71"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="79"/>
+    </row>
+    <row r="54" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="98"/>
-      <c r="I54" s="48" t="s">
+      <c r="G54" s="59"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="140" t="s">
+      <c r="J54" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="140"/>
-      <c r="L54" s="140"/>
-      <c r="M54" s="140"/>
-      <c r="N54" s="140"/>
-      <c r="O54" s="141"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="69"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="71"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="76"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B55" s="149"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="69"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="71"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="149"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="151"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
+    <row r="57" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="63"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
     <mergeCell ref="J40:O40"/>
     <mergeCell ref="J41:O41"/>
     <mergeCell ref="I36:O36"/>
@@ -6016,30 +6018,18 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="I45:O47"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I38:O39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6053,38 +6043,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
   <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="37" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="14.69921875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" style="26" customWidth="1"/>
     <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="26" customWidth="1"/>
     <col min="6" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="26"/>
-    <col min="10" max="10" width="8.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="26"/>
+    <col min="10" max="10" width="8.59765625" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.75" style="26"/>
-    <col min="17" max="17" width="8.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.69921875" style="26"/>
+    <col min="17" max="17" width="8.09765625" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.59765625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.75" style="26"/>
+    <col min="26" max="26" width="8.69921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -6164,7 +6154,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
         <v>67</v>
       </c>
@@ -6229,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="37" t="s">
         <v>134</v>
       </c>
@@ -6294,7 +6284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="37" t="s">
         <v>135</v>
       </c>
@@ -6359,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="37" t="s">
         <v>141</v>
       </c>
@@ -6424,7 +6414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="37" t="s">
         <v>68</v>
       </c>
@@ -6489,7 +6479,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="37" t="s">
         <v>69</v>
       </c>
@@ -6554,7 +6544,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="37" t="s">
         <v>136</v>
       </c>
@@ -6619,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
         <v>137</v>
       </c>
@@ -6684,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
         <v>142</v>
       </c>
@@ -6749,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>70</v>
       </c>
@@ -6814,7 +6804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
         <v>75</v>
       </c>
@@ -6879,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
         <v>71</v>
       </c>
@@ -6944,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
         <v>74</v>
       </c>
@@ -7009,7 +6999,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
         <v>72</v>
       </c>
@@ -7074,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="37" t="s">
         <v>76</v>
       </c>
@@ -7139,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="37" t="s">
         <v>73</v>
       </c>
@@ -7204,7 +7194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="37" t="s">
         <v>77</v>
       </c>
@@ -7269,7 +7259,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="37" t="s">
         <v>158</v>
       </c>
@@ -7334,7 +7324,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="37" t="s">
         <v>159</v>
       </c>
@@ -7399,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="37" t="s">
         <v>160</v>
       </c>
@@ -7464,7 +7454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="37" t="s">
         <v>161</v>
       </c>
@@ -7529,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="37" t="s">
         <v>162</v>
       </c>
@@ -7594,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="37" t="s">
         <v>163</v>
       </c>
@@ -7659,7 +7649,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="37" t="s">
         <v>164</v>
       </c>
@@ -7724,7 +7714,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
         <v>165</v>
       </c>
@@ -7789,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="37" t="s">
         <v>174</v>
       </c>
@@ -7854,7 +7844,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="37" t="s">
         <v>175</v>
       </c>
@@ -7919,7 +7909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="37" t="s">
         <v>176</v>
       </c>
@@ -7984,7 +7974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="37" t="s">
         <v>177</v>
       </c>
@@ -8049,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="37" t="s">
         <v>178</v>
       </c>
@@ -8057,7 +8047,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="37" t="s">
         <v>179</v>
       </c>
@@ -8065,7 +8055,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="37" t="s">
         <v>180</v>
       </c>
@@ -8073,7 +8063,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="37" t="s">
         <v>181</v>
       </c>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E432AC71-BDE7-4C59-9B75-EF203D9EC0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35A5E1-8921-4183-A218-6B05B849C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16224" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -1964,7 +1964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2469,35 +2469,35 @@
   </si>
   <si>
     <t>[스킬 타입 별 인자 설명]</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>캐스팅 시간(s)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>최대 차지량</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>이전 스킬의 index</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>다음 스킬의 index</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>재 입력 시간</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>최대 홀딩 시간</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>자원 소모 시간 단위</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> type_val1</t>
@@ -2534,11 +2534,11 @@
   </si>
   <si>
     <t>스킬 타입별 데이터의 2번 수치 값</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>스킬 타입별 데이터의 3번 수치 값</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>타입</t>
@@ -2666,7 +2666,7 @@
       </rPr>
       <t>(type_val3)</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>v1</t>
@@ -2674,15 +2674,15 @@
   </si>
   <si>
     <t>v1</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>v2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>v3</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -2711,7 +2711,7 @@
       </rPr>
       <t>' 참고)</t>
     </r>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>[150/1]</t>
@@ -2752,11 +2752,11 @@
   </si>
   <si>
     <t>차지 중 방향 전환 각도 (중앙 기준 좌우)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>최대 콤보 횟수</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -3037,6 +3037,166 @@
   <si>
     <t>[45/3]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[100/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[250/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/50]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70/5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너클 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>너클 이동기</t>
+  </si>
+  <si>
+    <t>너클 기상기</t>
+  </si>
+  <si>
+    <t>너클 일반공격</t>
+  </si>
+  <si>
+    <t>너클 1번 스킬</t>
+  </si>
+  <si>
+    <t>너클 2번 스킬</t>
+  </si>
+  <si>
+    <t>너클 3번 스킬</t>
+  </si>
+  <si>
+    <t>너클 4번 스킬</t>
+  </si>
+  <si>
+    <t>[32/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40/4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방패 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>방패 이동기</t>
+  </si>
+  <si>
+    <t>방패 기상기</t>
+  </si>
+  <si>
+    <t>방패 일반공격</t>
+  </si>
+  <si>
+    <t>방패 1번 스킬</t>
+  </si>
+  <si>
+    <t>방패 2번 스킬</t>
+  </si>
+  <si>
+    <t>방패 3번 스킬</t>
+  </si>
+  <si>
+    <t>방패 4번 스킬</t>
+  </si>
+  <si>
+    <t>언월도 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>언월도 이동기</t>
+  </si>
+  <si>
+    <t>언월도 기상기</t>
+  </si>
+  <si>
+    <t>언월도 일반공격</t>
+  </si>
+  <si>
+    <t>언월도 1번 스킬</t>
+  </si>
+  <si>
+    <t>언월도 2번 스킬</t>
+  </si>
+  <si>
+    <t>언월도 3번 스킬</t>
+  </si>
+  <si>
+    <t>언월도 4번 스킬</t>
+  </si>
+  <si>
+    <t>[95/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[90/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[80/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[200/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장궁 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>장궁 이동기</t>
+  </si>
+  <si>
+    <t>장궁 기상기</t>
+  </si>
+  <si>
+    <t>장궁 일반공격</t>
+  </si>
+  <si>
+    <t>장궁 1번 스킬</t>
+  </si>
+  <si>
+    <t>장궁 2번 스킬</t>
+  </si>
+  <si>
+    <t>장궁 3번 스킬</t>
+  </si>
+  <si>
+    <t>장궁 4번 스킬</t>
   </si>
 </sst>
 </file>
@@ -3198,14 +3358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -3258,6 +3410,15 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4200,9 +4361,6 @@
     <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4215,7 +4373,7 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4224,10 +4382,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4248,22 +4406,130 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4272,47 +4538,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4329,256 +4703,43 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5017,25 +5178,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G32" sqref="G32:O54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.69921875" style="26"/>
-    <col min="9" max="9" width="10.3984375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="26"/>
-    <col min="11" max="11" width="11.19921875" style="26" customWidth="1"/>
-    <col min="12" max="15" width="8.69921875" style="26"/>
+    <col min="7" max="8" width="8.75" style="26"/>
+    <col min="9" max="9" width="10.375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="26"/>
+    <col min="11" max="11" width="11.25" style="26" customWidth="1"/>
+    <col min="12" max="15" width="8.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5048,15 +5209,15 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="73"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -5069,23 +5230,23 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="88" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="92" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -5098,13 +5259,13 @@
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="136"/>
-    </row>
-    <row r="6" spans="2:11" ht="63" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="91"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="93"/>
+    </row>
+    <row r="6" spans="2:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -5117,15 +5278,15 @@
       <c r="E6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
-    </row>
-    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+    </row>
+    <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -5135,10 +5296,10 @@
       <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="46">
         <v>1000</v>
       </c>
       <c r="H7" s="33">
@@ -5147,14 +5308,14 @@
       <c r="I7" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="J7" s="50" t="s">
+      <c r="J7" s="49" t="s">
         <v>131</v>
       </c>
       <c r="K7" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -5164,10 +5325,10 @@
       <c r="D8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="47">
         <v>1240</v>
       </c>
       <c r="H8" s="34">
@@ -5176,14 +5337,14 @@
       <c r="I8" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="51" t="s">
+      <c r="J8" s="50" t="s">
         <v>132</v>
       </c>
       <c r="K8" s="32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -5193,10 +5354,10 @@
       <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G9" s="49">
+      <c r="G9" s="48">
         <v>1320</v>
       </c>
       <c r="H9" s="35">
@@ -5205,14 +5366,14 @@
       <c r="I9" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="J9" s="52" t="s">
+      <c r="J9" s="51" t="s">
         <v>133</v>
       </c>
       <c r="K9" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -5226,7 +5387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -5240,7 +5401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -5254,7 +5415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -5268,7 +5429,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -5282,7 +5443,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10">
         <v>12</v>
       </c>
@@ -5296,7 +5457,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -5310,7 +5471,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B17" s="10">
         <v>14</v>
       </c>
@@ -5324,7 +5485,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -5338,7 +5499,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
       <c r="B19" s="10">
         <v>16</v>
       </c>
@@ -5352,7 +5513,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -5366,7 +5527,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21" s="10">
         <v>18</v>
       </c>
@@ -5380,7 +5541,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -5394,7 +5555,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B23" s="10">
         <v>20</v>
       </c>
@@ -5408,7 +5569,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B24" s="10">
         <v>21</v>
       </c>
@@ -5422,7 +5583,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="10">
         <v>22</v>
       </c>
@@ -5436,7 +5597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -5450,7 +5611,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27" s="10">
         <v>24</v>
       </c>
@@ -5464,7 +5625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -5478,535 +5639,523 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="31" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="126" t="s">
+    <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="G32" s="112" t="s">
+      <c r="C32" s="73"/>
+      <c r="G32" s="109" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="115" t="s">
+      <c r="H32" s="110"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="112" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="117"/>
-    </row>
-    <row r="33" spans="2:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K32" s="113"/>
+      <c r="L32" s="113"/>
+      <c r="M32" s="113"/>
+      <c r="N32" s="113"/>
+      <c r="O32" s="114"/>
+    </row>
+    <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="163"/>
+      <c r="D33" s="84"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
       <c r="G33" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="118" t="s">
+      <c r="I33" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="120"/>
-    </row>
-    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="117"/>
+    </row>
+    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="23"/>
-      <c r="G34" s="40">
-        <v>0</v>
-      </c>
-      <c r="H34" s="41" t="s">
+      <c r="G34" s="39">
+        <v>0</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="121" t="s">
+      <c r="I34" s="118" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="123"/>
-    </row>
-    <row r="35" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="153"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="155"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="120"/>
+    </row>
+    <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
       <c r="F35" s="2"/>
-      <c r="G35" s="40">
+      <c r="G35" s="39">
         <v>1</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="125"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B36" s="156"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="158"/>
+      <c r="J35" s="121"/>
+      <c r="K35" s="121"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="121"/>
+      <c r="N35" s="121"/>
+      <c r="O35" s="122"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
       <c r="E36" s="19" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="2"/>
-      <c r="G36" s="43">
+      <c r="G36" s="42">
         <v>2</v>
       </c>
-      <c r="H36" s="44" t="s">
+      <c r="H36" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="86" t="s">
+      <c r="I36" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="88"/>
-    </row>
-    <row r="37" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="156"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
+      <c r="J36" s="130"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="130"/>
+      <c r="M36" s="130"/>
+      <c r="N36" s="130"/>
+      <c r="O36" s="131"/>
+    </row>
+    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="45" t="s">
+      <c r="G37" s="94"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="132" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="91"/>
-    </row>
-    <row r="38" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="158"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="134"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="79"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="72">
+      <c r="G38" s="104">
         <v>3</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="102"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
+      <c r="M38" s="97"/>
+      <c r="N38" s="97"/>
+      <c r="O38" s="98"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="79"/>
       <c r="E39" s="20"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="106"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="158"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="101"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
       <c r="E40" s="20"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="42" t="s">
+      <c r="G40" s="63"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="82"/>
-    </row>
-    <row r="41" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="161"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
+      <c r="O40" s="125"/>
+    </row>
+    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
       <c r="E41" s="20"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
-      <c r="I41" s="42" t="s">
+      <c r="G41" s="69"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="126" t="s">
         <v>128</v>
       </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="85"/>
-    </row>
-    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="K41" s="127"/>
+      <c r="L41" s="127"/>
+      <c r="M41" s="127"/>
+      <c r="N41" s="127"/>
+      <c r="O41" s="128"/>
+    </row>
+    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="147"/>
+      <c r="D42" s="62"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="65">
+      <c r="G42" s="157">
         <v>4</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="94" t="s">
+      <c r="I42" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="96"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="139"/>
+      <c r="J42" s="138"/>
+      <c r="K42" s="138"/>
+      <c r="L42" s="138"/>
+      <c r="M42" s="138"/>
+      <c r="N42" s="138"/>
+      <c r="O42" s="139"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="98"/>
-    </row>
-    <row r="44" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="140"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="142"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="140"/>
+      <c r="J43" s="140"/>
+      <c r="K43" s="140"/>
+      <c r="L43" s="140"/>
+      <c r="M43" s="140"/>
+      <c r="N43" s="140"/>
+      <c r="O43" s="141"/>
+    </row>
+    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
       <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="42" t="s">
+      <c r="G44" s="94"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="99" t="s">
+      <c r="J44" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="100"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="140"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
+      <c r="M44" s="142"/>
+      <c r="N44" s="142"/>
+      <c r="O44" s="143"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="55"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="57"/>
       <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="104">
         <v>5</v>
       </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="101" t="s">
+      <c r="I45" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="102"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B46" s="140"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="98"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B46" s="55"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="57"/>
       <c r="E46" s="20"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="104"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B47" s="140"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="161"/>
+      <c r="I46" s="144"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="145"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B47" s="55"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
       <c r="E47" s="20"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="106"/>
-    </row>
-    <row r="48" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="140"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="142"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="100"/>
+      <c r="K47" s="100"/>
+      <c r="L47" s="100"/>
+      <c r="M47" s="100"/>
+      <c r="N47" s="100"/>
+      <c r="O47" s="101"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="55"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="57"/>
       <c r="E48" s="20"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="42" t="s">
+      <c r="G48" s="151"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="80" t="s">
+      <c r="J48" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="82"/>
-    </row>
-    <row r="49" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="145"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
+      <c r="O48" s="125"/>
+    </row>
+    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
       <c r="E49" s="21"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="42" t="s">
+      <c r="G49" s="153"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="80" t="s">
+      <c r="J49" s="123" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="82"/>
-    </row>
-    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
+      <c r="O49" s="125"/>
+    </row>
+    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="146" t="s">
+      <c r="C50" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="147"/>
+      <c r="D50" s="62"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="58"/>
-      <c r="I50" s="46" t="s">
+      <c r="G50" s="155"/>
+      <c r="H50" s="156"/>
+      <c r="I50" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="89" t="s">
+      <c r="J50" s="132" t="s">
         <v>89</v>
       </c>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="91"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B51" s="61"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="62"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
+      <c r="O50" s="134"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="63"/>
+      <c r="C51" s="64"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="G51" s="43">
+      <c r="G51" s="42">
         <v>6</v>
       </c>
-      <c r="H51" s="44" t="s">
+      <c r="H51" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="77" t="s">
+      <c r="I51" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="79"/>
-    </row>
-    <row r="52" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="151"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="149"/>
+      <c r="L51" s="149"/>
+      <c r="M51" s="149"/>
+      <c r="N51" s="149"/>
+      <c r="O51" s="150"/>
+    </row>
+    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
       <c r="E52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="45" t="s">
+      <c r="G52" s="151"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="92" t="s">
+      <c r="J52" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="93"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="151"/>
+      <c r="K52" s="135"/>
+      <c r="L52" s="135"/>
+      <c r="M52" s="135"/>
+      <c r="N52" s="135"/>
+      <c r="O52" s="136"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
       <c r="E53" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="G53" s="43">
+      <c r="G53" s="42">
         <v>7</v>
       </c>
-      <c r="H53" s="44" t="s">
+      <c r="H53" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="77" t="s">
+      <c r="I53" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="79"/>
-    </row>
-    <row r="54" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="151"/>
+      <c r="J53" s="149"/>
+      <c r="K53" s="149"/>
+      <c r="L53" s="149"/>
+      <c r="M53" s="149"/>
+      <c r="N53" s="149"/>
+      <c r="O53" s="150"/>
+    </row>
+    <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="46" t="s">
+      <c r="G54" s="94"/>
+      <c r="H54" s="95"/>
+      <c r="I54" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="146" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="76"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B55" s="149"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="151"/>
+      <c r="K54" s="146"/>
+      <c r="L54" s="146"/>
+      <c r="M54" s="146"/>
+      <c r="N54" s="146"/>
+      <c r="O54" s="147"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B56" s="149"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="151"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="63"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="64"/>
+    <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="71"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I38:O39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="J40:O40"/>
     <mergeCell ref="J41:O41"/>
     <mergeCell ref="I36:O36"/>
@@ -6018,18 +6167,30 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="I45:O47"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6041,40 +6202,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z34"/>
+  <dimension ref="A1:Z66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.69921875" style="37" customWidth="1"/>
-    <col min="2" max="2" width="7.8984375" style="26" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="163" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
     <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.59765625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="26" customWidth="1"/>
     <col min="6" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.69921875" style="26"/>
-    <col min="10" max="10" width="8.59765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="26"/>
+    <col min="10" max="10" width="8.625" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.19921875" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.25" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.69921875" style="26"/>
-    <col min="17" max="17" width="8.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.75" style="26"/>
+    <col min="17" max="17" width="8.125" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.59765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.69921875" style="26"/>
+    <col min="26" max="26" width="8.75" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -6154,8 +6318,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="163" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="26">
@@ -6219,8 +6383,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="163" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="26">
@@ -6284,8 +6448,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="163" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="26">
@@ -6349,8 +6513,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="163" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="26">
@@ -6414,8 +6578,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="163" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="26">
@@ -6479,8 +6643,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="163" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="26">
@@ -6544,8 +6708,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="163" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="26">
@@ -6609,8 +6773,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="163" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="26">
@@ -6674,8 +6838,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="163" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="26">
@@ -6739,8 +6903,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="163" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="26">
@@ -6804,8 +6968,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="163" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="26">
@@ -6869,8 +7033,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="163" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="26">
@@ -6934,8 +7098,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="163" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="26">
@@ -6999,8 +7163,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="163" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="26">
@@ -7064,8 +7228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16" s="163" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="26">
@@ -7129,8 +7293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A17" s="37" t="s">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="163" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="26">
@@ -7194,8 +7358,8 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A18" s="37" t="s">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="163" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="26">
@@ -7259,8 +7423,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A19" s="37" t="s">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="163" t="s">
         <v>158</v>
       </c>
       <c r="B19" s="26">
@@ -7324,8 +7488,8 @@
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A20" s="37" t="s">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="163" t="s">
         <v>159</v>
       </c>
       <c r="B20" s="26">
@@ -7389,8 +7553,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A21" s="37" t="s">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="163" t="s">
         <v>160</v>
       </c>
       <c r="B21" s="26">
@@ -7454,8 +7618,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A22" s="37" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="163" t="s">
         <v>161</v>
       </c>
       <c r="B22" s="26">
@@ -7519,8 +7683,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A23" s="37" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="163" t="s">
         <v>162</v>
       </c>
       <c r="B23" s="26">
@@ -7584,8 +7748,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="163" t="s">
         <v>163</v>
       </c>
       <c r="B24" s="26">
@@ -7649,8 +7813,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="163" t="s">
         <v>164</v>
       </c>
       <c r="B25" s="26">
@@ -7714,8 +7878,8 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="163" t="s">
         <v>165</v>
       </c>
       <c r="B26" s="26">
@@ -7779,8 +7943,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A27" s="37" t="s">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="163" t="s">
         <v>174</v>
       </c>
       <c r="B27" s="26">
@@ -7844,8 +8008,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="163" t="s">
         <v>175</v>
       </c>
       <c r="B28" s="26">
@@ -7909,8 +8073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A29" s="37" t="s">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="163" t="s">
         <v>176</v>
       </c>
       <c r="B29" s="26">
@@ -7974,8 +8138,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A30" s="37" t="s">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="163" t="s">
         <v>177</v>
       </c>
       <c r="B30" s="26">
@@ -8039,36 +8203,1603 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A31" s="37" t="s">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="163" t="s">
         <v>178</v>
       </c>
       <c r="B31" s="26">
         <v>1410</v>
       </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
-      <c r="A32" s="37" t="s">
+      <c r="D31" s="26">
+        <v>1</v>
+      </c>
+      <c r="E31" s="26">
+        <v>0</v>
+      </c>
+      <c r="F31" s="26">
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26">
+        <v>0</v>
+      </c>
+      <c r="I31" s="26">
+        <v>20</v>
+      </c>
+      <c r="J31" s="26">
+        <v>6</v>
+      </c>
+      <c r="K31" s="26">
+        <v>0</v>
+      </c>
+      <c r="L31" s="26">
+        <v>2</v>
+      </c>
+      <c r="M31" s="26">
+        <v>5</v>
+      </c>
+      <c r="N31" s="26">
+        <v>1</v>
+      </c>
+      <c r="O31" s="26">
+        <v>3</v>
+      </c>
+      <c r="P31" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q31" s="26">
+        <v>0</v>
+      </c>
+      <c r="R31" s="26">
+        <v>1</v>
+      </c>
+      <c r="S31" s="26">
+        <v>100</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="U31" s="26">
+        <v>0</v>
+      </c>
+      <c r="V31" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="163" t="s">
         <v>179</v>
       </c>
       <c r="B32" s="26">
         <v>1420</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
+      <c r="D32" s="26">
+        <v>3</v>
+      </c>
+      <c r="E32" s="26">
+        <v>5</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
+        <v>35</v>
+      </c>
+      <c r="J32" s="26">
+        <v>8</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0</v>
+      </c>
+      <c r="L32" s="26">
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26">
+        <v>4</v>
+      </c>
+      <c r="P32" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="26">
+        <v>0</v>
+      </c>
+      <c r="R32" s="26">
+        <v>2</v>
+      </c>
+      <c r="S32" s="26">
+        <v>100</v>
+      </c>
+      <c r="T32" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U32" s="26">
+        <v>211</v>
+      </c>
+      <c r="V32" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="163" t="s">
         <v>180</v>
       </c>
       <c r="B33" s="26">
         <v>1430</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
+      <c r="D33" s="26">
+        <v>3</v>
+      </c>
+      <c r="E33" s="26">
+        <v>3</v>
+      </c>
+      <c r="F33" s="26">
+        <v>360</v>
+      </c>
+      <c r="G33" s="26">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26">
+        <v>0</v>
+      </c>
+      <c r="I33" s="26">
+        <v>60</v>
+      </c>
+      <c r="J33" s="26">
+        <v>12</v>
+      </c>
+      <c r="K33" s="26">
+        <v>0</v>
+      </c>
+      <c r="L33" s="26">
+        <v>0</v>
+      </c>
+      <c r="M33" s="26">
+        <v>0</v>
+      </c>
+      <c r="N33" s="26">
+        <v>1</v>
+      </c>
+      <c r="O33" s="26">
+        <v>10</v>
+      </c>
+      <c r="P33" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="26">
+        <v>0</v>
+      </c>
+      <c r="R33" s="26">
+        <v>2</v>
+      </c>
+      <c r="S33" s="26">
+        <v>100</v>
+      </c>
+      <c r="T33" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="U33" s="26">
+        <v>210</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="163" t="s">
         <v>181</v>
       </c>
       <c r="B34" s="26">
         <v>1440</v>
+      </c>
+      <c r="D34" s="26">
+        <v>0</v>
+      </c>
+      <c r="E34" s="26">
+        <v>0</v>
+      </c>
+      <c r="F34" s="26">
+        <v>0</v>
+      </c>
+      <c r="G34" s="26">
+        <v>0</v>
+      </c>
+      <c r="H34" s="26">
+        <v>0</v>
+      </c>
+      <c r="I34" s="26">
+        <v>160</v>
+      </c>
+      <c r="J34" s="26">
+        <v>23</v>
+      </c>
+      <c r="K34" s="26">
+        <v>0</v>
+      </c>
+      <c r="L34" s="26">
+        <v>0</v>
+      </c>
+      <c r="M34" s="26">
+        <v>0</v>
+      </c>
+      <c r="N34" s="26">
+        <v>1</v>
+      </c>
+      <c r="O34" s="26">
+        <v>20</v>
+      </c>
+      <c r="P34" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="26">
+        <v>0</v>
+      </c>
+      <c r="R34" s="26">
+        <v>0</v>
+      </c>
+      <c r="S34" s="26">
+        <v>100</v>
+      </c>
+      <c r="T34" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="U34" s="26">
+        <v>0</v>
+      </c>
+      <c r="V34" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="163" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="26">
+        <v>1500</v>
+      </c>
+      <c r="D35" s="26">
+        <v>1</v>
+      </c>
+      <c r="E35" s="26">
+        <v>0</v>
+      </c>
+      <c r="F35" s="26">
+        <v>0</v>
+      </c>
+      <c r="G35" s="26">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26">
+        <v>2</v>
+      </c>
+      <c r="I35" s="26">
+        <v>100</v>
+      </c>
+      <c r="J35" s="26">
+        <v>0</v>
+      </c>
+      <c r="K35" s="26">
+        <v>0</v>
+      </c>
+      <c r="L35" s="26">
+        <v>0</v>
+      </c>
+      <c r="M35" s="26">
+        <v>0</v>
+      </c>
+      <c r="N35" s="26">
+        <v>1</v>
+      </c>
+      <c r="O35" s="26">
+        <v>3</v>
+      </c>
+      <c r="P35" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="26">
+        <v>0</v>
+      </c>
+      <c r="R35" s="26">
+        <v>2</v>
+      </c>
+      <c r="S35" s="26">
+        <v>100</v>
+      </c>
+      <c r="T35" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="U35" s="26">
+        <v>420</v>
+      </c>
+      <c r="V35" s="26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="163" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" s="26">
+        <v>1501</v>
+      </c>
+      <c r="D36" s="26">
+        <v>1</v>
+      </c>
+      <c r="E36" s="26">
+        <v>0</v>
+      </c>
+      <c r="F36" s="26">
+        <v>0</v>
+      </c>
+      <c r="G36" s="26">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26">
+        <v>0</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0</v>
+      </c>
+      <c r="J36" s="26">
+        <v>6</v>
+      </c>
+      <c r="K36" s="26">
+        <v>0</v>
+      </c>
+      <c r="L36" s="26">
+        <v>2</v>
+      </c>
+      <c r="M36" s="26">
+        <v>6</v>
+      </c>
+      <c r="N36" s="26">
+        <v>0</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0</v>
+      </c>
+      <c r="P36" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="26">
+        <v>0</v>
+      </c>
+      <c r="R36" s="26">
+        <v>2</v>
+      </c>
+      <c r="S36" s="26">
+        <v>0</v>
+      </c>
+      <c r="T36" s="26">
+        <v>0</v>
+      </c>
+      <c r="U36" s="26">
+        <v>0</v>
+      </c>
+      <c r="V36" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" s="163" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="26">
+        <v>1502</v>
+      </c>
+      <c r="D37" s="26">
+        <v>1</v>
+      </c>
+      <c r="E37" s="26">
+        <v>0</v>
+      </c>
+      <c r="F37" s="26">
+        <v>0</v>
+      </c>
+      <c r="G37" s="26">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26">
+        <v>0</v>
+      </c>
+      <c r="I37" s="26">
+        <v>0</v>
+      </c>
+      <c r="J37" s="26">
+        <v>20</v>
+      </c>
+      <c r="K37" s="26">
+        <v>0</v>
+      </c>
+      <c r="L37" s="26">
+        <v>2</v>
+      </c>
+      <c r="M37" s="26">
+        <v>6</v>
+      </c>
+      <c r="N37" s="26">
+        <v>0</v>
+      </c>
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="26">
+        <v>0</v>
+      </c>
+      <c r="R37" s="26">
+        <v>3</v>
+      </c>
+      <c r="S37" s="26">
+        <v>299</v>
+      </c>
+      <c r="T37" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U37" s="26">
+        <v>0</v>
+      </c>
+      <c r="V37" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" s="163" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" s="26">
+        <v>1503</v>
+      </c>
+      <c r="D38" s="26">
+        <v>4</v>
+      </c>
+      <c r="E38" s="26">
+        <v>0</v>
+      </c>
+      <c r="F38" s="26">
+        <v>0</v>
+      </c>
+      <c r="G38" s="26">
+        <v>0</v>
+      </c>
+      <c r="H38" s="26">
+        <v>0</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0</v>
+      </c>
+      <c r="J38" s="26">
+        <v>0</v>
+      </c>
+      <c r="K38" s="26">
+        <v>0</v>
+      </c>
+      <c r="L38" s="26">
+        <v>0</v>
+      </c>
+      <c r="M38" s="26">
+        <v>0</v>
+      </c>
+      <c r="N38" s="26">
+        <v>1</v>
+      </c>
+      <c r="O38" s="26">
+        <v>2</v>
+      </c>
+      <c r="P38" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="26">
+        <v>0</v>
+      </c>
+      <c r="R38" s="26">
+        <v>0</v>
+      </c>
+      <c r="S38" s="26">
+        <v>100</v>
+      </c>
+      <c r="T38" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="U38" s="26">
+        <v>0</v>
+      </c>
+      <c r="V38" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" s="163" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" s="26">
+        <v>1510</v>
+      </c>
+      <c r="D39" s="26">
+        <v>1</v>
+      </c>
+      <c r="E39" s="26">
+        <v>0</v>
+      </c>
+      <c r="F39" s="26">
+        <v>0</v>
+      </c>
+      <c r="G39" s="26">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26">
+        <v>0</v>
+      </c>
+      <c r="I39" s="26">
+        <v>20</v>
+      </c>
+      <c r="J39" s="26">
+        <v>4</v>
+      </c>
+      <c r="K39" s="26">
+        <v>0</v>
+      </c>
+      <c r="L39" s="26">
+        <v>1</v>
+      </c>
+      <c r="M39" s="26">
+        <v>2</v>
+      </c>
+      <c r="N39" s="26">
+        <v>1</v>
+      </c>
+      <c r="O39" s="26">
+        <v>3</v>
+      </c>
+      <c r="P39" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="26">
+        <v>0</v>
+      </c>
+      <c r="R39" s="26">
+        <v>0</v>
+      </c>
+      <c r="S39" s="26">
+        <v>100</v>
+      </c>
+      <c r="T39" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="U39" s="26">
+        <v>0</v>
+      </c>
+      <c r="V39" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" s="163" t="s">
+        <v>197</v>
+      </c>
+      <c r="B40" s="26">
+        <v>1520</v>
+      </c>
+      <c r="D40" s="26">
+        <v>1</v>
+      </c>
+      <c r="E40" s="26">
+        <v>0</v>
+      </c>
+      <c r="F40" s="26">
+        <v>0</v>
+      </c>
+      <c r="G40" s="26">
+        <v>0</v>
+      </c>
+      <c r="H40" s="26">
+        <v>0</v>
+      </c>
+      <c r="I40" s="26">
+        <v>30</v>
+      </c>
+      <c r="J40" s="26">
+        <v>6</v>
+      </c>
+      <c r="K40" s="26">
+        <v>0</v>
+      </c>
+      <c r="L40" s="26">
+        <v>0</v>
+      </c>
+      <c r="M40" s="26">
+        <v>0</v>
+      </c>
+      <c r="N40" s="26">
+        <v>1</v>
+      </c>
+      <c r="O40" s="26">
+        <v>4</v>
+      </c>
+      <c r="P40" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="26">
+        <v>0</v>
+      </c>
+      <c r="R40" s="26">
+        <v>1</v>
+      </c>
+      <c r="S40" s="26">
+        <v>100</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="U40" s="26">
+        <v>0</v>
+      </c>
+      <c r="V40" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" s="163" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" s="26">
+        <v>1530</v>
+      </c>
+      <c r="D41" s="26">
+        <v>1</v>
+      </c>
+      <c r="E41" s="26">
+        <v>0</v>
+      </c>
+      <c r="F41" s="26">
+        <v>0</v>
+      </c>
+      <c r="G41" s="26">
+        <v>0</v>
+      </c>
+      <c r="H41" s="26">
+        <v>0</v>
+      </c>
+      <c r="I41" s="26">
+        <v>50</v>
+      </c>
+      <c r="J41" s="26">
+        <v>9</v>
+      </c>
+      <c r="K41" s="26">
+        <v>0</v>
+      </c>
+      <c r="L41" s="26">
+        <v>1</v>
+      </c>
+      <c r="M41" s="26">
+        <v>5</v>
+      </c>
+      <c r="N41" s="26">
+        <v>1</v>
+      </c>
+      <c r="O41" s="26">
+        <v>6</v>
+      </c>
+      <c r="P41" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>0</v>
+      </c>
+      <c r="R41" s="26">
+        <v>2</v>
+      </c>
+      <c r="S41" s="26">
+        <v>100</v>
+      </c>
+      <c r="T41" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="U41" s="26">
+        <v>420</v>
+      </c>
+      <c r="V41" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A42" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="26">
+        <v>1540</v>
+      </c>
+      <c r="D42" s="26">
+        <v>1</v>
+      </c>
+      <c r="E42" s="26">
+        <v>0</v>
+      </c>
+      <c r="F42" s="26">
+        <v>0</v>
+      </c>
+      <c r="G42" s="26">
+        <v>0</v>
+      </c>
+      <c r="H42" s="26">
+        <v>0</v>
+      </c>
+      <c r="I42" s="26">
+        <v>90</v>
+      </c>
+      <c r="J42" s="26">
+        <v>15</v>
+      </c>
+      <c r="K42" s="26">
+        <v>0</v>
+      </c>
+      <c r="L42" s="26">
+        <v>0</v>
+      </c>
+      <c r="M42" s="26">
+        <v>0</v>
+      </c>
+      <c r="N42" s="26">
+        <v>1</v>
+      </c>
+      <c r="O42" s="26">
+        <v>10</v>
+      </c>
+      <c r="P42" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>0</v>
+      </c>
+      <c r="R42" s="26">
+        <v>2</v>
+      </c>
+      <c r="S42" s="26">
+        <v>100</v>
+      </c>
+      <c r="T42" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="U42" s="26">
+        <v>0</v>
+      </c>
+      <c r="V42" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A43" s="163" t="s">
+        <v>204</v>
+      </c>
+      <c r="B43" s="26">
+        <v>1600</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26">
+        <v>0</v>
+      </c>
+      <c r="F43" s="26">
+        <v>0</v>
+      </c>
+      <c r="G43" s="26">
+        <v>0</v>
+      </c>
+      <c r="H43" s="26">
+        <v>2</v>
+      </c>
+      <c r="I43" s="26">
+        <v>100</v>
+      </c>
+      <c r="J43" s="26">
+        <v>0</v>
+      </c>
+      <c r="K43" s="26">
+        <v>0</v>
+      </c>
+      <c r="L43" s="26">
+        <v>0</v>
+      </c>
+      <c r="M43" s="26">
+        <v>0</v>
+      </c>
+      <c r="N43" s="26">
+        <v>1</v>
+      </c>
+      <c r="O43" s="26">
+        <v>5</v>
+      </c>
+      <c r="P43" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>0</v>
+      </c>
+      <c r="R43" s="26">
+        <v>2</v>
+      </c>
+      <c r="S43" s="26">
+        <v>100</v>
+      </c>
+      <c r="T43" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="U43" s="26">
+        <v>400</v>
+      </c>
+      <c r="V43" s="26" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="163" t="s">
+        <v>205</v>
+      </c>
+      <c r="B44" s="26">
+        <v>1601</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1</v>
+      </c>
+      <c r="E44" s="26">
+        <v>0</v>
+      </c>
+      <c r="F44" s="26">
+        <v>0</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
+        <v>0</v>
+      </c>
+      <c r="I44" s="26">
+        <v>0</v>
+      </c>
+      <c r="J44" s="26">
+        <v>8</v>
+      </c>
+      <c r="K44" s="26">
+        <v>0</v>
+      </c>
+      <c r="L44" s="26">
+        <v>2</v>
+      </c>
+      <c r="M44" s="26">
+        <v>4</v>
+      </c>
+      <c r="N44" s="26">
+        <v>0</v>
+      </c>
+      <c r="O44" s="26">
+        <v>0</v>
+      </c>
+      <c r="P44" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>0</v>
+      </c>
+      <c r="R44" s="26">
+        <v>2</v>
+      </c>
+      <c r="S44" s="26">
+        <v>0</v>
+      </c>
+      <c r="T44" s="26">
+        <v>0</v>
+      </c>
+      <c r="U44" s="26">
+        <v>0</v>
+      </c>
+      <c r="V44" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A45" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" s="26">
+        <v>1602</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1</v>
+      </c>
+      <c r="E45" s="26">
+        <v>0</v>
+      </c>
+      <c r="F45" s="26">
+        <v>0</v>
+      </c>
+      <c r="G45" s="26">
+        <v>0</v>
+      </c>
+      <c r="H45" s="26">
+        <v>0</v>
+      </c>
+      <c r="I45" s="26">
+        <v>0</v>
+      </c>
+      <c r="J45" s="26">
+        <v>23</v>
+      </c>
+      <c r="K45" s="26">
+        <v>0</v>
+      </c>
+      <c r="L45" s="26">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26">
+        <v>4</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <v>0</v>
+      </c>
+      <c r="P45" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>0</v>
+      </c>
+      <c r="R45" s="26">
+        <v>3</v>
+      </c>
+      <c r="S45" s="26">
+        <v>299</v>
+      </c>
+      <c r="T45" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U45" s="26">
+        <v>0</v>
+      </c>
+      <c r="V45" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A46" s="163" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="26">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A47" s="163" t="s">
+        <v>208</v>
+      </c>
+      <c r="B47" s="26">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A48" s="163" t="s">
+        <v>209</v>
+      </c>
+      <c r="B48" s="26">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A49" s="163" t="s">
+        <v>210</v>
+      </c>
+      <c r="B49" s="26">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A50" s="163" t="s">
+        <v>211</v>
+      </c>
+      <c r="B50" s="26">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A51" s="163" t="s">
+        <v>212</v>
+      </c>
+      <c r="B51" s="26">
+        <v>1700</v>
+      </c>
+      <c r="D51" s="26">
+        <v>1</v>
+      </c>
+      <c r="E51" s="26">
+        <v>0</v>
+      </c>
+      <c r="F51" s="26">
+        <v>0</v>
+      </c>
+      <c r="G51" s="26">
+        <v>0</v>
+      </c>
+      <c r="H51" s="26">
+        <v>2</v>
+      </c>
+      <c r="I51" s="26">
+        <v>100</v>
+      </c>
+      <c r="J51" s="26">
+        <v>0</v>
+      </c>
+      <c r="K51" s="26">
+        <v>0</v>
+      </c>
+      <c r="L51" s="26">
+        <v>0</v>
+      </c>
+      <c r="M51" s="26">
+        <v>0</v>
+      </c>
+      <c r="N51" s="26">
+        <v>1</v>
+      </c>
+      <c r="O51" s="26">
+        <v>3</v>
+      </c>
+      <c r="P51" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q51" s="26">
+        <v>0</v>
+      </c>
+      <c r="R51" s="26">
+        <v>2</v>
+      </c>
+      <c r="S51" s="26">
+        <v>100</v>
+      </c>
+      <c r="T51" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="U51" s="26">
+        <v>0</v>
+      </c>
+      <c r="V51" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A52" s="163" t="s">
+        <v>213</v>
+      </c>
+      <c r="B52" s="26">
+        <v>1701</v>
+      </c>
+      <c r="D52" s="26">
+        <v>1</v>
+      </c>
+      <c r="E52" s="26">
+        <v>0</v>
+      </c>
+      <c r="F52" s="26">
+        <v>0</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
+      <c r="I52" s="26">
+        <v>0</v>
+      </c>
+      <c r="J52" s="26">
+        <v>8</v>
+      </c>
+      <c r="K52" s="26">
+        <v>0</v>
+      </c>
+      <c r="L52" s="26">
+        <v>2</v>
+      </c>
+      <c r="M52" s="26">
+        <v>4</v>
+      </c>
+      <c r="N52" s="26">
+        <v>0</v>
+      </c>
+      <c r="O52" s="26">
+        <v>0</v>
+      </c>
+      <c r="P52" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="26">
+        <v>0</v>
+      </c>
+      <c r="R52" s="26">
+        <v>2</v>
+      </c>
+      <c r="S52" s="26">
+        <v>0</v>
+      </c>
+      <c r="T52" s="26">
+        <v>0</v>
+      </c>
+      <c r="U52" s="26">
+        <v>0</v>
+      </c>
+      <c r="V52" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A53" s="163" t="s">
+        <v>214</v>
+      </c>
+      <c r="B53" s="26">
+        <v>1702</v>
+      </c>
+      <c r="D53" s="26">
+        <v>1</v>
+      </c>
+      <c r="E53" s="26">
+        <v>0</v>
+      </c>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
+      <c r="I53" s="26">
+        <v>0</v>
+      </c>
+      <c r="J53" s="26">
+        <v>23</v>
+      </c>
+      <c r="K53" s="26">
+        <v>0</v>
+      </c>
+      <c r="L53" s="26">
+        <v>2</v>
+      </c>
+      <c r="M53" s="26">
+        <v>4</v>
+      </c>
+      <c r="N53" s="26">
+        <v>0</v>
+      </c>
+      <c r="O53" s="26">
+        <v>0</v>
+      </c>
+      <c r="P53" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="26">
+        <v>0</v>
+      </c>
+      <c r="R53" s="26">
+        <v>3</v>
+      </c>
+      <c r="S53" s="26">
+        <v>299</v>
+      </c>
+      <c r="T53" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U53" s="26">
+        <v>0</v>
+      </c>
+      <c r="V53" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A54" s="163" t="s">
+        <v>215</v>
+      </c>
+      <c r="B54" s="26">
+        <v>1703</v>
+      </c>
+      <c r="D54" s="26">
+        <v>4</v>
+      </c>
+      <c r="E54" s="26">
+        <v>0</v>
+      </c>
+      <c r="F54" s="26">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+      <c r="J54" s="26">
+        <v>0</v>
+      </c>
+      <c r="K54" s="26">
+        <v>0</v>
+      </c>
+      <c r="L54" s="26">
+        <v>0</v>
+      </c>
+      <c r="M54" s="26">
+        <v>0</v>
+      </c>
+      <c r="N54" s="26">
+        <v>1</v>
+      </c>
+      <c r="O54" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="P54" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="Q54" s="26">
+        <v>0</v>
+      </c>
+      <c r="R54" s="26">
+        <v>0</v>
+      </c>
+      <c r="S54" s="26">
+        <v>100</v>
+      </c>
+      <c r="T54" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="U54" s="26">
+        <v>0</v>
+      </c>
+      <c r="V54" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A55" s="163" t="s">
+        <v>216</v>
+      </c>
+      <c r="B55" s="26">
+        <v>1710</v>
+      </c>
+      <c r="D55" s="26">
+        <v>1</v>
+      </c>
+      <c r="E55" s="26">
+        <v>0</v>
+      </c>
+      <c r="F55" s="26">
+        <v>0</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26">
+        <v>0</v>
+      </c>
+      <c r="I55" s="26">
+        <v>15</v>
+      </c>
+      <c r="J55" s="26">
+        <v>5</v>
+      </c>
+      <c r="K55" s="26">
+        <v>0</v>
+      </c>
+      <c r="L55" s="26">
+        <v>0</v>
+      </c>
+      <c r="M55" s="26">
+        <v>0</v>
+      </c>
+      <c r="N55" s="26">
+        <v>1</v>
+      </c>
+      <c r="O55" s="26">
+        <v>2</v>
+      </c>
+      <c r="P55" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q55" s="26">
+        <v>0</v>
+      </c>
+      <c r="R55" s="26">
+        <v>0</v>
+      </c>
+      <c r="S55" s="26">
+        <v>100</v>
+      </c>
+      <c r="T55" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="U55" s="26">
+        <v>0</v>
+      </c>
+      <c r="V55" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A56" s="163" t="s">
+        <v>217</v>
+      </c>
+      <c r="B56" s="26">
+        <v>1720</v>
+      </c>
+      <c r="D56" s="26">
+        <v>1</v>
+      </c>
+      <c r="E56" s="26">
+        <v>0</v>
+      </c>
+      <c r="F56" s="26">
+        <v>0</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26">
+        <v>0</v>
+      </c>
+      <c r="I56" s="26">
+        <v>30</v>
+      </c>
+      <c r="J56" s="26">
+        <v>8</v>
+      </c>
+      <c r="K56" s="26">
+        <v>0</v>
+      </c>
+      <c r="L56" s="26">
+        <v>0</v>
+      </c>
+      <c r="M56" s="26">
+        <v>0</v>
+      </c>
+      <c r="N56" s="26">
+        <v>1</v>
+      </c>
+      <c r="O56" s="26">
+        <v>4</v>
+      </c>
+      <c r="P56" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q56" s="26">
+        <v>0</v>
+      </c>
+      <c r="R56" s="26">
+        <v>0</v>
+      </c>
+      <c r="S56" s="26">
+        <v>100</v>
+      </c>
+      <c r="T56" s="26" t="s">
+        <v>222</v>
+      </c>
+      <c r="U56" s="26">
+        <v>0</v>
+      </c>
+      <c r="V56" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A57" s="163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="26">
+        <v>1730</v>
+      </c>
+      <c r="D57" s="26">
+        <v>1</v>
+      </c>
+      <c r="E57" s="26">
+        <v>0</v>
+      </c>
+      <c r="F57" s="26">
+        <v>0</v>
+      </c>
+      <c r="G57" s="26">
+        <v>0</v>
+      </c>
+      <c r="H57" s="26">
+        <v>0</v>
+      </c>
+      <c r="I57" s="26">
+        <v>40</v>
+      </c>
+      <c r="J57" s="26">
+        <v>10</v>
+      </c>
+      <c r="K57" s="26">
+        <v>0</v>
+      </c>
+      <c r="L57" s="26">
+        <v>1</v>
+      </c>
+      <c r="M57" s="26">
+        <v>4</v>
+      </c>
+      <c r="N57" s="26">
+        <v>1</v>
+      </c>
+      <c r="O57" s="26">
+        <v>3</v>
+      </c>
+      <c r="P57" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q57" s="26">
+        <v>1</v>
+      </c>
+      <c r="R57" s="26">
+        <v>1</v>
+      </c>
+      <c r="S57" s="26">
+        <v>100</v>
+      </c>
+      <c r="T57" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="U57" s="26">
+        <v>0</v>
+      </c>
+      <c r="V57" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A58" s="163" t="s">
+        <v>219</v>
+      </c>
+      <c r="B58" s="26">
+        <v>1740</v>
+      </c>
+      <c r="D58" s="26">
+        <v>1</v>
+      </c>
+      <c r="E58" s="26">
+        <v>0</v>
+      </c>
+      <c r="F58" s="26">
+        <v>0</v>
+      </c>
+      <c r="G58" s="26">
+        <v>0</v>
+      </c>
+      <c r="H58" s="26">
+        <v>0</v>
+      </c>
+      <c r="I58" s="26">
+        <v>80</v>
+      </c>
+      <c r="J58" s="26">
+        <v>25</v>
+      </c>
+      <c r="K58" s="26">
+        <v>0</v>
+      </c>
+      <c r="L58" s="26">
+        <v>0</v>
+      </c>
+      <c r="M58" s="26">
+        <v>0</v>
+      </c>
+      <c r="N58" s="26">
+        <v>0</v>
+      </c>
+      <c r="O58" s="26">
+        <v>10</v>
+      </c>
+      <c r="P58" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q58" s="26">
+        <v>0</v>
+      </c>
+      <c r="R58" s="26">
+        <v>2</v>
+      </c>
+      <c r="S58" s="26">
+        <v>100</v>
+      </c>
+      <c r="T58" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="U58" s="26">
+        <v>311</v>
+      </c>
+      <c r="V58" s="26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A59" s="163" t="s">
+        <v>225</v>
+      </c>
+      <c r="B59" s="26">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A60" s="163" t="s">
+        <v>226</v>
+      </c>
+      <c r="B60" s="26">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A61" s="163" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="26">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A62" s="163" t="s">
+        <v>228</v>
+      </c>
+      <c r="B62" s="26">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A63" s="163" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" s="26">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="163" t="s">
+        <v>230</v>
+      </c>
+      <c r="B64" s="26">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="163" t="s">
+        <v>231</v>
+      </c>
+      <c r="B65" s="26">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="163" t="s">
+        <v>232</v>
+      </c>
+      <c r="B66" s="26">
+        <v>1840</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A35A5E1-8921-4183-A218-6B05B849C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE21EC-E47A-48FE-80ED-23A66099F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6975" yWindow="5535" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="435" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -860,7 +860,8 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>)</t>
+          <t xml:space="preserve">)
+04: </t>
         </r>
         <r>
           <rPr>
@@ -870,7 +871,65 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
+          <t>강화</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>일반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t xml:space="preserve">
+05: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">패시브
 </t>
         </r>
         <r>
@@ -1964,7 +2023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="259">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2939,10 +2998,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[80/10]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[500/1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2999,10 +3054,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[800/1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>곰방대 스위칭 스킬</t>
   </si>
   <si>
@@ -3051,10 +3102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[250/1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[200/1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3063,10 +3110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[70/5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>너클 스위칭 스킬</t>
   </si>
   <si>
@@ -3171,10 +3214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[200/2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장궁 스위칭 스킬</t>
   </si>
   <si>
@@ -3197,6 +3236,114 @@
   </si>
   <si>
     <t>장궁 4번 스킬</t>
+  </si>
+  <si>
+    <t>[95/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[25/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장궁 패시브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[45/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[60/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[650/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120/5]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[550/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[400/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/10]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[180/4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석궁 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>석궁 이동기</t>
+  </si>
+  <si>
+    <t>석궁 기상기</t>
+  </si>
+  <si>
+    <t>석궁 일반공격</t>
+  </si>
+  <si>
+    <t>석궁 1번 스킬</t>
+  </si>
+  <si>
+    <t>석궁 2번 스킬</t>
+  </si>
+  <si>
+    <t>석궁 3번 스킬</t>
+  </si>
+  <si>
+    <t>석궁 4번 스킬</t>
+  </si>
+  <si>
+    <t>마법서 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>마법서 이동기</t>
+  </si>
+  <si>
+    <t>마법서 기상기</t>
+  </si>
+  <si>
+    <t>마법서 일반공격</t>
+  </si>
+  <si>
+    <t>마법서 1번 스킬</t>
+  </si>
+  <si>
+    <t>마법서 2번 스킬</t>
+  </si>
+  <si>
+    <t>마법서 3번 스킬</t>
+  </si>
+  <si>
+    <t>마법서 4번 스킬</t>
+  </si>
+  <si>
+    <t>마법서 강화 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4406,168 +4553,177 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4619,127 +4775,118 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5179,7 +5326,7 @@
   <dimension ref="B2:O57"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:O54"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5209,13 +5356,13 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="73"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="7">
@@ -5230,19 +5377,19 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="133" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="92" t="s">
+      <c r="K4" s="135" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5259,11 +5406,11 @@
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="91"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="93"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="136"/>
     </row>
     <row r="6" spans="2:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="10">
@@ -5278,13 +5425,13 @@
       <c r="E6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="106" t="s">
+      <c r="G6" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="111"/>
     </row>
     <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B7" s="10">
@@ -5647,32 +5794,32 @@
     </row>
     <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="126" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="G32" s="109" t="s">
+      <c r="C32" s="128"/>
+      <c r="G32" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="110"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="112" t="s">
+      <c r="H32" s="113"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="113"/>
-      <c r="L32" s="113"/>
-      <c r="M32" s="113"/>
-      <c r="N32" s="113"/>
-      <c r="O32" s="114"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="116"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="117"/>
     </row>
     <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="83" t="s">
+      <c r="C33" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="84"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
@@ -5682,24 +5829,24 @@
       <c r="H33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="115" t="s">
+      <c r="I33" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="117"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="120"/>
     </row>
     <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="61" t="s">
+      <c r="C34" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="147"/>
       <c r="E34" s="23"/>
       <c r="G34" s="39">
         <v>0</v>
@@ -5707,20 +5854,20 @@
       <c r="H34" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="118" t="s">
+      <c r="I34" s="121" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="120"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="122"/>
+      <c r="O34" s="123"/>
     </row>
     <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="154"/>
+      <c r="D35" s="155"/>
       <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
@@ -5731,20 +5878,20 @@
       <c r="H35" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="121" t="s">
+      <c r="I35" s="124" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="121"/>
-      <c r="K35" s="121"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="121"/>
-      <c r="N35" s="121"/>
-      <c r="O35" s="122"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="124"/>
+      <c r="L35" s="124"/>
+      <c r="M35" s="124"/>
+      <c r="N35" s="124"/>
+      <c r="O35" s="125"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
+      <c r="B36" s="156"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="158"/>
       <c r="E36" s="19" t="s">
         <v>44</v>
       </c>
@@ -5755,293 +5902,293 @@
       <c r="H36" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="129" t="s">
+      <c r="I36" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="130"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="130"/>
-      <c r="M36" s="130"/>
-      <c r="N36" s="130"/>
-      <c r="O36" s="131"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="88"/>
     </row>
     <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
+      <c r="B37" s="156"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="158"/>
       <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="95"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="132" t="s">
+      <c r="J37" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="133"/>
-      <c r="L37" s="133"/>
-      <c r="M37" s="133"/>
-      <c r="N37" s="133"/>
-      <c r="O37" s="134"/>
+      <c r="K37" s="90"/>
+      <c r="L37" s="90"/>
+      <c r="M37" s="90"/>
+      <c r="N37" s="90"/>
+      <c r="O37" s="91"/>
     </row>
     <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79"/>
+      <c r="B38" s="156"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="104">
+      <c r="G38" s="72">
         <v>3</v>
       </c>
-      <c r="H38" s="102" t="s">
+      <c r="H38" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="96" t="s">
+      <c r="I38" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
-      <c r="M38" s="97"/>
-      <c r="N38" s="97"/>
-      <c r="O38" s="98"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="102"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79"/>
+      <c r="B39" s="156"/>
+      <c r="C39" s="157"/>
+      <c r="D39" s="158"/>
       <c r="E39" s="20"/>
-      <c r="G39" s="105"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="101"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="108"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="105"/>
+      <c r="L39" s="105"/>
+      <c r="M39" s="105"/>
+      <c r="N39" s="105"/>
+      <c r="O39" s="106"/>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79"/>
+      <c r="B40" s="156"/>
+      <c r="C40" s="157"/>
+      <c r="D40" s="158"/>
       <c r="E40" s="20"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="65"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="62"/>
       <c r="I40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="123" t="s">
+      <c r="J40" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
-      <c r="O40" s="125"/>
+      <c r="K40" s="81"/>
+      <c r="L40" s="81"/>
+      <c r="M40" s="81"/>
+      <c r="N40" s="81"/>
+      <c r="O40" s="82"/>
     </row>
     <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
-      <c r="D41" s="82"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="161"/>
       <c r="E41" s="20"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="71"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="64"/>
       <c r="I41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="126" t="s">
+      <c r="J41" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="128"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="85"/>
     </row>
     <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="62"/>
+      <c r="D42" s="147"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="157">
+      <c r="G42" s="65">
         <v>4</v>
       </c>
-      <c r="H42" s="159" t="s">
+      <c r="H42" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="137" t="s">
+      <c r="I42" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
-      <c r="L42" s="138"/>
-      <c r="M42" s="138"/>
-      <c r="N42" s="138"/>
-      <c r="O42" s="139"/>
+      <c r="J42" s="95"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="95"/>
+      <c r="N42" s="95"/>
+      <c r="O42" s="96"/>
     </row>
     <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="54"/>
+      <c r="B43" s="137"/>
+      <c r="C43" s="138"/>
+      <c r="D43" s="139"/>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="158"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="140"/>
-      <c r="K43" s="140"/>
-      <c r="L43" s="140"/>
-      <c r="M43" s="140"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="141"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="68"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="98"/>
     </row>
     <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="55"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="57"/>
+      <c r="B44" s="140"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="142"/>
       <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="94"/>
-      <c r="H44" s="95"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="142" t="s">
+      <c r="J44" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="142"/>
-      <c r="L44" s="142"/>
-      <c r="M44" s="142"/>
-      <c r="N44" s="142"/>
-      <c r="O44" s="143"/>
+      <c r="K44" s="99"/>
+      <c r="L44" s="99"/>
+      <c r="M44" s="99"/>
+      <c r="N44" s="99"/>
+      <c r="O44" s="100"/>
     </row>
     <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="142"/>
       <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="104">
+      <c r="G45" s="72">
         <v>5</v>
       </c>
-      <c r="H45" s="102" t="s">
+      <c r="H45" s="69" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="97" t="s">
+      <c r="I45" s="101" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="98"/>
+      <c r="J45" s="101"/>
+      <c r="K45" s="101"/>
+      <c r="L45" s="101"/>
+      <c r="M45" s="101"/>
+      <c r="N45" s="101"/>
+      <c r="O45" s="102"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="55"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
+      <c r="B46" s="140"/>
+      <c r="C46" s="141"/>
+      <c r="D46" s="142"/>
       <c r="E46" s="20"/>
-      <c r="G46" s="162"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="144"/>
-      <c r="J46" s="144"/>
-      <c r="K46" s="144"/>
-      <c r="L46" s="144"/>
-      <c r="M46" s="144"/>
-      <c r="N46" s="144"/>
-      <c r="O46" s="145"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="103"/>
+      <c r="N46" s="103"/>
+      <c r="O46" s="104"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="55"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
+      <c r="B47" s="140"/>
+      <c r="C47" s="141"/>
+      <c r="D47" s="142"/>
       <c r="E47" s="20"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="103"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="100"/>
-      <c r="M47" s="100"/>
-      <c r="N47" s="100"/>
-      <c r="O47" s="101"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="105"/>
+      <c r="L47" s="105"/>
+      <c r="M47" s="105"/>
+      <c r="N47" s="105"/>
+      <c r="O47" s="106"/>
     </row>
     <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="55"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="57"/>
+      <c r="B48" s="140"/>
+      <c r="C48" s="141"/>
+      <c r="D48" s="142"/>
       <c r="E48" s="20"/>
-      <c r="G48" s="151"/>
-      <c r="H48" s="152"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="54"/>
       <c r="I48" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="123" t="s">
+      <c r="J48" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
-      <c r="O48" s="125"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="82"/>
     </row>
     <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
       <c r="E49" s="21"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="154"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="56"/>
       <c r="I49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="123" t="s">
+      <c r="J49" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
-      <c r="O49" s="125"/>
+      <c r="K49" s="81"/>
+      <c r="L49" s="81"/>
+      <c r="M49" s="81"/>
+      <c r="N49" s="81"/>
+      <c r="O49" s="82"/>
     </row>
     <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="146" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="62"/>
+      <c r="D50" s="147"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="156"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="58"/>
       <c r="I50" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="132" t="s">
+      <c r="J50" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="K50" s="133"/>
-      <c r="L50" s="133"/>
-      <c r="M50" s="133"/>
-      <c r="N50" s="133"/>
-      <c r="O50" s="134"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="90"/>
+      <c r="M50" s="90"/>
+      <c r="N50" s="90"/>
+      <c r="O50" s="91"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="63"/>
-      <c r="C51" s="64"/>
-      <c r="D51" s="65"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="62"/>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
@@ -6051,41 +6198,41 @@
       <c r="H51" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="148" t="s">
+      <c r="I51" s="77" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="149"/>
-      <c r="K51" s="149"/>
-      <c r="L51" s="149"/>
-      <c r="M51" s="149"/>
-      <c r="N51" s="149"/>
-      <c r="O51" s="150"/>
+      <c r="J51" s="78"/>
+      <c r="K51" s="78"/>
+      <c r="L51" s="78"/>
+      <c r="M51" s="78"/>
+      <c r="N51" s="78"/>
+      <c r="O51" s="79"/>
     </row>
     <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="151"/>
-      <c r="H52" s="152"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="54"/>
       <c r="I52" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="135" t="s">
+      <c r="J52" s="92" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="135"/>
-      <c r="L52" s="135"/>
-      <c r="M52" s="135"/>
-      <c r="N52" s="135"/>
-      <c r="O52" s="136"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
+      <c r="M52" s="92"/>
+      <c r="N52" s="92"/>
+      <c r="O52" s="93"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="151"/>
       <c r="E53" s="19" t="s">
         <v>65</v>
       </c>
@@ -6095,67 +6242,79 @@
       <c r="H53" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="148" t="s">
+      <c r="I53" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="149"/>
-      <c r="K53" s="149"/>
-      <c r="L53" s="149"/>
-      <c r="M53" s="149"/>
-      <c r="N53" s="149"/>
-      <c r="O53" s="150"/>
+      <c r="J53" s="78"/>
+      <c r="K53" s="78"/>
+      <c r="L53" s="78"/>
+      <c r="M53" s="78"/>
+      <c r="N53" s="78"/>
+      <c r="O53" s="79"/>
     </row>
     <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="151"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="94"/>
-      <c r="H54" s="95"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="60"/>
       <c r="I54" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="146" t="s">
+      <c r="J54" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="147"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
+      <c r="M54" s="75"/>
+      <c r="N54" s="75"/>
+      <c r="O54" s="76"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
+      <c r="B55" s="149"/>
+      <c r="C55" s="150"/>
+      <c r="D55" s="151"/>
       <c r="E55" s="20"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
+      <c r="B56" s="149"/>
+      <c r="C56" s="150"/>
+      <c r="D56" s="151"/>
       <c r="E56" s="20"/>
     </row>
     <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="71"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="152"/>
+      <c r="D57" s="64"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
     <mergeCell ref="J40:O40"/>
     <mergeCell ref="J41:O41"/>
     <mergeCell ref="I36:O36"/>
@@ -6167,30 +6326,18 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="I45:O47"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I38:O39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6202,18 +6349,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="163" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="52" customWidth="1"/>
     <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
     <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" bestFit="1" customWidth="1"/>
@@ -6319,7 +6466,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="52" t="s">
         <v>67</v>
       </c>
       <c r="B2" s="26">
@@ -6384,7 +6531,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="163" t="s">
+      <c r="A3" s="52" t="s">
         <v>134</v>
       </c>
       <c r="B3" s="26">
@@ -6449,7 +6596,7 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="52" t="s">
         <v>135</v>
       </c>
       <c r="B4" s="26">
@@ -6514,7 +6661,7 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="52" t="s">
         <v>141</v>
       </c>
       <c r="B5" s="26">
@@ -6579,7 +6726,7 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="163" t="s">
+      <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="26">
@@ -6644,7 +6791,7 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="163" t="s">
+      <c r="A7" s="52" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="26">
@@ -6709,7 +6856,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="52" t="s">
         <v>136</v>
       </c>
       <c r="B8" s="26">
@@ -6774,7 +6921,7 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="163" t="s">
+      <c r="A9" s="52" t="s">
         <v>137</v>
       </c>
       <c r="B9" s="26">
@@ -6839,7 +6986,7 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="163" t="s">
+      <c r="A10" s="52" t="s">
         <v>142</v>
       </c>
       <c r="B10" s="26">
@@ -6904,7 +7051,7 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="163" t="s">
+      <c r="A11" s="52" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="26">
@@ -6969,7 +7116,7 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="163" t="s">
+      <c r="A12" s="52" t="s">
         <v>75</v>
       </c>
       <c r="B12" s="26">
@@ -7034,7 +7181,7 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="52" t="s">
         <v>71</v>
       </c>
       <c r="B13" s="26">
@@ -7099,7 +7246,7 @@
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="52" t="s">
         <v>74</v>
       </c>
       <c r="B14" s="26">
@@ -7164,7 +7311,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="163" t="s">
+      <c r="A15" s="52" t="s">
         <v>72</v>
       </c>
       <c r="B15" s="26">
@@ -7229,7 +7376,7 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="163" t="s">
+      <c r="A16" s="52" t="s">
         <v>76</v>
       </c>
       <c r="B16" s="26">
@@ -7294,7 +7441,7 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="163" t="s">
+      <c r="A17" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B17" s="26">
@@ -7359,7 +7506,7 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="52" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="26">
@@ -7414,18 +7561,18 @@
         <v>101</v>
       </c>
       <c r="T18" s="26" t="s">
-        <v>156</v>
+        <v>235</v>
       </c>
       <c r="U18" s="26">
         <v>100</v>
       </c>
       <c r="V18" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="52" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="163" t="s">
-        <v>158</v>
       </c>
       <c r="B19" s="26">
         <v>1300</v>
@@ -7479,18 +7626,18 @@
         <v>100</v>
       </c>
       <c r="T19" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U19" s="26">
         <v>204</v>
       </c>
       <c r="V19" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="163" t="s">
-        <v>159</v>
+      <c r="A20" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="B20" s="26">
         <v>1301</v>
@@ -7554,8 +7701,8 @@
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="163" t="s">
-        <v>160</v>
+      <c r="A21" s="52" t="s">
+        <v>159</v>
       </c>
       <c r="B21" s="26">
         <v>1302</v>
@@ -7619,8 +7766,8 @@
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="163" t="s">
-        <v>161</v>
+      <c r="A22" s="52" t="s">
+        <v>160</v>
       </c>
       <c r="B22" s="26">
         <v>1303</v>
@@ -7674,7 +7821,7 @@
         <v>100</v>
       </c>
       <c r="T22" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="U22" s="26">
         <v>0</v>
@@ -7684,8 +7831,8 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="163" t="s">
-        <v>162</v>
+      <c r="A23" s="52" t="s">
+        <v>161</v>
       </c>
       <c r="B23" s="26">
         <v>1310</v>
@@ -7739,7 +7886,7 @@
         <v>100</v>
       </c>
       <c r="T23" s="26" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="U23" s="26">
         <v>0</v>
@@ -7749,8 +7896,8 @@
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
-        <v>163</v>
+      <c r="A24" s="52" t="s">
+        <v>162</v>
       </c>
       <c r="B24" s="26">
         <v>1320</v>
@@ -7804,7 +7951,7 @@
         <v>100</v>
       </c>
       <c r="T24" s="26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="U24" s="26">
         <v>204</v>
@@ -7814,8 +7961,8 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="163" t="s">
-        <v>164</v>
+      <c r="A25" s="52" t="s">
+        <v>163</v>
       </c>
       <c r="B25" s="26">
         <v>1330</v>
@@ -7869,18 +8016,18 @@
         <v>100</v>
       </c>
       <c r="T25" s="26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U25" s="26">
         <v>299</v>
       </c>
       <c r="V25" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="163" t="s">
-        <v>165</v>
+      <c r="A26" s="52" t="s">
+        <v>164</v>
       </c>
       <c r="B26" s="26">
         <v>1340</v>
@@ -7934,7 +8081,7 @@
         <v>100</v>
       </c>
       <c r="T26" s="26" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="U26" s="26">
         <v>0</v>
@@ -7944,8 +8091,8 @@
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
-        <v>174</v>
+      <c r="A27" s="52" t="s">
+        <v>172</v>
       </c>
       <c r="B27" s="26">
         <v>1400</v>
@@ -7999,18 +8146,18 @@
         <v>100</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U27" s="26">
         <v>210</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A28" s="163" t="s">
-        <v>175</v>
+      <c r="A28" s="52" t="s">
+        <v>173</v>
       </c>
       <c r="B28" s="26">
         <v>1401</v>
@@ -8074,8 +8221,8 @@
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A29" s="163" t="s">
-        <v>176</v>
+      <c r="A29" s="52" t="s">
+        <v>174</v>
       </c>
       <c r="B29" s="26">
         <v>1402</v>
@@ -8139,8 +8286,8 @@
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A30" s="163" t="s">
-        <v>177</v>
+      <c r="A30" s="52" t="s">
+        <v>175</v>
       </c>
       <c r="B30" s="26">
         <v>1403</v>
@@ -8194,7 +8341,7 @@
         <v>100</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="U30" s="26">
         <v>0</v>
@@ -8204,8 +8351,8 @@
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A31" s="163" t="s">
-        <v>178</v>
+      <c r="A31" s="52" t="s">
+        <v>176</v>
       </c>
       <c r="B31" s="26">
         <v>1410</v>
@@ -8269,8 +8416,8 @@
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
-        <v>179</v>
+      <c r="A32" s="52" t="s">
+        <v>177</v>
       </c>
       <c r="B32" s="26">
         <v>1420</v>
@@ -8324,18 +8471,18 @@
         <v>100</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="U32" s="26">
         <v>211</v>
       </c>
       <c r="V32" s="26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="163" t="s">
-        <v>180</v>
+      <c r="A33" s="52" t="s">
+        <v>178</v>
       </c>
       <c r="B33" s="26">
         <v>1430</v>
@@ -8389,24 +8536,24 @@
         <v>100</v>
       </c>
       <c r="T33" s="26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U33" s="26">
         <v>210</v>
       </c>
       <c r="V33" s="26" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="163" t="s">
-        <v>181</v>
+      <c r="A34" s="52" t="s">
+        <v>179</v>
       </c>
       <c r="B34" s="26">
         <v>1440</v>
       </c>
       <c r="D34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="26">
         <v>0</v>
@@ -8454,7 +8601,7 @@
         <v>100</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="U34" s="26">
         <v>0</v>
@@ -8464,8 +8611,8 @@
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
-        <v>192</v>
+      <c r="A35" s="52" t="s">
+        <v>188</v>
       </c>
       <c r="B35" s="26">
         <v>1500</v>
@@ -8529,8 +8676,8 @@
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="163" t="s">
-        <v>193</v>
+      <c r="A36" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="B36" s="26">
         <v>1501</v>
@@ -8594,8 +8741,8 @@
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="163" t="s">
-        <v>194</v>
+      <c r="A37" s="52" t="s">
+        <v>190</v>
       </c>
       <c r="B37" s="26">
         <v>1502</v>
@@ -8659,8 +8806,8 @@
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="163" t="s">
-        <v>195</v>
+      <c r="A38" s="52" t="s">
+        <v>191</v>
       </c>
       <c r="B38" s="26">
         <v>1503</v>
@@ -8714,7 +8861,7 @@
         <v>100</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="U38" s="26">
         <v>0</v>
@@ -8724,8 +8871,8 @@
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="163" t="s">
-        <v>196</v>
+      <c r="A39" s="52" t="s">
+        <v>192</v>
       </c>
       <c r="B39" s="26">
         <v>1510</v>
@@ -8779,7 +8926,7 @@
         <v>100</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="U39" s="26">
         <v>0</v>
@@ -8789,8 +8936,8 @@
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A40" s="163" t="s">
-        <v>197</v>
+      <c r="A40" s="52" t="s">
+        <v>193</v>
       </c>
       <c r="B40" s="26">
         <v>1520</v>
@@ -8844,7 +8991,7 @@
         <v>100</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U40" s="26">
         <v>0</v>
@@ -8854,8 +9001,8 @@
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A41" s="163" t="s">
-        <v>198</v>
+      <c r="A41" s="52" t="s">
+        <v>194</v>
       </c>
       <c r="B41" s="26">
         <v>1530</v>
@@ -8909,18 +9056,18 @@
         <v>100</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U41" s="26">
         <v>420</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A42" s="163" t="s">
-        <v>199</v>
+      <c r="A42" s="52" t="s">
+        <v>195</v>
       </c>
       <c r="B42" s="26">
         <v>1540</v>
@@ -8974,7 +9121,7 @@
         <v>100</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>188</v>
+        <v>238</v>
       </c>
       <c r="U42" s="26">
         <v>0</v>
@@ -8984,8 +9131,8 @@
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A43" s="163" t="s">
-        <v>204</v>
+      <c r="A43" s="52" t="s">
+        <v>200</v>
       </c>
       <c r="B43" s="26">
         <v>1600</v>
@@ -9039,18 +9186,18 @@
         <v>100</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="U43" s="26">
         <v>400</v>
       </c>
       <c r="V43" s="26" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A44" s="163" t="s">
-        <v>205</v>
+      <c r="A44" s="52" t="s">
+        <v>201</v>
       </c>
       <c r="B44" s="26">
         <v>1601</v>
@@ -9114,8 +9261,8 @@
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A45" s="163" t="s">
-        <v>206</v>
+      <c r="A45" s="52" t="s">
+        <v>202</v>
       </c>
       <c r="B45" s="26">
         <v>1602</v>
@@ -9179,48 +9326,48 @@
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A46" s="163" t="s">
-        <v>207</v>
+      <c r="A46" s="52" t="s">
+        <v>203</v>
       </c>
       <c r="B46" s="26">
         <v>1603</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A47" s="163" t="s">
-        <v>208</v>
+      <c r="A47" s="52" t="s">
+        <v>204</v>
       </c>
       <c r="B47" s="26">
         <v>1610</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A48" s="163" t="s">
-        <v>209</v>
+      <c r="A48" s="52" t="s">
+        <v>205</v>
       </c>
       <c r="B48" s="26">
         <v>1620</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A49" s="163" t="s">
-        <v>210</v>
+      <c r="A49" s="52" t="s">
+        <v>206</v>
       </c>
       <c r="B49" s="26">
         <v>1630</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A50" s="163" t="s">
-        <v>211</v>
+      <c r="A50" s="52" t="s">
+        <v>207</v>
       </c>
       <c r="B50" s="26">
         <v>1640</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A51" s="163" t="s">
-        <v>212</v>
+      <c r="A51" s="52" t="s">
+        <v>208</v>
       </c>
       <c r="B51" s="26">
         <v>1700</v>
@@ -9274,7 +9421,7 @@
         <v>100</v>
       </c>
       <c r="T51" s="26" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="U51" s="26">
         <v>0</v>
@@ -9284,8 +9431,8 @@
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A52" s="163" t="s">
-        <v>213</v>
+      <c r="A52" s="52" t="s">
+        <v>209</v>
       </c>
       <c r="B52" s="26">
         <v>1701</v>
@@ -9349,8 +9496,8 @@
       </c>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A53" s="163" t="s">
-        <v>214</v>
+      <c r="A53" s="52" t="s">
+        <v>210</v>
       </c>
       <c r="B53" s="26">
         <v>1702</v>
@@ -9414,8 +9561,8 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A54" s="163" t="s">
-        <v>215</v>
+      <c r="A54" s="52" t="s">
+        <v>211</v>
       </c>
       <c r="B54" s="26">
         <v>1703</v>
@@ -9469,7 +9616,7 @@
         <v>100</v>
       </c>
       <c r="T54" s="26" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="U54" s="26">
         <v>0</v>
@@ -9479,8 +9626,8 @@
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A55" s="163" t="s">
-        <v>216</v>
+      <c r="A55" s="52" t="s">
+        <v>212</v>
       </c>
       <c r="B55" s="26">
         <v>1710</v>
@@ -9544,8 +9691,8 @@
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A56" s="163" t="s">
-        <v>217</v>
+      <c r="A56" s="52" t="s">
+        <v>213</v>
       </c>
       <c r="B56" s="26">
         <v>1720</v>
@@ -9599,7 +9746,7 @@
         <v>100</v>
       </c>
       <c r="T56" s="26" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="U56" s="26">
         <v>0</v>
@@ -9609,8 +9756,8 @@
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A57" s="163" t="s">
-        <v>218</v>
+      <c r="A57" s="52" t="s">
+        <v>214</v>
       </c>
       <c r="B57" s="26">
         <v>1730</v>
@@ -9664,7 +9811,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="26" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="U57" s="26">
         <v>0</v>
@@ -9674,8 +9821,8 @@
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A58" s="163" t="s">
-        <v>219</v>
+      <c r="A58" s="52" t="s">
+        <v>215</v>
       </c>
       <c r="B58" s="26">
         <v>1740</v>
@@ -9729,7 +9876,7 @@
         <v>100</v>
       </c>
       <c r="T58" s="26" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="U58" s="26">
         <v>311</v>
@@ -9739,67 +9886,724 @@
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A59" s="163" t="s">
-        <v>225</v>
+      <c r="A59" s="52" t="s">
+        <v>220</v>
       </c>
       <c r="B59" s="26">
         <v>1800</v>
       </c>
+      <c r="D59" s="26">
+        <v>1</v>
+      </c>
+      <c r="E59" s="26">
+        <v>0</v>
+      </c>
+      <c r="F59" s="26">
+        <v>0</v>
+      </c>
+      <c r="G59" s="26">
+        <v>0</v>
+      </c>
+      <c r="H59" s="26">
+        <v>2</v>
+      </c>
+      <c r="I59" s="26">
+        <v>100</v>
+      </c>
+      <c r="J59" s="26">
+        <v>0</v>
+      </c>
+      <c r="K59" s="26">
+        <v>0</v>
+      </c>
+      <c r="L59" s="26">
+        <v>0</v>
+      </c>
+      <c r="M59" s="26">
+        <v>0</v>
+      </c>
+      <c r="N59" s="26">
+        <v>1</v>
+      </c>
+      <c r="O59" s="26">
+        <v>4</v>
+      </c>
+      <c r="P59" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="26">
+        <v>0</v>
+      </c>
+      <c r="R59" s="26">
+        <v>2</v>
+      </c>
+      <c r="S59" s="26">
+        <v>100</v>
+      </c>
+      <c r="T59" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="U59" s="26">
+        <v>0</v>
+      </c>
+      <c r="V59" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A60" s="163" t="s">
-        <v>226</v>
+      <c r="A60" s="52" t="s">
+        <v>221</v>
       </c>
       <c r="B60" s="26">
         <v>1801</v>
       </c>
+      <c r="D60" s="26">
+        <v>1</v>
+      </c>
+      <c r="E60" s="26">
+        <v>0</v>
+      </c>
+      <c r="F60" s="26">
+        <v>0</v>
+      </c>
+      <c r="G60" s="26">
+        <v>0</v>
+      </c>
+      <c r="H60" s="26">
+        <v>0</v>
+      </c>
+      <c r="I60" s="26">
+        <v>0</v>
+      </c>
+      <c r="J60" s="26">
+        <v>8</v>
+      </c>
+      <c r="K60" s="26">
+        <v>0</v>
+      </c>
+      <c r="L60" s="26">
+        <v>2</v>
+      </c>
+      <c r="M60" s="26">
+        <v>8</v>
+      </c>
+      <c r="N60" s="26">
+        <v>0</v>
+      </c>
+      <c r="O60" s="26">
+        <v>0</v>
+      </c>
+      <c r="P60" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="26">
+        <v>0</v>
+      </c>
+      <c r="R60" s="26">
+        <v>2</v>
+      </c>
+      <c r="S60" s="26">
+        <v>0</v>
+      </c>
+      <c r="T60" s="26">
+        <v>0</v>
+      </c>
+      <c r="U60" s="26">
+        <v>0</v>
+      </c>
+      <c r="V60" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A61" s="163" t="s">
-        <v>227</v>
+      <c r="A61" s="52" t="s">
+        <v>222</v>
       </c>
       <c r="B61" s="26">
         <v>1802</v>
       </c>
+      <c r="D61" s="26">
+        <v>1</v>
+      </c>
+      <c r="E61" s="26">
+        <v>0</v>
+      </c>
+      <c r="F61" s="26">
+        <v>0</v>
+      </c>
+      <c r="G61" s="26">
+        <v>0</v>
+      </c>
+      <c r="H61" s="26">
+        <v>0</v>
+      </c>
+      <c r="I61" s="26">
+        <v>0</v>
+      </c>
+      <c r="J61" s="26">
+        <v>25</v>
+      </c>
+      <c r="K61" s="26">
+        <v>0</v>
+      </c>
+      <c r="L61" s="26">
+        <v>2</v>
+      </c>
+      <c r="M61" s="26">
+        <v>8</v>
+      </c>
+      <c r="N61" s="26">
+        <v>0</v>
+      </c>
+      <c r="O61" s="26">
+        <v>0</v>
+      </c>
+      <c r="P61" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="26">
+        <v>0</v>
+      </c>
+      <c r="R61" s="26">
+        <v>3</v>
+      </c>
+      <c r="S61" s="26">
+        <v>299</v>
+      </c>
+      <c r="T61" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U61" s="26">
+        <v>0</v>
+      </c>
+      <c r="V61" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A62" s="163" t="s">
-        <v>228</v>
+      <c r="A62" s="52" t="s">
+        <v>223</v>
       </c>
       <c r="B62" s="26">
         <v>1803</v>
       </c>
+      <c r="D62" s="26">
+        <v>4</v>
+      </c>
+      <c r="E62" s="26">
+        <v>0</v>
+      </c>
+      <c r="F62" s="26">
+        <v>0</v>
+      </c>
+      <c r="G62" s="26">
+        <v>0</v>
+      </c>
+      <c r="H62" s="26">
+        <v>0</v>
+      </c>
+      <c r="I62" s="26">
+        <v>0</v>
+      </c>
+      <c r="J62" s="26">
+        <v>0</v>
+      </c>
+      <c r="K62" s="26">
+        <v>0</v>
+      </c>
+      <c r="L62" s="26">
+        <v>0</v>
+      </c>
+      <c r="M62" s="26">
+        <v>0</v>
+      </c>
+      <c r="N62" s="26">
+        <v>1</v>
+      </c>
+      <c r="O62" s="26">
+        <v>1</v>
+      </c>
+      <c r="P62" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q62" s="26">
+        <v>1</v>
+      </c>
+      <c r="R62" s="26">
+        <v>0</v>
+      </c>
+      <c r="S62" s="26">
+        <v>100</v>
+      </c>
+      <c r="T62" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="U62" s="26">
+        <v>0</v>
+      </c>
+      <c r="V62" s="26">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A63" s="163" t="s">
-        <v>229</v>
+      <c r="A63" s="52" t="s">
+        <v>230</v>
       </c>
       <c r="B63" s="26">
+        <v>1805</v>
+      </c>
+      <c r="D63" s="26">
+        <v>0</v>
+      </c>
+      <c r="E63" s="26">
+        <v>0</v>
+      </c>
+      <c r="F63" s="26">
+        <v>0</v>
+      </c>
+      <c r="G63" s="26">
+        <v>0</v>
+      </c>
+      <c r="H63" s="26">
+        <v>0</v>
+      </c>
+      <c r="I63" s="26">
+        <v>0</v>
+      </c>
+      <c r="J63" s="26">
+        <v>0</v>
+      </c>
+      <c r="K63" s="26">
+        <v>0</v>
+      </c>
+      <c r="L63" s="26">
+        <v>0</v>
+      </c>
+      <c r="M63" s="26">
+        <v>0</v>
+      </c>
+      <c r="N63" s="26">
+        <v>1</v>
+      </c>
+      <c r="O63" s="26">
+        <v>1</v>
+      </c>
+      <c r="P63" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q63" s="26">
+        <v>1</v>
+      </c>
+      <c r="R63" s="26">
+        <v>0</v>
+      </c>
+      <c r="S63" s="26">
+        <v>501</v>
+      </c>
+      <c r="T63" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="U63" s="26">
+        <v>100</v>
+      </c>
+      <c r="V63" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A64" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B64" s="26">
         <v>1810</v>
       </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A64" s="163" t="s">
-        <v>230</v>
-      </c>
-      <c r="B64" s="26">
+      <c r="D64" s="26">
+        <v>1</v>
+      </c>
+      <c r="E64" s="26">
+        <v>0</v>
+      </c>
+      <c r="F64" s="26">
+        <v>0</v>
+      </c>
+      <c r="G64" s="26">
+        <v>0</v>
+      </c>
+      <c r="H64" s="26">
+        <v>0</v>
+      </c>
+      <c r="I64" s="26">
+        <v>25</v>
+      </c>
+      <c r="J64" s="26">
+        <v>6</v>
+      </c>
+      <c r="K64" s="26">
+        <v>0</v>
+      </c>
+      <c r="L64" s="26">
+        <v>2</v>
+      </c>
+      <c r="M64" s="26">
+        <v>4</v>
+      </c>
+      <c r="N64" s="26">
+        <v>1</v>
+      </c>
+      <c r="O64" s="26">
+        <v>2</v>
+      </c>
+      <c r="P64" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q64" s="26">
+        <v>1</v>
+      </c>
+      <c r="R64" s="26">
+        <v>0</v>
+      </c>
+      <c r="S64" s="26">
+        <v>100</v>
+      </c>
+      <c r="T64" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="U64" s="26">
+        <v>0</v>
+      </c>
+      <c r="V64" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A65" s="52" t="s">
+        <v>225</v>
+      </c>
+      <c r="B65" s="26">
         <v>1820</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="163" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="26">
+      <c r="D65" s="26">
+        <v>1</v>
+      </c>
+      <c r="E65" s="26">
+        <v>0</v>
+      </c>
+      <c r="F65" s="26">
+        <v>0</v>
+      </c>
+      <c r="G65" s="26">
+        <v>0</v>
+      </c>
+      <c r="H65" s="26">
+        <v>0</v>
+      </c>
+      <c r="I65" s="26">
+        <v>10</v>
+      </c>
+      <c r="J65" s="26">
+        <v>0</v>
+      </c>
+      <c r="K65" s="26">
+        <v>0</v>
+      </c>
+      <c r="L65" s="26">
+        <v>0</v>
+      </c>
+      <c r="M65" s="26">
+        <v>0</v>
+      </c>
+      <c r="N65" s="26">
+        <v>1</v>
+      </c>
+      <c r="O65" s="26">
+        <v>1</v>
+      </c>
+      <c r="P65" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q65" s="26">
+        <v>1</v>
+      </c>
+      <c r="R65" s="26">
+        <v>0</v>
+      </c>
+      <c r="S65" s="26">
+        <v>502</v>
+      </c>
+      <c r="T65" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="U65" s="26">
+        <v>0</v>
+      </c>
+      <c r="V65" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A66" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="B66" s="26">
         <v>1830</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="163" t="s">
-        <v>232</v>
-      </c>
-      <c r="B66" s="26">
+      <c r="D66" s="26">
+        <v>1</v>
+      </c>
+      <c r="E66" s="26">
+        <v>0</v>
+      </c>
+      <c r="F66" s="26">
+        <v>0</v>
+      </c>
+      <c r="G66" s="26">
+        <v>0</v>
+      </c>
+      <c r="H66" s="26">
+        <v>0</v>
+      </c>
+      <c r="I66" s="26">
+        <v>50</v>
+      </c>
+      <c r="J66" s="26">
+        <v>15</v>
+      </c>
+      <c r="K66" s="26">
+        <v>12</v>
+      </c>
+      <c r="L66" s="26">
+        <v>0</v>
+      </c>
+      <c r="M66" s="26">
+        <v>0</v>
+      </c>
+      <c r="N66" s="26">
+        <v>2</v>
+      </c>
+      <c r="O66" s="26">
+        <v>8</v>
+      </c>
+      <c r="P66" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>1</v>
+      </c>
+      <c r="R66" s="26">
+        <v>0</v>
+      </c>
+      <c r="S66" s="26">
+        <v>100</v>
+      </c>
+      <c r="T66" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="U66" s="26">
+        <v>0</v>
+      </c>
+      <c r="V66" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A67" s="52" t="s">
+        <v>227</v>
+      </c>
+      <c r="B67" s="26">
         <v>1840</v>
+      </c>
+      <c r="D67" s="26">
+        <v>3</v>
+      </c>
+      <c r="E67" s="26">
+        <v>100</v>
+      </c>
+      <c r="F67" s="26">
+        <v>360</v>
+      </c>
+      <c r="G67" s="26">
+        <v>0</v>
+      </c>
+      <c r="H67" s="26">
+        <v>0</v>
+      </c>
+      <c r="I67" s="26">
+        <v>100</v>
+      </c>
+      <c r="J67" s="26">
+        <v>25</v>
+      </c>
+      <c r="K67" s="26">
+        <v>0</v>
+      </c>
+      <c r="L67" s="26">
+        <v>0</v>
+      </c>
+      <c r="M67" s="26">
+        <v>0</v>
+      </c>
+      <c r="N67" s="26">
+        <v>1</v>
+      </c>
+      <c r="O67" s="26">
+        <v>10</v>
+      </c>
+      <c r="P67" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q67" s="26">
+        <v>1</v>
+      </c>
+      <c r="R67" s="26">
+        <v>2</v>
+      </c>
+      <c r="S67" s="26">
+        <v>100</v>
+      </c>
+      <c r="T67" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="U67" s="26">
+        <v>0</v>
+      </c>
+      <c r="V67" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A68" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="B68" s="26">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A69" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B69" s="26">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A70" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="B70" s="26">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A71" s="52" t="s">
+        <v>245</v>
+      </c>
+      <c r="B71" s="26">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A72" s="52" t="s">
+        <v>246</v>
+      </c>
+      <c r="B72" s="26">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A73" s="52" t="s">
+        <v>247</v>
+      </c>
+      <c r="B73" s="26">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A74" s="52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B74" s="26">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A75" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B75" s="26">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A76" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="B76" s="26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A77" s="52" t="s">
+        <v>251</v>
+      </c>
+      <c r="B77" s="26">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A78" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="B78" s="26">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A79" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="26">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A80" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B80" s="26">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="B81" s="26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" s="26">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="26">
+        <v>2040</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHmedia\Desktop\HJS\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DE21EC-E47A-48FE-80ED-23A66099F5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C564D7-1F32-4F4C-8B9C-6BB5E16EF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="435" yWindow="0" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15588" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -2023,7 +2023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="279">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3343,6 +3343,78 @@
   </si>
   <si>
     <t>마법서 강화 일반공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[50/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법서 소환수 A 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법서 소환수 B 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마법서 소환수 C 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[70/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/6]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20/20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부채 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>부채 이동기</t>
+  </si>
+  <si>
+    <t>부채 기상기</t>
+  </si>
+  <si>
+    <t>부채 일반공격</t>
+  </si>
+  <si>
+    <t>부채 1번 스킬</t>
+  </si>
+  <si>
+    <t>부채 2번 스킬</t>
+  </si>
+  <si>
+    <t>부채 3번 스킬</t>
+  </si>
+  <si>
+    <t>부채 4번 스킬</t>
+  </si>
+  <si>
+    <t>[10/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40/1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4556,6 +4628,303 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4574,24 +4943,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4604,289 +4955,10 @@
     <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5325,25 +5397,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="6.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="2" customWidth="1"/>
-    <col min="7" max="8" width="8.75" style="26"/>
-    <col min="9" max="9" width="10.375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="26"/>
-    <col min="11" max="11" width="11.25" style="26" customWidth="1"/>
-    <col min="12" max="15" width="8.75" style="26"/>
+    <col min="7" max="8" width="8.69921875" style="26"/>
+    <col min="9" max="9" width="10.3984375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="26"/>
+    <col min="11" max="11" width="11.19921875" style="26" customWidth="1"/>
+    <col min="12" max="15" width="8.69921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -5356,15 +5428,15 @@
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="126" t="s">
+      <c r="G3" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="127"/>
-      <c r="I3" s="127"/>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="74"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B4" s="7">
         <v>1</v>
       </c>
@@ -5377,23 +5449,23 @@
       <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="91" t="s">
         <v>139</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="129" t="s">
+      <c r="I4" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="131" t="s">
+      <c r="J4" s="89" t="s">
         <v>138</v>
       </c>
-      <c r="K4" s="135" t="s">
+      <c r="K4" s="93" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="10">
         <v>2</v>
       </c>
@@ -5406,13 +5478,13 @@
       <c r="E5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="132"/>
-      <c r="I5" s="130"/>
-      <c r="J5" s="132"/>
-      <c r="K5" s="136"/>
-    </row>
-    <row r="6" spans="2:11" ht="41.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="92"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="94"/>
+    </row>
+    <row r="6" spans="2:11" ht="63" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="10">
         <v>3</v>
       </c>
@@ -5425,15 +5497,15 @@
       <c r="E6" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="110"/>
-      <c r="K6" s="111"/>
-    </row>
-    <row r="7" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="109"/>
+    </row>
+    <row r="7" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B7" s="10">
         <v>4</v>
       </c>
@@ -5462,7 +5534,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B8" s="10">
         <v>5</v>
       </c>
@@ -5491,7 +5563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B9" s="10">
         <v>6</v>
       </c>
@@ -5520,7 +5592,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B10" s="10">
         <v>7</v>
       </c>
@@ -5534,7 +5606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B11" s="10">
         <v>8</v>
       </c>
@@ -5548,7 +5620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B12" s="10">
         <v>9</v>
       </c>
@@ -5562,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B13" s="10">
         <v>10</v>
       </c>
@@ -5576,7 +5648,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B14" s="10">
         <v>11</v>
       </c>
@@ -5590,7 +5662,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B15" s="10">
         <v>12</v>
       </c>
@@ -5604,7 +5676,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B16" s="10">
         <v>13</v>
       </c>
@@ -5618,7 +5690,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B17" s="10">
         <v>14</v>
       </c>
@@ -5632,7 +5704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B18" s="10">
         <v>15</v>
       </c>
@@ -5646,7 +5718,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B19" s="10">
         <v>16</v>
       </c>
@@ -5660,7 +5732,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:15" ht="31.2" x14ac:dyDescent="0.4">
       <c r="B20" s="10">
         <v>17</v>
       </c>
@@ -5674,7 +5746,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B21" s="10">
         <v>18</v>
       </c>
@@ -5688,7 +5760,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B22" s="10">
         <v>19</v>
       </c>
@@ -5702,7 +5774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B23" s="10">
         <v>20</v>
       </c>
@@ -5716,7 +5788,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B24" s="10">
         <v>21</v>
       </c>
@@ -5730,7 +5802,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B25" s="10">
         <v>22</v>
       </c>
@@ -5744,7 +5816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B26" s="10">
         <v>23</v>
       </c>
@@ -5758,7 +5830,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B27" s="10">
         <v>24</v>
       </c>
@@ -5772,7 +5844,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B28" s="10">
         <v>25</v>
       </c>
@@ -5786,40 +5858,40 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B29" s="12"/>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
     </row>
-    <row r="31" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="126" t="s">
+    <row r="31" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="32" spans="2:15" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="128"/>
-      <c r="G32" s="112" t="s">
+      <c r="C32" s="74"/>
+      <c r="G32" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="H32" s="113"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="115" t="s">
+      <c r="H32" s="111"/>
+      <c r="I32" s="112"/>
+      <c r="J32" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="117"/>
-    </row>
-    <row r="33" spans="2:15" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="115"/>
+    </row>
+    <row r="33" spans="2:15" ht="22.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="163"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="5" t="s">
         <v>3</v>
       </c>
@@ -5829,24 +5901,24 @@
       <c r="H33" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="I33" s="118" t="s">
+      <c r="I33" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="120"/>
-    </row>
-    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="118"/>
+    </row>
+    <row r="34" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B34" s="22">
         <v>0</v>
       </c>
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="147"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="23"/>
       <c r="G34" s="39">
         <v>0</v>
@@ -5854,20 +5926,20 @@
       <c r="H34" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="I34" s="121" t="s">
+      <c r="I34" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="J34" s="122"/>
-      <c r="K34" s="122"/>
-      <c r="L34" s="122"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="122"/>
-      <c r="O34" s="123"/>
-    </row>
-    <row r="35" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="153"/>
-      <c r="C35" s="154"/>
-      <c r="D35" s="155"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="120"/>
+      <c r="M34" s="120"/>
+      <c r="N34" s="120"/>
+      <c r="O34" s="121"/>
+    </row>
+    <row r="35" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="75"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="77"/>
       <c r="E35" s="19" t="s">
         <v>43</v>
       </c>
@@ -5878,20 +5950,20 @@
       <c r="H35" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="124" t="s">
+      <c r="I35" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="J35" s="124"/>
-      <c r="K35" s="124"/>
-      <c r="L35" s="124"/>
-      <c r="M35" s="124"/>
-      <c r="N35" s="124"/>
-      <c r="O35" s="125"/>
-    </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B36" s="156"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="158"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="122"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="122"/>
+      <c r="O35" s="123"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80"/>
       <c r="E36" s="19" t="s">
         <v>44</v>
       </c>
@@ -5902,293 +5974,293 @@
       <c r="H36" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="I36" s="86" t="s">
+      <c r="I36" s="130" t="s">
         <v>105</v>
       </c>
-      <c r="J36" s="87"/>
-      <c r="K36" s="87"/>
-      <c r="L36" s="87"/>
-      <c r="M36" s="87"/>
-      <c r="N36" s="87"/>
-      <c r="O36" s="88"/>
-    </row>
-    <row r="37" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="156"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="158"/>
+      <c r="J36" s="131"/>
+      <c r="K36" s="131"/>
+      <c r="L36" s="131"/>
+      <c r="M36" s="131"/>
+      <c r="N36" s="131"/>
+      <c r="O36" s="132"/>
+    </row>
+    <row r="37" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="80"/>
       <c r="E37" s="19" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="2"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="96"/>
       <c r="I37" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="J37" s="89" t="s">
+      <c r="J37" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="K37" s="90"/>
-      <c r="L37" s="90"/>
-      <c r="M37" s="90"/>
-      <c r="N37" s="90"/>
-      <c r="O37" s="91"/>
-    </row>
-    <row r="38" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="156"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="158"/>
+      <c r="K37" s="134"/>
+      <c r="L37" s="134"/>
+      <c r="M37" s="134"/>
+      <c r="N37" s="134"/>
+      <c r="O37" s="135"/>
+    </row>
+    <row r="38" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="80"/>
       <c r="E38" s="20"/>
-      <c r="G38" s="72">
+      <c r="G38" s="105">
         <v>3</v>
       </c>
-      <c r="H38" s="69" t="s">
+      <c r="H38" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="I38" s="107" t="s">
+      <c r="I38" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="102"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B39" s="156"/>
-      <c r="C39" s="157"/>
-      <c r="D39" s="158"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="99"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="80"/>
       <c r="E39" s="20"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="108"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="105"/>
-      <c r="L39" s="105"/>
-      <c r="M39" s="105"/>
-      <c r="N39" s="105"/>
-      <c r="O39" s="106"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B40" s="156"/>
-      <c r="C40" s="157"/>
-      <c r="D40" s="158"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="104"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="102"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
       <c r="E40" s="20"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="62"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="66"/>
       <c r="I40" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J40" s="124" t="s">
         <v>86</v>
       </c>
-      <c r="K40" s="81"/>
-      <c r="L40" s="81"/>
-      <c r="M40" s="81"/>
-      <c r="N40" s="81"/>
-      <c r="O40" s="82"/>
-    </row>
-    <row r="41" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="159"/>
-      <c r="C41" s="160"/>
-      <c r="D41" s="161"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="125"/>
+      <c r="N40" s="125"/>
+      <c r="O40" s="126"/>
+    </row>
+    <row r="41" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="83"/>
       <c r="E41" s="20"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="64"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="72"/>
       <c r="I41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="127" t="s">
         <v>128</v>
       </c>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="85"/>
-    </row>
-    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="128"/>
+      <c r="N41" s="128"/>
+      <c r="O41" s="129"/>
+    </row>
+    <row r="42" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="22">
         <v>1</v>
       </c>
-      <c r="C42" s="146" t="s">
+      <c r="C42" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D42" s="147"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="23"/>
-      <c r="G42" s="65">
+      <c r="G42" s="158">
         <v>4</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="I42" s="94" t="s">
+      <c r="I42" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="J42" s="95"/>
-      <c r="K42" s="95"/>
-      <c r="L42" s="95"/>
-      <c r="M42" s="95"/>
-      <c r="N42" s="95"/>
-      <c r="O42" s="96"/>
-    </row>
-    <row r="43" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="139"/>
+      <c r="J42" s="139"/>
+      <c r="K42" s="139"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="139"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="140"/>
+    </row>
+    <row r="43" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="66"/>
-      <c r="H43" s="68"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="98"/>
-    </row>
-    <row r="44" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="140"/>
-      <c r="C44" s="141"/>
-      <c r="D44" s="142"/>
+      <c r="G43" s="159"/>
+      <c r="H43" s="161"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="141"/>
+      <c r="N43" s="141"/>
+      <c r="O43" s="142"/>
+    </row>
+    <row r="44" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="96"/>
       <c r="I44" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J44" s="99" t="s">
+      <c r="J44" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="99"/>
-      <c r="N44" s="99"/>
-      <c r="O44" s="100"/>
-    </row>
-    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="140"/>
-      <c r="C45" s="141"/>
-      <c r="D45" s="142"/>
+      <c r="K44" s="143"/>
+      <c r="L44" s="143"/>
+      <c r="M44" s="143"/>
+      <c r="N44" s="143"/>
+      <c r="O44" s="144"/>
+    </row>
+    <row r="45" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G45" s="72">
+      <c r="G45" s="105">
         <v>5</v>
       </c>
-      <c r="H45" s="69" t="s">
+      <c r="H45" s="103" t="s">
         <v>108</v>
       </c>
-      <c r="I45" s="101" t="s">
+      <c r="I45" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="102"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B46" s="140"/>
-      <c r="C46" s="141"/>
-      <c r="D46" s="142"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
+      <c r="L45" s="98"/>
+      <c r="M45" s="98"/>
+      <c r="N45" s="98"/>
+      <c r="O45" s="99"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="20"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="70"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
-      <c r="L46" s="103"/>
-      <c r="M46" s="103"/>
-      <c r="N46" s="103"/>
-      <c r="O46" s="104"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B47" s="140"/>
-      <c r="C47" s="141"/>
-      <c r="D47" s="142"/>
+      <c r="G46" s="163"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="145"/>
+      <c r="J46" s="145"/>
+      <c r="K46" s="145"/>
+      <c r="L46" s="145"/>
+      <c r="M46" s="145"/>
+      <c r="N46" s="145"/>
+      <c r="O46" s="146"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B47" s="56"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="20"/>
-      <c r="G47" s="74"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="105"/>
-      <c r="M47" s="105"/>
-      <c r="N47" s="105"/>
-      <c r="O47" s="106"/>
-    </row>
-    <row r="48" spans="2:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="140"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="142"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="101"/>
+      <c r="M47" s="101"/>
+      <c r="N47" s="101"/>
+      <c r="O47" s="102"/>
+    </row>
+    <row r="48" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="56"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="20"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="54"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="153"/>
       <c r="I48" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="J48" s="80" t="s">
+      <c r="J48" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="81"/>
-      <c r="N48" s="81"/>
-      <c r="O48" s="82"/>
-    </row>
-    <row r="49" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="143"/>
-      <c r="C49" s="144"/>
-      <c r="D49" s="145"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
+      <c r="O48" s="126"/>
+    </row>
+    <row r="49" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
       <c r="E49" s="21"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="56"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="155"/>
       <c r="I49" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="J49" s="80" t="s">
+      <c r="J49" s="124" t="s">
         <v>88</v>
       </c>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="81"/>
-      <c r="N49" s="81"/>
-      <c r="O49" s="82"/>
-    </row>
-    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
+      <c r="O49" s="126"/>
+    </row>
+    <row r="50" spans="2:15" s="24" customFormat="1" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="22">
         <v>2</v>
       </c>
-      <c r="C50" s="146" t="s">
+      <c r="C50" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="147"/>
+      <c r="D50" s="63"/>
       <c r="E50" s="23"/>
-      <c r="G50" s="57"/>
-      <c r="H50" s="58"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="157"/>
       <c r="I50" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="J50" s="89" t="s">
+      <c r="J50" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="K50" s="90"/>
-      <c r="L50" s="90"/>
-      <c r="M50" s="90"/>
-      <c r="N50" s="90"/>
-      <c r="O50" s="91"/>
-    </row>
-    <row r="51" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B51" s="61"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="62"/>
+      <c r="K50" s="134"/>
+      <c r="L50" s="134"/>
+      <c r="M50" s="134"/>
+      <c r="N50" s="134"/>
+      <c r="O50" s="135"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B51" s="64"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="66"/>
       <c r="E51" s="19" t="s">
         <v>49</v>
       </c>
@@ -6198,41 +6270,41 @@
       <c r="H51" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="I51" s="77" t="s">
+      <c r="I51" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="78"/>
-      <c r="K51" s="78"/>
-      <c r="L51" s="78"/>
-      <c r="M51" s="78"/>
-      <c r="N51" s="78"/>
-      <c r="O51" s="79"/>
-    </row>
-    <row r="52" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="149"/>
-      <c r="C52" s="150"/>
-      <c r="D52" s="151"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="150"/>
+      <c r="M51" s="150"/>
+      <c r="N51" s="150"/>
+      <c r="O51" s="151"/>
+    </row>
+    <row r="52" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="67"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="53"/>
-      <c r="H52" s="54"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="153"/>
       <c r="I52" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="J52" s="92" t="s">
+      <c r="J52" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="93"/>
-    </row>
-    <row r="53" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B53" s="149"/>
-      <c r="C53" s="150"/>
-      <c r="D53" s="151"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="137"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B53" s="67"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="19" t="s">
         <v>65</v>
       </c>
@@ -6242,79 +6314,67 @@
       <c r="H53" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="I53" s="77" t="s">
+      <c r="I53" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="J53" s="78"/>
-      <c r="K53" s="78"/>
-      <c r="L53" s="78"/>
-      <c r="M53" s="78"/>
-      <c r="N53" s="78"/>
-      <c r="O53" s="79"/>
-    </row>
-    <row r="54" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="149"/>
-      <c r="C54" s="150"/>
-      <c r="D54" s="151"/>
+      <c r="J53" s="150"/>
+      <c r="K53" s="150"/>
+      <c r="L53" s="150"/>
+      <c r="M53" s="150"/>
+      <c r="N53" s="150"/>
+      <c r="O53" s="151"/>
+    </row>
+    <row r="54" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="67"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="19"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="60"/>
+      <c r="G54" s="95"/>
+      <c r="H54" s="96"/>
       <c r="I54" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="J54" s="75" t="s">
+      <c r="J54" s="147" t="s">
         <v>91</v>
       </c>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="76"/>
-    </row>
-    <row r="55" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B55" s="149"/>
-      <c r="C55" s="150"/>
-      <c r="D55" s="151"/>
+      <c r="K54" s="147"/>
+      <c r="L54" s="147"/>
+      <c r="M54" s="147"/>
+      <c r="N54" s="147"/>
+      <c r="O54" s="148"/>
+    </row>
+    <row r="55" spans="2:15" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="67"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="20"/>
     </row>
-    <row r="56" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B56" s="149"/>
-      <c r="C56" s="150"/>
-      <c r="D56" s="151"/>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B56" s="67"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="20"/>
     </row>
-    <row r="57" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="63"/>
-      <c r="C57" s="152"/>
-      <c r="D57" s="64"/>
+    <row r="57" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="70"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="72"/>
       <c r="E57" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B43:D49"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B51:D57"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:D41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I38:O39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:O32"/>
-    <mergeCell ref="I33:O33"/>
-    <mergeCell ref="I34:O34"/>
-    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="G48:H50"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="H45:H47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="I53:O53"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="J40:O40"/>
     <mergeCell ref="J41:O41"/>
     <mergeCell ref="I36:O36"/>
@@ -6326,18 +6386,30 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="J48:O48"/>
     <mergeCell ref="I45:O47"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="I53:O53"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G48:H50"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G40:H41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="H45:H47"/>
-    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I38:O39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:O32"/>
+    <mergeCell ref="I33:O33"/>
+    <mergeCell ref="I34:O34"/>
+    <mergeCell ref="I35:O35"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="B43:D49"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B51:D57"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:D41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C33:D33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6349,43 +6421,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z84"/>
+  <dimension ref="A1:Z95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B50" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A84" sqref="A84"/>
+      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="52" customWidth="1"/>
-    <col min="2" max="2" width="7.875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="17" style="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.8984375" style="26" customWidth="1"/>
     <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="9.59765625" style="26" customWidth="1"/>
     <col min="6" max="7" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="26"/>
-    <col min="10" max="10" width="8.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.69921875" style="26"/>
+    <col min="10" max="10" width="8.59765625" style="26" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.19921875" style="26" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="8.75" style="26"/>
-    <col min="17" max="17" width="8.125" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="8.69921875" style="26"/>
+    <col min="17" max="17" width="8.09765625" style="26" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.125" style="26" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.8984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.09765625" style="26" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.59765625" style="26" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.75" style="26"/>
+    <col min="26" max="26" width="8.69921875" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="36" t="s">
         <v>66</v>
       </c>
@@ -6465,7 +6537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A2" s="52" t="s">
         <v>67</v>
       </c>
@@ -6530,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A3" s="52" t="s">
         <v>134</v>
       </c>
@@ -6595,7 +6667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A4" s="52" t="s">
         <v>135</v>
       </c>
@@ -6660,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A5" s="52" t="s">
         <v>141</v>
       </c>
@@ -6725,7 +6797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A6" s="52" t="s">
         <v>68</v>
       </c>
@@ -6790,7 +6862,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A7" s="52" t="s">
         <v>69</v>
       </c>
@@ -6855,7 +6927,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A8" s="52" t="s">
         <v>136</v>
       </c>
@@ -6920,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A9" s="52" t="s">
         <v>137</v>
       </c>
@@ -6985,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A10" s="52" t="s">
         <v>142</v>
       </c>
@@ -7050,7 +7122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A11" s="52" t="s">
         <v>70</v>
       </c>
@@ -7115,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A12" s="52" t="s">
         <v>75</v>
       </c>
@@ -7180,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A13" s="52" t="s">
         <v>71</v>
       </c>
@@ -7245,7 +7317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A14" s="52" t="s">
         <v>74</v>
       </c>
@@ -7310,7 +7382,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A15" s="52" t="s">
         <v>72</v>
       </c>
@@ -7375,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
       <c r="A16" s="52" t="s">
         <v>76</v>
       </c>
@@ -7440,7 +7512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A17" s="52" t="s">
         <v>73</v>
       </c>
@@ -7505,7 +7577,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A18" s="52" t="s">
         <v>77</v>
       </c>
@@ -7570,7 +7642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="52" t="s">
         <v>157</v>
       </c>
@@ -7635,7 +7707,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="52" t="s">
         <v>158</v>
       </c>
@@ -7700,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="52" t="s">
         <v>159</v>
       </c>
@@ -7765,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="52" t="s">
         <v>160</v>
       </c>
@@ -7830,7 +7902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="52" t="s">
         <v>161</v>
       </c>
@@ -7895,7 +7967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="52" t="s">
         <v>162</v>
       </c>
@@ -7960,7 +8032,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="52" t="s">
         <v>163</v>
       </c>
@@ -8025,7 +8097,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="52" t="s">
         <v>164</v>
       </c>
@@ -8090,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="52" t="s">
         <v>172</v>
       </c>
@@ -8155,7 +8227,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="52" t="s">
         <v>173</v>
       </c>
@@ -8220,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="52" t="s">
         <v>174</v>
       </c>
@@ -8285,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="52" t="s">
         <v>175</v>
       </c>
@@ -8350,7 +8422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="52" t="s">
         <v>176</v>
       </c>
@@ -8415,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="52" t="s">
         <v>177</v>
       </c>
@@ -8480,7 +8552,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="52" t="s">
         <v>178</v>
       </c>
@@ -8545,7 +8617,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="52" t="s">
         <v>179</v>
       </c>
@@ -8610,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="52" t="s">
         <v>188</v>
       </c>
@@ -8675,7 +8747,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="52" t="s">
         <v>189</v>
       </c>
@@ -8740,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="52" t="s">
         <v>190</v>
       </c>
@@ -8805,7 +8877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="52" t="s">
         <v>191</v>
       </c>
@@ -8870,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="52" t="s">
         <v>192</v>
       </c>
@@ -8935,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="52" t="s">
         <v>193</v>
       </c>
@@ -9000,7 +9072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="52" t="s">
         <v>194</v>
       </c>
@@ -9065,7 +9137,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="52" t="s">
         <v>195</v>
       </c>
@@ -9130,7 +9202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="52" t="s">
         <v>200</v>
       </c>
@@ -9195,7 +9267,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="52" t="s">
         <v>201</v>
       </c>
@@ -9260,7 +9332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="52" t="s">
         <v>202</v>
       </c>
@@ -9325,7 +9397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="52" t="s">
         <v>203</v>
       </c>
@@ -9333,7 +9405,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="52" t="s">
         <v>204</v>
       </c>
@@ -9341,7 +9413,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="52" t="s">
         <v>205</v>
       </c>
@@ -9349,7 +9421,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="52" t="s">
         <v>206</v>
       </c>
@@ -9357,7 +9429,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="52" t="s">
         <v>207</v>
       </c>
@@ -9365,7 +9437,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="52" t="s">
         <v>208</v>
       </c>
@@ -9430,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="52" t="s">
         <v>209</v>
       </c>
@@ -9495,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="52" t="s">
         <v>210</v>
       </c>
@@ -9560,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="52" t="s">
         <v>211</v>
       </c>
@@ -9625,7 +9697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="52" t="s">
         <v>212</v>
       </c>
@@ -9690,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="52" t="s">
         <v>213</v>
       </c>
@@ -9755,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="52" t="s">
         <v>214</v>
       </c>
@@ -9820,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="52" t="s">
         <v>215</v>
       </c>
@@ -9885,7 +9957,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="52" t="s">
         <v>220</v>
       </c>
@@ -9950,7 +10022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="52" t="s">
         <v>221</v>
       </c>
@@ -10015,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="52" t="s">
         <v>222</v>
       </c>
@@ -10080,7 +10152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="52" t="s">
         <v>223</v>
       </c>
@@ -10145,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="52" t="s">
         <v>230</v>
       </c>
@@ -10210,7 +10282,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="52" t="s">
         <v>224</v>
       </c>
@@ -10275,7 +10347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="52" t="s">
         <v>225</v>
       </c>
@@ -10340,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="52" t="s">
         <v>226</v>
       </c>
@@ -10405,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="52" t="s">
         <v>227</v>
       </c>
@@ -10470,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="52" t="s">
         <v>242</v>
       </c>
@@ -10478,7 +10550,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="52" t="s">
         <v>243</v>
       </c>
@@ -10486,7 +10558,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="52" t="s">
         <v>244</v>
       </c>
@@ -10494,7 +10566,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="52" t="s">
         <v>245</v>
       </c>
@@ -10502,7 +10574,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="52" t="s">
         <v>246</v>
       </c>
@@ -10510,7 +10582,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="52" t="s">
         <v>247</v>
       </c>
@@ -10518,7 +10590,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="52" t="s">
         <v>248</v>
       </c>
@@ -10526,7 +10598,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="52" t="s">
         <v>249</v>
       </c>
@@ -10534,76 +10606,1076 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="52" t="s">
         <v>250</v>
       </c>
       <c r="B76" s="26">
         <v>2000</v>
       </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D76" s="26">
+        <v>1</v>
+      </c>
+      <c r="E76" s="26">
+        <v>0</v>
+      </c>
+      <c r="F76" s="26">
+        <v>0</v>
+      </c>
+      <c r="G76" s="26">
+        <v>0</v>
+      </c>
+      <c r="H76" s="26">
+        <v>2</v>
+      </c>
+      <c r="I76" s="26">
+        <v>100</v>
+      </c>
+      <c r="J76" s="26">
+        <v>0</v>
+      </c>
+      <c r="K76" s="26">
+        <v>0</v>
+      </c>
+      <c r="L76" s="26">
+        <v>0</v>
+      </c>
+      <c r="M76" s="26">
+        <v>0</v>
+      </c>
+      <c r="N76" s="26">
+        <v>1</v>
+      </c>
+      <c r="O76" s="26">
+        <v>4</v>
+      </c>
+      <c r="P76" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="26">
+        <v>0</v>
+      </c>
+      <c r="R76" s="26">
+        <v>2</v>
+      </c>
+      <c r="S76" s="26">
+        <v>100</v>
+      </c>
+      <c r="T76" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U76" s="26">
+        <v>0</v>
+      </c>
+      <c r="V76" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="52" t="s">
         <v>251</v>
       </c>
       <c r="B77" s="26">
         <v>2001</v>
       </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D77" s="26">
+        <v>1</v>
+      </c>
+      <c r="E77" s="26">
+        <v>0</v>
+      </c>
+      <c r="F77" s="26">
+        <v>0</v>
+      </c>
+      <c r="G77" s="26">
+        <v>0</v>
+      </c>
+      <c r="H77" s="26">
+        <v>0</v>
+      </c>
+      <c r="I77" s="26">
+        <v>0</v>
+      </c>
+      <c r="J77" s="26">
+        <v>7</v>
+      </c>
+      <c r="K77" s="26">
+        <v>0</v>
+      </c>
+      <c r="L77" s="26">
+        <v>2</v>
+      </c>
+      <c r="M77" s="26">
+        <v>8</v>
+      </c>
+      <c r="N77" s="26">
+        <v>0</v>
+      </c>
+      <c r="O77" s="26">
+        <v>0</v>
+      </c>
+      <c r="P77" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="26">
+        <v>0</v>
+      </c>
+      <c r="R77" s="26">
+        <v>2</v>
+      </c>
+      <c r="S77" s="26">
+        <v>0</v>
+      </c>
+      <c r="T77" s="26">
+        <v>0</v>
+      </c>
+      <c r="U77" s="26">
+        <v>0</v>
+      </c>
+      <c r="V77" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="52" t="s">
         <v>252</v>
       </c>
       <c r="B78" s="26">
         <v>2002</v>
       </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D78" s="26">
+        <v>1</v>
+      </c>
+      <c r="E78" s="26">
+        <v>0</v>
+      </c>
+      <c r="F78" s="26">
+        <v>0</v>
+      </c>
+      <c r="G78" s="26">
+        <v>0</v>
+      </c>
+      <c r="H78" s="26">
+        <v>0</v>
+      </c>
+      <c r="I78" s="26">
+        <v>0</v>
+      </c>
+      <c r="J78" s="26">
+        <v>23</v>
+      </c>
+      <c r="K78" s="26">
+        <v>0</v>
+      </c>
+      <c r="L78" s="26">
+        <v>2</v>
+      </c>
+      <c r="M78" s="26">
+        <v>8</v>
+      </c>
+      <c r="N78" s="26">
+        <v>0</v>
+      </c>
+      <c r="O78" s="26">
+        <v>0</v>
+      </c>
+      <c r="P78" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="26">
+        <v>0</v>
+      </c>
+      <c r="R78" s="26">
+        <v>3</v>
+      </c>
+      <c r="S78" s="26">
+        <v>299</v>
+      </c>
+      <c r="T78" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U78" s="26">
+        <v>0</v>
+      </c>
+      <c r="V78" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="52" t="s">
         <v>253</v>
       </c>
       <c r="B79" s="26">
         <v>2003</v>
       </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="D79" s="26">
+        <v>4</v>
+      </c>
+      <c r="E79" s="26">
+        <v>0</v>
+      </c>
+      <c r="F79" s="26">
+        <v>0</v>
+      </c>
+      <c r="G79" s="26">
+        <v>0</v>
+      </c>
+      <c r="H79" s="26">
+        <v>0</v>
+      </c>
+      <c r="I79" s="26">
+        <v>0</v>
+      </c>
+      <c r="J79" s="26">
+        <v>0</v>
+      </c>
+      <c r="K79" s="26">
+        <v>0</v>
+      </c>
+      <c r="L79" s="26">
+        <v>0</v>
+      </c>
+      <c r="M79" s="26">
+        <v>0</v>
+      </c>
+      <c r="N79" s="26">
+        <v>1</v>
+      </c>
+      <c r="O79" s="26">
+        <v>2</v>
+      </c>
+      <c r="P79" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="26">
+        <v>1</v>
+      </c>
+      <c r="R79" s="26">
+        <v>0</v>
+      </c>
+      <c r="S79" s="26">
+        <v>100</v>
+      </c>
+      <c r="T79" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="U79" s="26">
+        <v>0</v>
+      </c>
+      <c r="V79" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="52" t="s">
         <v>258</v>
       </c>
       <c r="B80" s="26">
         <v>2004</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D80" s="26">
+        <v>4</v>
+      </c>
+      <c r="E80" s="26">
+        <v>0</v>
+      </c>
+      <c r="F80" s="26">
+        <v>0</v>
+      </c>
+      <c r="G80" s="26">
+        <v>0</v>
+      </c>
+      <c r="H80" s="26">
+        <v>0</v>
+      </c>
+      <c r="I80" s="26">
+        <v>0</v>
+      </c>
+      <c r="J80" s="26">
+        <v>0</v>
+      </c>
+      <c r="K80" s="26">
+        <v>0</v>
+      </c>
+      <c r="L80" s="26">
+        <v>0</v>
+      </c>
+      <c r="M80" s="26">
+        <v>0</v>
+      </c>
+      <c r="N80" s="26">
+        <v>1</v>
+      </c>
+      <c r="O80" s="26">
+        <v>4</v>
+      </c>
+      <c r="P80" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q80" s="26">
+        <v>0</v>
+      </c>
+      <c r="R80" s="26">
+        <v>2</v>
+      </c>
+      <c r="S80" s="26">
+        <v>100</v>
+      </c>
+      <c r="T80" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="U80" s="26">
+        <v>100</v>
+      </c>
+      <c r="V80" s="26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="52" t="s">
         <v>254</v>
       </c>
       <c r="B81" s="26">
         <v>2010</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D81" s="26">
+        <v>1</v>
+      </c>
+      <c r="E81" s="26">
+        <v>0</v>
+      </c>
+      <c r="F81" s="26">
+        <v>0</v>
+      </c>
+      <c r="G81" s="26">
+        <v>0</v>
+      </c>
+      <c r="H81" s="26">
+        <v>0</v>
+      </c>
+      <c r="I81" s="26">
+        <v>30</v>
+      </c>
+      <c r="J81" s="26">
+        <v>3</v>
+      </c>
+      <c r="K81" s="26">
+        <v>0</v>
+      </c>
+      <c r="L81" s="26">
+        <v>0</v>
+      </c>
+      <c r="M81" s="26">
+        <v>0</v>
+      </c>
+      <c r="N81" s="26">
+        <v>2</v>
+      </c>
+      <c r="O81" s="26">
+        <v>4</v>
+      </c>
+      <c r="P81" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q81" s="26">
+        <v>0</v>
+      </c>
+      <c r="R81" s="26">
+        <v>0</v>
+      </c>
+      <c r="S81" s="26">
+        <v>100</v>
+      </c>
+      <c r="T81" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="U81" s="26">
+        <v>0</v>
+      </c>
+      <c r="V81" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="52" t="s">
+        <v>260</v>
+      </c>
+      <c r="B82" s="26">
+        <v>2011</v>
+      </c>
+      <c r="D82" s="26">
+        <v>0</v>
+      </c>
+      <c r="E82" s="26">
+        <v>0</v>
+      </c>
+      <c r="F82" s="26">
+        <v>0</v>
+      </c>
+      <c r="G82" s="26">
+        <v>0</v>
+      </c>
+      <c r="H82" s="26">
+        <v>0</v>
+      </c>
+      <c r="I82" s="26">
+        <v>0</v>
+      </c>
+      <c r="J82" s="26">
+        <v>3</v>
+      </c>
+      <c r="K82" s="26">
+        <v>0</v>
+      </c>
+      <c r="L82" s="26">
+        <v>0</v>
+      </c>
+      <c r="M82" s="26">
+        <v>0</v>
+      </c>
+      <c r="N82" s="26">
+        <v>1</v>
+      </c>
+      <c r="O82" s="26">
+        <v>3</v>
+      </c>
+      <c r="P82" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q82" s="26">
+        <v>0</v>
+      </c>
+      <c r="R82" s="26">
+        <v>0</v>
+      </c>
+      <c r="S82" s="26">
+        <v>100</v>
+      </c>
+      <c r="T82" s="26" t="s">
+        <v>264</v>
+      </c>
+      <c r="U82" s="26">
+        <v>0</v>
+      </c>
+      <c r="V82" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A83" s="52" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="26">
+        <v>2012</v>
+      </c>
+      <c r="D83" s="26">
+        <v>0</v>
+      </c>
+      <c r="E83" s="26">
+        <v>0</v>
+      </c>
+      <c r="F83" s="26">
+        <v>0</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0</v>
+      </c>
+      <c r="H83" s="26">
+        <v>0</v>
+      </c>
+      <c r="I83" s="26">
+        <v>0</v>
+      </c>
+      <c r="J83" s="26">
+        <v>5</v>
+      </c>
+      <c r="K83" s="26">
+        <v>0</v>
+      </c>
+      <c r="L83" s="26">
+        <v>0</v>
+      </c>
+      <c r="M83" s="26">
+        <v>0</v>
+      </c>
+      <c r="N83" s="26">
+        <v>1</v>
+      </c>
+      <c r="O83" s="26">
+        <v>2</v>
+      </c>
+      <c r="P83" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q83" s="26">
+        <v>1</v>
+      </c>
+      <c r="R83" s="26">
+        <v>0</v>
+      </c>
+      <c r="S83" s="26">
+        <v>100</v>
+      </c>
+      <c r="T83" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="U83" s="26">
+        <v>0</v>
+      </c>
+      <c r="V83" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A84" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="B84" s="26">
+        <v>2013</v>
+      </c>
+      <c r="D84" s="26">
+        <v>0</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0</v>
+      </c>
+      <c r="F84" s="26">
+        <v>0</v>
+      </c>
+      <c r="G84" s="26">
+        <v>0</v>
+      </c>
+      <c r="H84" s="26">
+        <v>0</v>
+      </c>
+      <c r="I84" s="26">
+        <v>0</v>
+      </c>
+      <c r="J84" s="26">
+        <v>7</v>
+      </c>
+      <c r="K84" s="26">
+        <v>0</v>
+      </c>
+      <c r="L84" s="26">
+        <v>1</v>
+      </c>
+      <c r="M84" s="26">
+        <v>4</v>
+      </c>
+      <c r="N84" s="26">
+        <v>1</v>
+      </c>
+      <c r="O84" s="26">
+        <v>5</v>
+      </c>
+      <c r="P84" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q84" s="26">
+        <v>0</v>
+      </c>
+      <c r="R84" s="26">
+        <v>0</v>
+      </c>
+      <c r="S84" s="26">
+        <v>100</v>
+      </c>
+      <c r="T84" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="U84" s="26">
+        <v>0</v>
+      </c>
+      <c r="V84" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A85" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="B82" s="26">
+      <c r="B85" s="26">
         <v>2020</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="52" t="s">
+      <c r="D85" s="26">
+        <v>1</v>
+      </c>
+      <c r="E85" s="26">
+        <v>0</v>
+      </c>
+      <c r="F85" s="26">
+        <v>0</v>
+      </c>
+      <c r="G85" s="26">
+        <v>0</v>
+      </c>
+      <c r="H85" s="26">
+        <v>0</v>
+      </c>
+      <c r="I85" s="26">
+        <v>50</v>
+      </c>
+      <c r="J85" s="26">
+        <v>8</v>
+      </c>
+      <c r="K85" s="26">
+        <v>0</v>
+      </c>
+      <c r="L85" s="26">
+        <v>0</v>
+      </c>
+      <c r="M85" s="26">
+        <v>0</v>
+      </c>
+      <c r="N85" s="26">
+        <v>1</v>
+      </c>
+      <c r="O85" s="26">
+        <v>6</v>
+      </c>
+      <c r="P85" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q85" s="26">
+        <v>1</v>
+      </c>
+      <c r="R85" s="26">
+        <v>0</v>
+      </c>
+      <c r="S85" s="26">
+        <v>100</v>
+      </c>
+      <c r="T85" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U85" s="26">
+        <v>0</v>
+      </c>
+      <c r="V85" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A86" s="52" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="26">
+      <c r="B86" s="26">
         <v>2030</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="52" t="s">
+      <c r="D86" s="26">
+        <v>1</v>
+      </c>
+      <c r="E86" s="26">
+        <v>0</v>
+      </c>
+      <c r="F86" s="26">
+        <v>0</v>
+      </c>
+      <c r="G86" s="26">
+        <v>0</v>
+      </c>
+      <c r="H86" s="26">
+        <v>0</v>
+      </c>
+      <c r="I86" s="26">
+        <v>80</v>
+      </c>
+      <c r="J86" s="26">
+        <v>12</v>
+      </c>
+      <c r="K86" s="26">
+        <v>10</v>
+      </c>
+      <c r="L86" s="26">
+        <v>0</v>
+      </c>
+      <c r="M86" s="26">
+        <v>0</v>
+      </c>
+      <c r="N86" s="26">
+        <v>2</v>
+      </c>
+      <c r="O86" s="26">
+        <v>10</v>
+      </c>
+      <c r="P86" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q86" s="26">
+        <v>0</v>
+      </c>
+      <c r="R86" s="26">
+        <v>1</v>
+      </c>
+      <c r="S86" s="26">
+        <v>100</v>
+      </c>
+      <c r="T86" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U86" s="26">
+        <v>0</v>
+      </c>
+      <c r="V86" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A87" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="B84" s="26">
+      <c r="B87" s="26">
         <v>2040</v>
+      </c>
+      <c r="D87" s="26">
+        <v>1</v>
+      </c>
+      <c r="E87" s="26">
+        <v>0</v>
+      </c>
+      <c r="F87" s="26">
+        <v>0</v>
+      </c>
+      <c r="G87" s="26">
+        <v>0</v>
+      </c>
+      <c r="H87" s="26">
+        <v>0</v>
+      </c>
+      <c r="I87" s="26">
+        <v>120</v>
+      </c>
+      <c r="J87" s="26">
+        <v>20</v>
+      </c>
+      <c r="K87" s="26">
+        <v>0</v>
+      </c>
+      <c r="L87" s="26">
+        <v>0</v>
+      </c>
+      <c r="M87" s="26">
+        <v>0</v>
+      </c>
+      <c r="N87" s="26">
+        <v>2</v>
+      </c>
+      <c r="O87" s="26">
+        <v>20</v>
+      </c>
+      <c r="P87" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="26">
+        <v>0</v>
+      </c>
+      <c r="R87" s="26">
+        <v>2</v>
+      </c>
+      <c r="S87" s="26">
+        <v>503</v>
+      </c>
+      <c r="T87" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U87" s="26">
+        <v>100</v>
+      </c>
+      <c r="V87" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A88" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B88" s="26">
+        <v>2100</v>
+      </c>
+      <c r="D88" s="26">
+        <v>1</v>
+      </c>
+      <c r="E88" s="26">
+        <v>0</v>
+      </c>
+      <c r="F88" s="26">
+        <v>0</v>
+      </c>
+      <c r="G88" s="26">
+        <v>0</v>
+      </c>
+      <c r="H88" s="26">
+        <v>2</v>
+      </c>
+      <c r="I88" s="26">
+        <v>100</v>
+      </c>
+      <c r="J88" s="26">
+        <v>0</v>
+      </c>
+      <c r="K88" s="26">
+        <v>0</v>
+      </c>
+      <c r="L88" s="26">
+        <v>0</v>
+      </c>
+      <c r="M88" s="26">
+        <v>0</v>
+      </c>
+      <c r="N88" s="26">
+        <v>1</v>
+      </c>
+      <c r="O88" s="26">
+        <v>2</v>
+      </c>
+      <c r="P88" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q88" s="26">
+        <v>0</v>
+      </c>
+      <c r="R88" s="26">
+        <v>2</v>
+      </c>
+      <c r="S88" s="26">
+        <v>504</v>
+      </c>
+      <c r="T88" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="U88" s="26">
+        <v>100</v>
+      </c>
+      <c r="V88" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A89" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="26">
+        <v>2101</v>
+      </c>
+      <c r="D89" s="26">
+        <v>1</v>
+      </c>
+      <c r="E89" s="26">
+        <v>0</v>
+      </c>
+      <c r="F89" s="26">
+        <v>0</v>
+      </c>
+      <c r="G89" s="26">
+        <v>0</v>
+      </c>
+      <c r="H89" s="26">
+        <v>0</v>
+      </c>
+      <c r="I89" s="26">
+        <v>0</v>
+      </c>
+      <c r="J89" s="26">
+        <v>6</v>
+      </c>
+      <c r="K89" s="26">
+        <v>0</v>
+      </c>
+      <c r="L89" s="26">
+        <v>2</v>
+      </c>
+      <c r="M89" s="26">
+        <v>6</v>
+      </c>
+      <c r="N89" s="26">
+        <v>0</v>
+      </c>
+      <c r="O89" s="26">
+        <v>0</v>
+      </c>
+      <c r="P89" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="26">
+        <v>0</v>
+      </c>
+      <c r="R89" s="26">
+        <v>2</v>
+      </c>
+      <c r="S89" s="26">
+        <v>0</v>
+      </c>
+      <c r="T89" s="26">
+        <v>0</v>
+      </c>
+      <c r="U89" s="26">
+        <v>0</v>
+      </c>
+      <c r="V89" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A90" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B90" s="26">
+        <v>2102</v>
+      </c>
+      <c r="D90" s="26">
+        <v>1</v>
+      </c>
+      <c r="E90" s="26">
+        <v>0</v>
+      </c>
+      <c r="F90" s="26">
+        <v>0</v>
+      </c>
+      <c r="G90" s="26">
+        <v>0</v>
+      </c>
+      <c r="H90" s="26">
+        <v>0</v>
+      </c>
+      <c r="I90" s="26">
+        <v>0</v>
+      </c>
+      <c r="J90" s="26">
+        <v>20</v>
+      </c>
+      <c r="K90" s="26">
+        <v>0</v>
+      </c>
+      <c r="L90" s="26">
+        <v>2</v>
+      </c>
+      <c r="M90" s="26">
+        <v>6</v>
+      </c>
+      <c r="N90" s="26">
+        <v>0</v>
+      </c>
+      <c r="O90" s="26">
+        <v>0</v>
+      </c>
+      <c r="P90" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="26">
+        <v>0</v>
+      </c>
+      <c r="R90" s="26">
+        <v>3</v>
+      </c>
+      <c r="S90" s="26">
+        <v>299</v>
+      </c>
+      <c r="T90" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U90" s="26">
+        <v>0</v>
+      </c>
+      <c r="V90" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A91" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="26">
+        <v>2103</v>
+      </c>
+      <c r="D91" s="26">
+        <v>4</v>
+      </c>
+      <c r="E91" s="26">
+        <v>0</v>
+      </c>
+      <c r="F91" s="26">
+        <v>0</v>
+      </c>
+      <c r="G91" s="26">
+        <v>0</v>
+      </c>
+      <c r="H91" s="26">
+        <v>0</v>
+      </c>
+      <c r="I91" s="26">
+        <v>0</v>
+      </c>
+      <c r="J91" s="26">
+        <v>0</v>
+      </c>
+      <c r="K91" s="26">
+        <v>0</v>
+      </c>
+      <c r="L91" s="26">
+        <v>0</v>
+      </c>
+      <c r="M91" s="26">
+        <v>0</v>
+      </c>
+      <c r="N91" s="26">
+        <v>1</v>
+      </c>
+      <c r="O91" s="26">
+        <v>2</v>
+      </c>
+      <c r="P91" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="26">
+        <v>1</v>
+      </c>
+      <c r="R91" s="26">
+        <v>0</v>
+      </c>
+      <c r="S91" s="26">
+        <v>100</v>
+      </c>
+      <c r="T91" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U91" s="26">
+        <v>0</v>
+      </c>
+      <c r="V91" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A92" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B92" s="26">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A93" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" s="26">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A94" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" s="26">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A95" s="52" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="26">
+        <v>2140</v>
       </c>
     </row>
   </sheetData>

--- a/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
+++ b/액션&경영 RPG/데이터테이블/리트루기아_스킬테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\액션&amp;경영 RPG\데이터테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C564D7-1F32-4F4C-8B9C-6BB5E16EF8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D36414-0C31-4BD1-A4C6-BB988E5C964B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15588" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -2023,7 +2023,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="299">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3416,6 +3416,70 @@
   <si>
     <t>[40/1]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[40/2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5/30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[220/1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[120/3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스태프 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>스태프 이동기</t>
+  </si>
+  <si>
+    <t>스태프 기상기</t>
+  </si>
+  <si>
+    <t>스태프 일반공격</t>
+  </si>
+  <si>
+    <t>스태프 1번 스킬</t>
+  </si>
+  <si>
+    <t>스태프 2번 스킬</t>
+  </si>
+  <si>
+    <t>스태프 3번 스킬</t>
+  </si>
+  <si>
+    <t>스태프 4번 스킬</t>
+  </si>
+  <si>
+    <t>대검 스위칭 스킬</t>
+  </si>
+  <si>
+    <t>대검 이동기</t>
+  </si>
+  <si>
+    <t>대검 기상기</t>
+  </si>
+  <si>
+    <t>대검 일반공격</t>
+  </si>
+  <si>
+    <t>대검 1번 스킬</t>
+  </si>
+  <si>
+    <t>대검 2번 스킬</t>
+  </si>
+  <si>
+    <t>대검 3번 스킬</t>
+  </si>
+  <si>
+    <t>대검 4번 스킬</t>
   </si>
 </sst>
 </file>
@@ -5397,8 +5461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O57"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView topLeftCell="E3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6421,13 +6485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECFB1703-46B0-4324-B9D8-F215352B3D7B}">
-  <dimension ref="A1:Z95"/>
+  <dimension ref="A1:Z111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B58" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C68" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D92" sqref="D92"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7644,530 +7708,74 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" s="52" t="s">
-        <v>157</v>
+        <v>291</v>
       </c>
       <c r="B19" s="26">
-        <v>1300</v>
-      </c>
-      <c r="D19" s="26">
-        <v>1</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
-        <v>0</v>
-      </c>
-      <c r="H19" s="26">
-        <v>2</v>
-      </c>
-      <c r="I19" s="26">
-        <v>100</v>
-      </c>
-      <c r="J19" s="26">
-        <v>0</v>
-      </c>
-      <c r="K19" s="26">
-        <v>0</v>
-      </c>
-      <c r="L19" s="26">
-        <v>0</v>
-      </c>
-      <c r="M19" s="26">
-        <v>0</v>
-      </c>
-      <c r="N19" s="26">
-        <v>1</v>
-      </c>
-      <c r="O19" s="26">
-        <v>6</v>
-      </c>
-      <c r="P19" s="26">
-        <v>3</v>
-      </c>
-      <c r="Q19" s="26">
-        <v>1</v>
-      </c>
-      <c r="R19" s="26">
-        <v>2</v>
-      </c>
-      <c r="S19" s="26">
-        <v>100</v>
-      </c>
-      <c r="T19" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="U19" s="26">
-        <v>204</v>
-      </c>
-      <c r="V19" s="26" t="s">
-        <v>166</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A20" s="52" t="s">
-        <v>158</v>
+        <v>292</v>
       </c>
       <c r="B20" s="26">
-        <v>1301</v>
-      </c>
-      <c r="D20" s="26">
-        <v>1</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="26">
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
-        <v>8</v>
-      </c>
-      <c r="K20" s="26">
-        <v>0</v>
-      </c>
-      <c r="L20" s="26">
-        <v>2</v>
-      </c>
-      <c r="M20" s="26">
-        <v>5</v>
-      </c>
-      <c r="N20" s="26">
-        <v>0</v>
-      </c>
-      <c r="O20" s="26">
-        <v>0</v>
-      </c>
-      <c r="P20" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="26">
-        <v>0</v>
-      </c>
-      <c r="R20" s="26">
-        <v>2</v>
-      </c>
-      <c r="S20" s="26">
-        <v>0</v>
-      </c>
-      <c r="T20" s="26">
-        <v>0</v>
-      </c>
-      <c r="U20" s="26">
-        <v>0</v>
-      </c>
-      <c r="V20" s="26">
-        <v>0</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" s="52" t="s">
-        <v>159</v>
+        <v>293</v>
       </c>
       <c r="B21" s="26">
-        <v>1302</v>
-      </c>
-      <c r="D21" s="26">
-        <v>1</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="26">
-        <v>0</v>
-      </c>
-      <c r="J21" s="26">
-        <v>25</v>
-      </c>
-      <c r="K21" s="26">
-        <v>0</v>
-      </c>
-      <c r="L21" s="26">
-        <v>2</v>
-      </c>
-      <c r="M21" s="26">
-        <v>5</v>
-      </c>
-      <c r="N21" s="26">
-        <v>0</v>
-      </c>
-      <c r="O21" s="26">
-        <v>0</v>
-      </c>
-      <c r="P21" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="26">
-        <v>0</v>
-      </c>
-      <c r="R21" s="26">
-        <v>3</v>
-      </c>
-      <c r="S21" s="26">
-        <v>299</v>
-      </c>
-      <c r="T21" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="U21" s="26">
-        <v>0</v>
-      </c>
-      <c r="V21" s="26">
-        <v>0</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A22" s="52" t="s">
-        <v>160</v>
+        <v>294</v>
       </c>
       <c r="B22" s="26">
-        <v>1303</v>
-      </c>
-      <c r="D22" s="26">
-        <v>4</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
-        <v>0</v>
-      </c>
-      <c r="H22" s="26">
-        <v>0</v>
-      </c>
-      <c r="I22" s="26">
-        <v>0</v>
-      </c>
-      <c r="J22" s="26">
-        <v>0</v>
-      </c>
-      <c r="K22" s="26">
-        <v>0</v>
-      </c>
-      <c r="L22" s="26">
-        <v>1</v>
-      </c>
-      <c r="M22" s="26">
-        <v>1.5</v>
-      </c>
-      <c r="N22" s="26">
-        <v>1</v>
-      </c>
-      <c r="O22" s="26">
-        <v>2</v>
-      </c>
-      <c r="P22" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="26">
-        <v>0</v>
-      </c>
-      <c r="R22" s="26">
-        <v>0</v>
-      </c>
-      <c r="S22" s="26">
-        <v>100</v>
-      </c>
-      <c r="T22" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="U22" s="26">
-        <v>0</v>
-      </c>
-      <c r="V22" s="26">
-        <v>0</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A23" s="52" t="s">
-        <v>161</v>
+        <v>295</v>
       </c>
       <c r="B23" s="26">
-        <v>1310</v>
-      </c>
-      <c r="D23" s="26">
-        <v>1</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
-        <v>0</v>
-      </c>
-      <c r="H23" s="26">
-        <v>0</v>
-      </c>
-      <c r="I23" s="26">
-        <v>20</v>
-      </c>
-      <c r="J23" s="26">
-        <v>5</v>
-      </c>
-      <c r="K23" s="26">
-        <v>0</v>
-      </c>
-      <c r="L23" s="26">
-        <v>2</v>
-      </c>
-      <c r="M23" s="26">
-        <v>4</v>
-      </c>
-      <c r="N23" s="26">
-        <v>1</v>
-      </c>
-      <c r="O23" s="26">
-        <v>4</v>
-      </c>
-      <c r="P23" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q23" s="26">
-        <v>0</v>
-      </c>
-      <c r="R23" s="26">
-        <v>1</v>
-      </c>
-      <c r="S23" s="26">
-        <v>100</v>
-      </c>
-      <c r="T23" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="U23" s="26">
-        <v>0</v>
-      </c>
-      <c r="V23" s="26">
-        <v>0</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" s="52" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
       <c r="B24" s="26">
-        <v>1320</v>
-      </c>
-      <c r="D24" s="26">
-        <v>1</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
-        <v>0</v>
-      </c>
-      <c r="H24" s="26">
-        <v>0</v>
-      </c>
-      <c r="I24" s="26">
-        <v>40</v>
-      </c>
-      <c r="J24" s="26">
-        <v>6</v>
-      </c>
-      <c r="K24" s="26">
-        <v>0</v>
-      </c>
-      <c r="L24" s="26">
-        <v>0</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26">
-        <v>1</v>
-      </c>
-      <c r="O24" s="26">
-        <v>3</v>
-      </c>
-      <c r="P24" s="26">
-        <v>6</v>
-      </c>
-      <c r="Q24" s="26">
-        <v>0</v>
-      </c>
-      <c r="R24" s="26">
-        <v>1</v>
-      </c>
-      <c r="S24" s="26">
-        <v>100</v>
-      </c>
-      <c r="T24" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="U24" s="26">
-        <v>204</v>
-      </c>
-      <c r="V24" s="26" t="s">
-        <v>153</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25" s="52" t="s">
-        <v>163</v>
+        <v>297</v>
       </c>
       <c r="B25" s="26">
-        <v>1330</v>
-      </c>
-      <c r="D25" s="26">
-        <v>1</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
-        <v>0</v>
-      </c>
-      <c r="H25" s="26">
-        <v>0</v>
-      </c>
-      <c r="I25" s="26">
-        <v>70</v>
-      </c>
-      <c r="J25" s="26">
-        <v>10</v>
-      </c>
-      <c r="K25" s="26">
-        <v>0</v>
-      </c>
-      <c r="L25" s="26">
-        <v>0</v>
-      </c>
-      <c r="M25" s="26">
-        <v>0</v>
-      </c>
-      <c r="N25" s="26">
-        <v>2</v>
-      </c>
-      <c r="O25" s="26">
-        <v>10</v>
-      </c>
-      <c r="P25" s="26">
-        <v>6.28</v>
-      </c>
-      <c r="Q25" s="26">
-        <v>0</v>
-      </c>
-      <c r="R25" s="26">
-        <v>2</v>
-      </c>
-      <c r="S25" s="26">
-        <v>100</v>
-      </c>
-      <c r="T25" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="U25" s="26">
-        <v>299</v>
-      </c>
-      <c r="V25" s="26" t="s">
-        <v>171</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" s="52" t="s">
-        <v>164</v>
+        <v>298</v>
       </c>
       <c r="B26" s="26">
-        <v>1340</v>
-      </c>
-      <c r="D26" s="26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="26">
-        <v>100</v>
-      </c>
-      <c r="F26" s="26">
-        <v>90</v>
-      </c>
-      <c r="G26" s="26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="26">
-        <v>150</v>
-      </c>
-      <c r="J26" s="26">
-        <v>25</v>
-      </c>
-      <c r="K26" s="26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="26">
-        <v>0</v>
-      </c>
-      <c r="M26" s="26">
-        <v>0</v>
-      </c>
-      <c r="N26" s="26">
-        <v>1</v>
-      </c>
-      <c r="O26" s="26">
-        <v>6</v>
-      </c>
-      <c r="P26" s="26">
-        <v>15</v>
-      </c>
-      <c r="Q26" s="26">
-        <v>1</v>
-      </c>
-      <c r="R26" s="26">
-        <v>0</v>
-      </c>
-      <c r="S26" s="26">
-        <v>100</v>
-      </c>
-      <c r="T26" s="26" t="s">
-        <v>236</v>
-      </c>
-      <c r="U26" s="26">
-        <v>0</v>
-      </c>
-      <c r="V26" s="26">
-        <v>0</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27" s="52" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="B27" s="26">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D27" s="26">
         <v>1</v>
@@ -8203,13 +7811,13 @@
         <v>1</v>
       </c>
       <c r="O27" s="26">
+        <v>6</v>
+      </c>
+      <c r="P27" s="26">
         <v>3</v>
       </c>
-      <c r="P27" s="26">
-        <v>5</v>
-      </c>
       <c r="Q27" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="26">
         <v>2</v>
@@ -8218,21 +7826,21 @@
         <v>100</v>
       </c>
       <c r="T27" s="26" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="U27" s="26">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="V27" s="26" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28" s="52" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B28" s="26">
-        <v>1401</v>
+        <v>1301</v>
       </c>
       <c r="D28" s="26">
         <v>1</v>
@@ -8262,7 +7870,7 @@
         <v>2</v>
       </c>
       <c r="M28" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N28" s="26">
         <v>0</v>
@@ -8294,10 +7902,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29" s="52" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B29" s="26">
-        <v>1402</v>
+        <v>1302</v>
       </c>
       <c r="D29" s="26">
         <v>1</v>
@@ -8318,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K29" s="26">
         <v>0</v>
@@ -8327,7 +7935,7 @@
         <v>2</v>
       </c>
       <c r="M29" s="26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" s="26">
         <v>0</v>
@@ -8359,10 +7967,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30" s="52" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="B30" s="26">
-        <v>1403</v>
+        <v>1303</v>
       </c>
       <c r="D30" s="26">
         <v>4</v>
@@ -8389,19 +7997,19 @@
         <v>0</v>
       </c>
       <c r="L30" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N30" s="26">
         <v>1</v>
       </c>
       <c r="O30" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P30" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q30" s="26">
         <v>0</v>
@@ -8413,7 +8021,7 @@
         <v>100</v>
       </c>
       <c r="T30" s="26" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="U30" s="26">
         <v>0</v>
@@ -8424,10 +8032,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31" s="52" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="B31" s="26">
-        <v>1410</v>
+        <v>1310</v>
       </c>
       <c r="D31" s="26">
         <v>1</v>
@@ -8448,7 +8056,7 @@
         <v>20</v>
       </c>
       <c r="J31" s="26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K31" s="26">
         <v>0</v>
@@ -8457,16 +8065,16 @@
         <v>2</v>
       </c>
       <c r="M31" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" s="26">
         <v>1</v>
       </c>
       <c r="O31" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P31" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q31" s="26">
         <v>0</v>
@@ -8478,7 +8086,7 @@
         <v>100</v>
       </c>
       <c r="T31" s="26" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="U31" s="26">
         <v>0</v>
@@ -8489,84 +8097,84 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32" s="52" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="B32" s="26">
-        <v>1420</v>
+        <v>1320</v>
       </c>
       <c r="D32" s="26">
+        <v>1</v>
+      </c>
+      <c r="E32" s="26">
+        <v>0</v>
+      </c>
+      <c r="F32" s="26">
+        <v>0</v>
+      </c>
+      <c r="G32" s="26">
+        <v>0</v>
+      </c>
+      <c r="H32" s="26">
+        <v>0</v>
+      </c>
+      <c r="I32" s="26">
+        <v>40</v>
+      </c>
+      <c r="J32" s="26">
+        <v>6</v>
+      </c>
+      <c r="K32" s="26">
+        <v>0</v>
+      </c>
+      <c r="L32" s="26">
+        <v>0</v>
+      </c>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="26">
+        <v>1</v>
+      </c>
+      <c r="O32" s="26">
         <v>3</v>
       </c>
-      <c r="E32" s="26">
-        <v>5</v>
-      </c>
-      <c r="F32" s="26">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
-        <v>0</v>
-      </c>
-      <c r="H32" s="26">
-        <v>0</v>
-      </c>
-      <c r="I32" s="26">
-        <v>35</v>
-      </c>
-      <c r="J32" s="26">
-        <v>8</v>
-      </c>
-      <c r="K32" s="26">
-        <v>0</v>
-      </c>
-      <c r="L32" s="26">
-        <v>0</v>
-      </c>
-      <c r="M32" s="26">
-        <v>0</v>
-      </c>
-      <c r="N32" s="26">
-        <v>1</v>
-      </c>
-      <c r="O32" s="26">
-        <v>4</v>
-      </c>
       <c r="P32" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q32" s="26">
         <v>0</v>
       </c>
       <c r="R32" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S32" s="26">
         <v>100</v>
       </c>
       <c r="T32" s="26" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="U32" s="26">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="V32" s="26" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A33" s="52" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B33" s="26">
-        <v>1430</v>
+        <v>1330</v>
       </c>
       <c r="D33" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="26">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G33" s="26">
         <v>0</v>
@@ -8575,10 +8183,10 @@
         <v>0</v>
       </c>
       <c r="I33" s="26">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="J33" s="26">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K33" s="26">
         <v>0</v>
@@ -8590,13 +8198,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="26">
         <v>10</v>
       </c>
       <c r="P33" s="26">
-        <v>10</v>
+        <v>6.28</v>
       </c>
       <c r="Q33" s="26">
         <v>0</v>
@@ -8608,30 +8216,30 @@
         <v>100</v>
       </c>
       <c r="T33" s="26" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="U33" s="26">
-        <v>210</v>
+        <v>299</v>
       </c>
       <c r="V33" s="26" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34" s="52" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="B34" s="26">
-        <v>1440</v>
+        <v>1340</v>
       </c>
       <c r="D34" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" s="26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F34" s="26">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G34" s="26">
         <v>0</v>
@@ -8640,10 +8248,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="26">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="J34" s="26">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K34" s="26">
         <v>0</v>
@@ -8658,13 +8266,13 @@
         <v>1</v>
       </c>
       <c r="O34" s="26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P34" s="26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q34" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="26">
         <v>0</v>
@@ -8673,7 +8281,7 @@
         <v>100</v>
       </c>
       <c r="T34" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="U34" s="26">
         <v>0</v>
@@ -8684,10 +8292,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A35" s="52" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B35" s="26">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="D35" s="26">
         <v>1</v>
@@ -8726,7 +8334,7 @@
         <v>3</v>
       </c>
       <c r="P35" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q35" s="26">
         <v>0</v>
@@ -8738,21 +8346,21 @@
         <v>100</v>
       </c>
       <c r="T35" s="26" t="s">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="U35" s="26">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="V35" s="26" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" s="52" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="B36" s="26">
-        <v>1501</v>
+        <v>1401</v>
       </c>
       <c r="D36" s="26">
         <v>1</v>
@@ -8773,7 +8381,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K36" s="26">
         <v>0</v>
@@ -8782,7 +8390,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N36" s="26">
         <v>0</v>
@@ -8814,10 +8422,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A37" s="52" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B37" s="26">
-        <v>1502</v>
+        <v>1402</v>
       </c>
       <c r="D37" s="26">
         <v>1</v>
@@ -8838,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K37" s="26">
         <v>0</v>
@@ -8847,7 +8455,7 @@
         <v>2</v>
       </c>
       <c r="M37" s="26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N37" s="26">
         <v>0</v>
@@ -8879,10 +8487,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" s="52" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="B38" s="26">
-        <v>1503</v>
+        <v>1403</v>
       </c>
       <c r="D38" s="26">
         <v>4</v>
@@ -8918,10 +8526,10 @@
         <v>1</v>
       </c>
       <c r="O38" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P38" s="26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q38" s="26">
         <v>0</v>
@@ -8933,7 +8541,7 @@
         <v>100</v>
       </c>
       <c r="T38" s="26" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="U38" s="26">
         <v>0</v>
@@ -8944,10 +8552,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A39" s="52" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B39" s="26">
-        <v>1510</v>
+        <v>1410</v>
       </c>
       <c r="D39" s="26">
         <v>1</v>
@@ -8968,16 +8576,16 @@
         <v>20</v>
       </c>
       <c r="J39" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K39" s="26">
         <v>0</v>
       </c>
       <c r="L39" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M39" s="26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N39" s="26">
         <v>1</v>
@@ -8992,13 +8600,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S39" s="26">
         <v>100</v>
       </c>
       <c r="T39" s="26" t="s">
-        <v>183</v>
+        <v>119</v>
       </c>
       <c r="U39" s="26">
         <v>0</v>
@@ -9009,16 +8617,16 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A40" s="52" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B40" s="26">
-        <v>1520</v>
+        <v>1420</v>
       </c>
       <c r="D40" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E40" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" s="26">
         <v>0</v>
@@ -9030,10 +8638,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="26">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J40" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K40" s="26">
         <v>0</v>
@@ -9057,36 +8665,36 @@
         <v>0</v>
       </c>
       <c r="R40" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S40" s="26">
         <v>100</v>
       </c>
       <c r="T40" s="26" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="U40" s="26">
-        <v>0</v>
-      </c>
-      <c r="V40" s="26">
-        <v>0</v>
+        <v>211</v>
+      </c>
+      <c r="V40" s="26" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41" s="52" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B41" s="26">
-        <v>1530</v>
+        <v>1430</v>
       </c>
       <c r="D41" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F41" s="26">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="G41" s="26">
         <v>0</v>
@@ -9095,28 +8703,28 @@
         <v>0</v>
       </c>
       <c r="I41" s="26">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J41" s="26">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="K41" s="26">
         <v>0</v>
       </c>
       <c r="L41" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" s="26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N41" s="26">
         <v>1</v>
       </c>
       <c r="O41" s="26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P41" s="26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q41" s="26">
         <v>0</v>
@@ -9128,21 +8736,21 @@
         <v>100</v>
       </c>
       <c r="T41" s="26" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="U41" s="26">
-        <v>420</v>
+        <v>210</v>
       </c>
       <c r="V41" s="26" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" s="52" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="B42" s="26">
-        <v>1540</v>
+        <v>1440</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
@@ -9160,10 +8768,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="26">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="J42" s="26">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="K42" s="26">
         <v>0</v>
@@ -9178,22 +8786,22 @@
         <v>1</v>
       </c>
       <c r="O42" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P42" s="26">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q42" s="26">
         <v>0</v>
       </c>
       <c r="R42" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S42" s="26">
         <v>100</v>
       </c>
       <c r="T42" s="26" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="U42" s="26">
         <v>0</v>
@@ -9204,10 +8812,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43" s="52" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B43" s="26">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="D43" s="26">
         <v>1</v>
@@ -9243,10 +8851,10 @@
         <v>1</v>
       </c>
       <c r="O43" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P43" s="26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" s="26">
         <v>0</v>
@@ -9258,21 +8866,21 @@
         <v>100</v>
       </c>
       <c r="T43" s="26" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="U43" s="26">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="V43" s="26" t="s">
-        <v>199</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44" s="52" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B44" s="26">
-        <v>1601</v>
+        <v>1501</v>
       </c>
       <c r="D44" s="26">
         <v>1</v>
@@ -9293,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="26">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K44" s="26">
         <v>0</v>
@@ -9302,7 +8910,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N44" s="26">
         <v>0</v>
@@ -9334,10 +8942,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" s="52" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B45" s="26">
-        <v>1602</v>
+        <v>1502</v>
       </c>
       <c r="D45" s="26">
         <v>1</v>
@@ -9358,7 +8966,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="26">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K45" s="26">
         <v>0</v>
@@ -9367,7 +8975,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N45" s="26">
         <v>0</v>
@@ -9399,50 +9007,335 @@
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46" s="52" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B46" s="26">
-        <v>1603</v>
+        <v>1503</v>
+      </c>
+      <c r="D46" s="26">
+        <v>4</v>
+      </c>
+      <c r="E46" s="26">
+        <v>0</v>
+      </c>
+      <c r="F46" s="26">
+        <v>0</v>
+      </c>
+      <c r="G46" s="26">
+        <v>0</v>
+      </c>
+      <c r="H46" s="26">
+        <v>0</v>
+      </c>
+      <c r="I46" s="26">
+        <v>0</v>
+      </c>
+      <c r="J46" s="26">
+        <v>0</v>
+      </c>
+      <c r="K46" s="26">
+        <v>0</v>
+      </c>
+      <c r="L46" s="26">
+        <v>0</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+      <c r="N46" s="26">
+        <v>1</v>
+      </c>
+      <c r="O46" s="26">
+        <v>2</v>
+      </c>
+      <c r="P46" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q46" s="26">
+        <v>0</v>
+      </c>
+      <c r="R46" s="26">
+        <v>0</v>
+      </c>
+      <c r="S46" s="26">
+        <v>100</v>
+      </c>
+      <c r="T46" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="U46" s="26">
+        <v>0</v>
+      </c>
+      <c r="V46" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47" s="52" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B47" s="26">
-        <v>1610</v>
+        <v>1510</v>
+      </c>
+      <c r="D47" s="26">
+        <v>1</v>
+      </c>
+      <c r="E47" s="26">
+        <v>0</v>
+      </c>
+      <c r="F47" s="26">
+        <v>0</v>
+      </c>
+      <c r="G47" s="26">
+        <v>0</v>
+      </c>
+      <c r="H47" s="26">
+        <v>0</v>
+      </c>
+      <c r="I47" s="26">
+        <v>20</v>
+      </c>
+      <c r="J47" s="26">
+        <v>4</v>
+      </c>
+      <c r="K47" s="26">
+        <v>0</v>
+      </c>
+      <c r="L47" s="26">
+        <v>1</v>
+      </c>
+      <c r="M47" s="26">
+        <v>2</v>
+      </c>
+      <c r="N47" s="26">
+        <v>1</v>
+      </c>
+      <c r="O47" s="26">
+        <v>3</v>
+      </c>
+      <c r="P47" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="26">
+        <v>0</v>
+      </c>
+      <c r="R47" s="26">
+        <v>0</v>
+      </c>
+      <c r="S47" s="26">
+        <v>100</v>
+      </c>
+      <c r="T47" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="U47" s="26">
+        <v>0</v>
+      </c>
+      <c r="V47" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48" s="52" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B48" s="26">
-        <v>1620</v>
+        <v>1520</v>
+      </c>
+      <c r="D48" s="26">
+        <v>1</v>
+      </c>
+      <c r="E48" s="26">
+        <v>0</v>
+      </c>
+      <c r="F48" s="26">
+        <v>0</v>
+      </c>
+      <c r="G48" s="26">
+        <v>0</v>
+      </c>
+      <c r="H48" s="26">
+        <v>0</v>
+      </c>
+      <c r="I48" s="26">
+        <v>30</v>
+      </c>
+      <c r="J48" s="26">
+        <v>6</v>
+      </c>
+      <c r="K48" s="26">
+        <v>0</v>
+      </c>
+      <c r="L48" s="26">
+        <v>0</v>
+      </c>
+      <c r="M48" s="26">
+        <v>0</v>
+      </c>
+      <c r="N48" s="26">
+        <v>1</v>
+      </c>
+      <c r="O48" s="26">
+        <v>4</v>
+      </c>
+      <c r="P48" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="26">
+        <v>0</v>
+      </c>
+      <c r="R48" s="26">
+        <v>1</v>
+      </c>
+      <c r="S48" s="26">
+        <v>100</v>
+      </c>
+      <c r="T48" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="U48" s="26">
+        <v>0</v>
+      </c>
+      <c r="V48" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49" s="52" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B49" s="26">
-        <v>1630</v>
+        <v>1530</v>
+      </c>
+      <c r="D49" s="26">
+        <v>1</v>
+      </c>
+      <c r="E49" s="26">
+        <v>0</v>
+      </c>
+      <c r="F49" s="26">
+        <v>0</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0</v>
+      </c>
+      <c r="H49" s="26">
+        <v>0</v>
+      </c>
+      <c r="I49" s="26">
+        <v>50</v>
+      </c>
+      <c r="J49" s="26">
+        <v>9</v>
+      </c>
+      <c r="K49" s="26">
+        <v>0</v>
+      </c>
+      <c r="L49" s="26">
+        <v>1</v>
+      </c>
+      <c r="M49" s="26">
+        <v>5</v>
+      </c>
+      <c r="N49" s="26">
+        <v>1</v>
+      </c>
+      <c r="O49" s="26">
+        <v>6</v>
+      </c>
+      <c r="P49" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q49" s="26">
+        <v>0</v>
+      </c>
+      <c r="R49" s="26">
+        <v>2</v>
+      </c>
+      <c r="S49" s="26">
+        <v>100</v>
+      </c>
+      <c r="T49" s="26" t="s">
+        <v>198</v>
+      </c>
+      <c r="U49" s="26">
+        <v>420</v>
+      </c>
+      <c r="V49" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50" s="52" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B50" s="26">
-        <v>1640</v>
+        <v>1540</v>
+      </c>
+      <c r="D50" s="26">
+        <v>1</v>
+      </c>
+      <c r="E50" s="26">
+        <v>0</v>
+      </c>
+      <c r="F50" s="26">
+        <v>0</v>
+      </c>
+      <c r="G50" s="26">
+        <v>0</v>
+      </c>
+      <c r="H50" s="26">
+        <v>0</v>
+      </c>
+      <c r="I50" s="26">
+        <v>90</v>
+      </c>
+      <c r="J50" s="26">
+        <v>15</v>
+      </c>
+      <c r="K50" s="26">
+        <v>0</v>
+      </c>
+      <c r="L50" s="26">
+        <v>0</v>
+      </c>
+      <c r="M50" s="26">
+        <v>0</v>
+      </c>
+      <c r="N50" s="26">
+        <v>1</v>
+      </c>
+      <c r="O50" s="26">
+        <v>10</v>
+      </c>
+      <c r="P50" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="26">
+        <v>0</v>
+      </c>
+      <c r="R50" s="26">
+        <v>2</v>
+      </c>
+      <c r="S50" s="26">
+        <v>100</v>
+      </c>
+      <c r="T50" s="26" t="s">
+        <v>238</v>
+      </c>
+      <c r="U50" s="26">
+        <v>0</v>
+      </c>
+      <c r="V50" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A51" s="52" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B51" s="26">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="D51" s="26">
         <v>1</v>
@@ -9478,10 +9371,10 @@
         <v>1</v>
       </c>
       <c r="O51" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P51" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q51" s="26">
         <v>0</v>
@@ -9493,21 +9386,21 @@
         <v>100</v>
       </c>
       <c r="T51" s="26" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="U51" s="26">
-        <v>0</v>
-      </c>
-      <c r="V51" s="26">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="V51" s="26" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A52" s="52" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B52" s="26">
-        <v>1701</v>
+        <v>1601</v>
       </c>
       <c r="D52" s="26">
         <v>1</v>
@@ -9569,10 +9462,10 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A53" s="52" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B53" s="26">
-        <v>1702</v>
+        <v>1602</v>
       </c>
       <c r="D53" s="26">
         <v>1</v>
@@ -9634,335 +9527,50 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54" s="52" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B54" s="26">
-        <v>1703</v>
-      </c>
-      <c r="D54" s="26">
-        <v>4</v>
-      </c>
-      <c r="E54" s="26">
-        <v>0</v>
-      </c>
-      <c r="F54" s="26">
-        <v>0</v>
-      </c>
-      <c r="G54" s="26">
-        <v>0</v>
-      </c>
-      <c r="H54" s="26">
-        <v>0</v>
-      </c>
-      <c r="I54" s="26">
-        <v>0</v>
-      </c>
-      <c r="J54" s="26">
-        <v>0</v>
-      </c>
-      <c r="K54" s="26">
-        <v>0</v>
-      </c>
-      <c r="L54" s="26">
-        <v>0</v>
-      </c>
-      <c r="M54" s="26">
-        <v>0</v>
-      </c>
-      <c r="N54" s="26">
-        <v>1</v>
-      </c>
-      <c r="O54" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="P54" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="Q54" s="26">
-        <v>0</v>
-      </c>
-      <c r="R54" s="26">
-        <v>0</v>
-      </c>
-      <c r="S54" s="26">
-        <v>100</v>
-      </c>
-      <c r="T54" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="U54" s="26">
-        <v>0</v>
-      </c>
-      <c r="V54" s="26">
-        <v>0</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" s="52" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B55" s="26">
-        <v>1710</v>
-      </c>
-      <c r="D55" s="26">
-        <v>1</v>
-      </c>
-      <c r="E55" s="26">
-        <v>0</v>
-      </c>
-      <c r="F55" s="26">
-        <v>0</v>
-      </c>
-      <c r="G55" s="26">
-        <v>0</v>
-      </c>
-      <c r="H55" s="26">
-        <v>0</v>
-      </c>
-      <c r="I55" s="26">
-        <v>15</v>
-      </c>
-      <c r="J55" s="26">
-        <v>5</v>
-      </c>
-      <c r="K55" s="26">
-        <v>0</v>
-      </c>
-      <c r="L55" s="26">
-        <v>0</v>
-      </c>
-      <c r="M55" s="26">
-        <v>0</v>
-      </c>
-      <c r="N55" s="26">
-        <v>1</v>
-      </c>
-      <c r="O55" s="26">
-        <v>2</v>
-      </c>
-      <c r="P55" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q55" s="26">
-        <v>0</v>
-      </c>
-      <c r="R55" s="26">
-        <v>0</v>
-      </c>
-      <c r="S55" s="26">
-        <v>100</v>
-      </c>
-      <c r="T55" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="U55" s="26">
-        <v>0</v>
-      </c>
-      <c r="V55" s="26">
-        <v>0</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56" s="52" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B56" s="26">
-        <v>1720</v>
-      </c>
-      <c r="D56" s="26">
-        <v>1</v>
-      </c>
-      <c r="E56" s="26">
-        <v>0</v>
-      </c>
-      <c r="F56" s="26">
-        <v>0</v>
-      </c>
-      <c r="G56" s="26">
-        <v>0</v>
-      </c>
-      <c r="H56" s="26">
-        <v>0</v>
-      </c>
-      <c r="I56" s="26">
-        <v>30</v>
-      </c>
-      <c r="J56" s="26">
-        <v>8</v>
-      </c>
-      <c r="K56" s="26">
-        <v>0</v>
-      </c>
-      <c r="L56" s="26">
-        <v>0</v>
-      </c>
-      <c r="M56" s="26">
-        <v>0</v>
-      </c>
-      <c r="N56" s="26">
-        <v>1</v>
-      </c>
-      <c r="O56" s="26">
-        <v>4</v>
-      </c>
-      <c r="P56" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q56" s="26">
-        <v>0</v>
-      </c>
-      <c r="R56" s="26">
-        <v>0</v>
-      </c>
-      <c r="S56" s="26">
-        <v>100</v>
-      </c>
-      <c r="T56" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="U56" s="26">
-        <v>0</v>
-      </c>
-      <c r="V56" s="26">
-        <v>0</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57" s="52" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B57" s="26">
-        <v>1730</v>
-      </c>
-      <c r="D57" s="26">
-        <v>1</v>
-      </c>
-      <c r="E57" s="26">
-        <v>0</v>
-      </c>
-      <c r="F57" s="26">
-        <v>0</v>
-      </c>
-      <c r="G57" s="26">
-        <v>0</v>
-      </c>
-      <c r="H57" s="26">
-        <v>0</v>
-      </c>
-      <c r="I57" s="26">
-        <v>40</v>
-      </c>
-      <c r="J57" s="26">
-        <v>10</v>
-      </c>
-      <c r="K57" s="26">
-        <v>0</v>
-      </c>
-      <c r="L57" s="26">
-        <v>1</v>
-      </c>
-      <c r="M57" s="26">
-        <v>4</v>
-      </c>
-      <c r="N57" s="26">
-        <v>1</v>
-      </c>
-      <c r="O57" s="26">
-        <v>3</v>
-      </c>
-      <c r="P57" s="26">
-        <v>5</v>
-      </c>
-      <c r="Q57" s="26">
-        <v>1</v>
-      </c>
-      <c r="R57" s="26">
-        <v>1</v>
-      </c>
-      <c r="S57" s="26">
-        <v>100</v>
-      </c>
-      <c r="T57" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="U57" s="26">
-        <v>0</v>
-      </c>
-      <c r="V57" s="26">
-        <v>0</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" s="52" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B58" s="26">
-        <v>1740</v>
-      </c>
-      <c r="D58" s="26">
-        <v>1</v>
-      </c>
-      <c r="E58" s="26">
-        <v>0</v>
-      </c>
-      <c r="F58" s="26">
-        <v>0</v>
-      </c>
-      <c r="G58" s="26">
-        <v>0</v>
-      </c>
-      <c r="H58" s="26">
-        <v>0</v>
-      </c>
-      <c r="I58" s="26">
-        <v>80</v>
-      </c>
-      <c r="J58" s="26">
-        <v>25</v>
-      </c>
-      <c r="K58" s="26">
-        <v>0</v>
-      </c>
-      <c r="L58" s="26">
-        <v>0</v>
-      </c>
-      <c r="M58" s="26">
-        <v>0</v>
-      </c>
-      <c r="N58" s="26">
-        <v>0</v>
-      </c>
-      <c r="O58" s="26">
-        <v>10</v>
-      </c>
-      <c r="P58" s="26">
-        <v>10</v>
-      </c>
-      <c r="Q58" s="26">
-        <v>0</v>
-      </c>
-      <c r="R58" s="26">
-        <v>2</v>
-      </c>
-      <c r="S58" s="26">
-        <v>100</v>
-      </c>
-      <c r="T58" s="26" t="s">
-        <v>239</v>
-      </c>
-      <c r="U58" s="26">
-        <v>311</v>
-      </c>
-      <c r="V58" s="26" t="s">
-        <v>145</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59" s="52" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B59" s="26">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="D59" s="26">
         <v>1</v>
@@ -9998,10 +9606,10 @@
         <v>1</v>
       </c>
       <c r="O59" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P59" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q59" s="26">
         <v>0</v>
@@ -10013,7 +9621,7 @@
         <v>100</v>
       </c>
       <c r="T59" s="26" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="U59" s="26">
         <v>0</v>
@@ -10024,10 +9632,10 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60" s="52" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B60" s="26">
-        <v>1801</v>
+        <v>1701</v>
       </c>
       <c r="D60" s="26">
         <v>1</v>
@@ -10057,7 +9665,7 @@
         <v>2</v>
       </c>
       <c r="M60" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N60" s="26">
         <v>0</v>
@@ -10089,10 +9697,10 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61" s="52" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B61" s="26">
-        <v>1802</v>
+        <v>1702</v>
       </c>
       <c r="D61" s="26">
         <v>1</v>
@@ -10113,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="26">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K61" s="26">
         <v>0</v>
@@ -10122,7 +9730,7 @@
         <v>2</v>
       </c>
       <c r="M61" s="26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N61" s="26">
         <v>0</v>
@@ -10154,10 +9762,10 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A62" s="52" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B62" s="26">
-        <v>1803</v>
+        <v>1703</v>
       </c>
       <c r="D62" s="26">
         <v>4</v>
@@ -10193,13 +9801,13 @@
         <v>1</v>
       </c>
       <c r="O62" s="26">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="P62" s="26">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q62" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="26">
         <v>0</v>
@@ -10208,7 +9816,7 @@
         <v>100</v>
       </c>
       <c r="T62" s="26" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="U62" s="26">
         <v>0</v>
@@ -10219,13 +9827,13 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" s="52" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="B63" s="26">
-        <v>1805</v>
+        <v>1710</v>
       </c>
       <c r="D63" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="26">
         <v>0</v>
@@ -10240,10 +9848,10 @@
         <v>0</v>
       </c>
       <c r="I63" s="26">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J63" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K63" s="26">
         <v>0</v>
@@ -10258,36 +9866,36 @@
         <v>1</v>
       </c>
       <c r="O63" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P63" s="26">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="Q63" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="26">
         <v>0</v>
       </c>
       <c r="S63" s="26">
-        <v>501</v>
+        <v>100</v>
       </c>
       <c r="T63" s="26" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="U63" s="26">
-        <v>100</v>
-      </c>
-      <c r="V63" s="26" t="s">
-        <v>231</v>
+        <v>0</v>
+      </c>
+      <c r="V63" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A64" s="52" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B64" s="26">
-        <v>1810</v>
+        <v>1720</v>
       </c>
       <c r="D64" s="26">
         <v>1</v>
@@ -10305,31 +9913,31 @@
         <v>0</v>
       </c>
       <c r="I64" s="26">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J64" s="26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K64" s="26">
         <v>0</v>
       </c>
       <c r="L64" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M64" s="26">
+        <v>0</v>
+      </c>
+      <c r="N64" s="26">
+        <v>1</v>
+      </c>
+      <c r="O64" s="26">
         <v>4</v>
       </c>
-      <c r="N64" s="26">
-        <v>1</v>
-      </c>
-      <c r="O64" s="26">
-        <v>2</v>
-      </c>
       <c r="P64" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q64" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="26">
         <v>0</v>
@@ -10338,7 +9946,7 @@
         <v>100</v>
       </c>
       <c r="T64" s="26" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="U64" s="26">
         <v>0</v>
@@ -10349,10 +9957,10 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" s="52" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B65" s="26">
-        <v>1820</v>
+        <v>1730</v>
       </c>
       <c r="D65" s="26">
         <v>1</v>
@@ -10370,40 +9978,40 @@
         <v>0</v>
       </c>
       <c r="I65" s="26">
+        <v>40</v>
+      </c>
+      <c r="J65" s="26">
         <v>10</v>
       </c>
-      <c r="J65" s="26">
-        <v>0</v>
-      </c>
       <c r="K65" s="26">
         <v>0</v>
       </c>
       <c r="L65" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N65" s="26">
         <v>1</v>
       </c>
       <c r="O65" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P65" s="26">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="Q65" s="26">
         <v>1</v>
       </c>
       <c r="R65" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" s="26">
-        <v>502</v>
+        <v>100</v>
       </c>
       <c r="T65" s="26" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="U65" s="26">
         <v>0</v>
@@ -10414,10 +10022,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A66" s="52" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B66" s="26">
-        <v>1830</v>
+        <v>1740</v>
       </c>
       <c r="D66" s="26">
         <v>1</v>
@@ -10435,13 +10043,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="26">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="J66" s="26">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K66" s="26">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="L66" s="26">
         <v>0</v>
@@ -10450,60 +10058,60 @@
         <v>0</v>
       </c>
       <c r="N66" s="26">
+        <v>0</v>
+      </c>
+      <c r="O66" s="26">
+        <v>10</v>
+      </c>
+      <c r="P66" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="26">
+        <v>0</v>
+      </c>
+      <c r="R66" s="26">
         <v>2</v>
-      </c>
-      <c r="O66" s="26">
-        <v>8</v>
-      </c>
-      <c r="P66" s="26">
-        <v>6.28</v>
-      </c>
-      <c r="Q66" s="26">
-        <v>1</v>
-      </c>
-      <c r="R66" s="26">
-        <v>0</v>
       </c>
       <c r="S66" s="26">
         <v>100</v>
       </c>
       <c r="T66" s="26" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U66" s="26">
-        <v>0</v>
-      </c>
-      <c r="V66" s="26">
-        <v>0</v>
+        <v>311</v>
+      </c>
+      <c r="V66" s="26" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A67" s="52" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B67" s="26">
-        <v>1840</v>
+        <v>1800</v>
       </c>
       <c r="D67" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E67" s="26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F67" s="26">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="G67" s="26">
         <v>0</v>
       </c>
       <c r="H67" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" s="26">
         <v>100</v>
       </c>
       <c r="J67" s="26">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K67" s="26">
         <v>0</v>
@@ -10518,13 +10126,13 @@
         <v>1</v>
       </c>
       <c r="O67" s="26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P67" s="26">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="Q67" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R67" s="26">
         <v>2</v>
@@ -10533,7 +10141,7 @@
         <v>100</v>
       </c>
       <c r="T67" s="26" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="U67" s="26">
         <v>0</v>
@@ -10544,597 +10152,597 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68" s="52" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="B68" s="26">
-        <v>1900</v>
+        <v>1801</v>
+      </c>
+      <c r="D68" s="26">
+        <v>1</v>
+      </c>
+      <c r="E68" s="26">
+        <v>0</v>
+      </c>
+      <c r="F68" s="26">
+        <v>0</v>
+      </c>
+      <c r="G68" s="26">
+        <v>0</v>
+      </c>
+      <c r="H68" s="26">
+        <v>0</v>
+      </c>
+      <c r="I68" s="26">
+        <v>0</v>
+      </c>
+      <c r="J68" s="26">
+        <v>8</v>
+      </c>
+      <c r="K68" s="26">
+        <v>0</v>
+      </c>
+      <c r="L68" s="26">
+        <v>2</v>
+      </c>
+      <c r="M68" s="26">
+        <v>8</v>
+      </c>
+      <c r="N68" s="26">
+        <v>0</v>
+      </c>
+      <c r="O68" s="26">
+        <v>0</v>
+      </c>
+      <c r="P68" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="26">
+        <v>0</v>
+      </c>
+      <c r="R68" s="26">
+        <v>2</v>
+      </c>
+      <c r="S68" s="26">
+        <v>0</v>
+      </c>
+      <c r="T68" s="26">
+        <v>0</v>
+      </c>
+      <c r="U68" s="26">
+        <v>0</v>
+      </c>
+      <c r="V68" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" s="52" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="B69" s="26">
-        <v>1901</v>
+        <v>1802</v>
+      </c>
+      <c r="D69" s="26">
+        <v>1</v>
+      </c>
+      <c r="E69" s="26">
+        <v>0</v>
+      </c>
+      <c r="F69" s="26">
+        <v>0</v>
+      </c>
+      <c r="G69" s="26">
+        <v>0</v>
+      </c>
+      <c r="H69" s="26">
+        <v>0</v>
+      </c>
+      <c r="I69" s="26">
+        <v>0</v>
+      </c>
+      <c r="J69" s="26">
+        <v>25</v>
+      </c>
+      <c r="K69" s="26">
+        <v>0</v>
+      </c>
+      <c r="L69" s="26">
+        <v>2</v>
+      </c>
+      <c r="M69" s="26">
+        <v>8</v>
+      </c>
+      <c r="N69" s="26">
+        <v>0</v>
+      </c>
+      <c r="O69" s="26">
+        <v>0</v>
+      </c>
+      <c r="P69" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="26">
+        <v>0</v>
+      </c>
+      <c r="R69" s="26">
+        <v>3</v>
+      </c>
+      <c r="S69" s="26">
+        <v>299</v>
+      </c>
+      <c r="T69" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U69" s="26">
+        <v>0</v>
+      </c>
+      <c r="V69" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70" s="52" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B70" s="26">
-        <v>1902</v>
+        <v>1803</v>
+      </c>
+      <c r="D70" s="26">
+        <v>4</v>
+      </c>
+      <c r="E70" s="26">
+        <v>0</v>
+      </c>
+      <c r="F70" s="26">
+        <v>0</v>
+      </c>
+      <c r="G70" s="26">
+        <v>0</v>
+      </c>
+      <c r="H70" s="26">
+        <v>0</v>
+      </c>
+      <c r="I70" s="26">
+        <v>0</v>
+      </c>
+      <c r="J70" s="26">
+        <v>0</v>
+      </c>
+      <c r="K70" s="26">
+        <v>0</v>
+      </c>
+      <c r="L70" s="26">
+        <v>0</v>
+      </c>
+      <c r="M70" s="26">
+        <v>0</v>
+      </c>
+      <c r="N70" s="26">
+        <v>1</v>
+      </c>
+      <c r="O70" s="26">
+        <v>1</v>
+      </c>
+      <c r="P70" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q70" s="26">
+        <v>1</v>
+      </c>
+      <c r="R70" s="26">
+        <v>0</v>
+      </c>
+      <c r="S70" s="26">
+        <v>100</v>
+      </c>
+      <c r="T70" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="U70" s="26">
+        <v>0</v>
+      </c>
+      <c r="V70" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71" s="52" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B71" s="26">
-        <v>1903</v>
+        <v>1805</v>
+      </c>
+      <c r="D71" s="26">
+        <v>0</v>
+      </c>
+      <c r="E71" s="26">
+        <v>0</v>
+      </c>
+      <c r="F71" s="26">
+        <v>0</v>
+      </c>
+      <c r="G71" s="26">
+        <v>0</v>
+      </c>
+      <c r="H71" s="26">
+        <v>0</v>
+      </c>
+      <c r="I71" s="26">
+        <v>0</v>
+      </c>
+      <c r="J71" s="26">
+        <v>0</v>
+      </c>
+      <c r="K71" s="26">
+        <v>0</v>
+      </c>
+      <c r="L71" s="26">
+        <v>0</v>
+      </c>
+      <c r="M71" s="26">
+        <v>0</v>
+      </c>
+      <c r="N71" s="26">
+        <v>1</v>
+      </c>
+      <c r="O71" s="26">
+        <v>1</v>
+      </c>
+      <c r="P71" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q71" s="26">
+        <v>1</v>
+      </c>
+      <c r="R71" s="26">
+        <v>0</v>
+      </c>
+      <c r="S71" s="26">
+        <v>501</v>
+      </c>
+      <c r="T71" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="U71" s="26">
+        <v>100</v>
+      </c>
+      <c r="V71" s="26" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72" s="52" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B72" s="26">
-        <v>1910</v>
+        <v>1810</v>
+      </c>
+      <c r="D72" s="26">
+        <v>1</v>
+      </c>
+      <c r="E72" s="26">
+        <v>0</v>
+      </c>
+      <c r="F72" s="26">
+        <v>0</v>
+      </c>
+      <c r="G72" s="26">
+        <v>0</v>
+      </c>
+      <c r="H72" s="26">
+        <v>0</v>
+      </c>
+      <c r="I72" s="26">
+        <v>25</v>
+      </c>
+      <c r="J72" s="26">
+        <v>6</v>
+      </c>
+      <c r="K72" s="26">
+        <v>0</v>
+      </c>
+      <c r="L72" s="26">
+        <v>2</v>
+      </c>
+      <c r="M72" s="26">
+        <v>4</v>
+      </c>
+      <c r="N72" s="26">
+        <v>1</v>
+      </c>
+      <c r="O72" s="26">
+        <v>2</v>
+      </c>
+      <c r="P72" s="26">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="26">
+        <v>1</v>
+      </c>
+      <c r="R72" s="26">
+        <v>0</v>
+      </c>
+      <c r="S72" s="26">
+        <v>100</v>
+      </c>
+      <c r="T72" s="26" t="s">
+        <v>233</v>
+      </c>
+      <c r="U72" s="26">
+        <v>0</v>
+      </c>
+      <c r="V72" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73" s="52" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="B73" s="26">
-        <v>1920</v>
+        <v>1820</v>
+      </c>
+      <c r="D73" s="26">
+        <v>1</v>
+      </c>
+      <c r="E73" s="26">
+        <v>0</v>
+      </c>
+      <c r="F73" s="26">
+        <v>0</v>
+      </c>
+      <c r="G73" s="26">
+        <v>0</v>
+      </c>
+      <c r="H73" s="26">
+        <v>0</v>
+      </c>
+      <c r="I73" s="26">
+        <v>10</v>
+      </c>
+      <c r="J73" s="26">
+        <v>0</v>
+      </c>
+      <c r="K73" s="26">
+        <v>0</v>
+      </c>
+      <c r="L73" s="26">
+        <v>0</v>
+      </c>
+      <c r="M73" s="26">
+        <v>0</v>
+      </c>
+      <c r="N73" s="26">
+        <v>1</v>
+      </c>
+      <c r="O73" s="26">
+        <v>1</v>
+      </c>
+      <c r="P73" s="26">
+        <v>1.5</v>
+      </c>
+      <c r="Q73" s="26">
+        <v>1</v>
+      </c>
+      <c r="R73" s="26">
+        <v>0</v>
+      </c>
+      <c r="S73" s="26">
+        <v>502</v>
+      </c>
+      <c r="T73" s="26" t="s">
+        <v>234</v>
+      </c>
+      <c r="U73" s="26">
+        <v>0</v>
+      </c>
+      <c r="V73" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" s="52" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="B74" s="26">
-        <v>1930</v>
+        <v>1830</v>
+      </c>
+      <c r="D74" s="26">
+        <v>1</v>
+      </c>
+      <c r="E74" s="26">
+        <v>0</v>
+      </c>
+      <c r="F74" s="26">
+        <v>0</v>
+      </c>
+      <c r="G74" s="26">
+        <v>0</v>
+      </c>
+      <c r="H74" s="26">
+        <v>0</v>
+      </c>
+      <c r="I74" s="26">
+        <v>50</v>
+      </c>
+      <c r="J74" s="26">
+        <v>15</v>
+      </c>
+      <c r="K74" s="26">
+        <v>12</v>
+      </c>
+      <c r="L74" s="26">
+        <v>0</v>
+      </c>
+      <c r="M74" s="26">
+        <v>0</v>
+      </c>
+      <c r="N74" s="26">
+        <v>2</v>
+      </c>
+      <c r="O74" s="26">
+        <v>8</v>
+      </c>
+      <c r="P74" s="26">
+        <v>6.28</v>
+      </c>
+      <c r="Q74" s="26">
+        <v>1</v>
+      </c>
+      <c r="R74" s="26">
+        <v>0</v>
+      </c>
+      <c r="S74" s="26">
+        <v>100</v>
+      </c>
+      <c r="T74" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="U74" s="26">
+        <v>0</v>
+      </c>
+      <c r="V74" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75" s="52" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="B75" s="26">
-        <v>1940</v>
+        <v>1840</v>
+      </c>
+      <c r="D75" s="26">
+        <v>3</v>
+      </c>
+      <c r="E75" s="26">
+        <v>100</v>
+      </c>
+      <c r="F75" s="26">
+        <v>360</v>
+      </c>
+      <c r="G75" s="26">
+        <v>0</v>
+      </c>
+      <c r="H75" s="26">
+        <v>0</v>
+      </c>
+      <c r="I75" s="26">
+        <v>100</v>
+      </c>
+      <c r="J75" s="26">
+        <v>25</v>
+      </c>
+      <c r="K75" s="26">
+        <v>0</v>
+      </c>
+      <c r="L75" s="26">
+        <v>0</v>
+      </c>
+      <c r="M75" s="26">
+        <v>0</v>
+      </c>
+      <c r="N75" s="26">
+        <v>1</v>
+      </c>
+      <c r="O75" s="26">
+        <v>10</v>
+      </c>
+      <c r="P75" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q75" s="26">
+        <v>1</v>
+      </c>
+      <c r="R75" s="26">
+        <v>2</v>
+      </c>
+      <c r="S75" s="26">
+        <v>100</v>
+      </c>
+      <c r="T75" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="U75" s="26">
+        <v>0</v>
+      </c>
+      <c r="V75" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A76" s="52" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B76" s="26">
-        <v>2000</v>
-      </c>
-      <c r="D76" s="26">
-        <v>1</v>
-      </c>
-      <c r="E76" s="26">
-        <v>0</v>
-      </c>
-      <c r="F76" s="26">
-        <v>0</v>
-      </c>
-      <c r="G76" s="26">
-        <v>0</v>
-      </c>
-      <c r="H76" s="26">
-        <v>2</v>
-      </c>
-      <c r="I76" s="26">
-        <v>100</v>
-      </c>
-      <c r="J76" s="26">
-        <v>0</v>
-      </c>
-      <c r="K76" s="26">
-        <v>0</v>
-      </c>
-      <c r="L76" s="26">
-        <v>0</v>
-      </c>
-      <c r="M76" s="26">
-        <v>0</v>
-      </c>
-      <c r="N76" s="26">
-        <v>1</v>
-      </c>
-      <c r="O76" s="26">
-        <v>4</v>
-      </c>
-      <c r="P76" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="26">
-        <v>0</v>
-      </c>
-      <c r="R76" s="26">
-        <v>2</v>
-      </c>
-      <c r="S76" s="26">
-        <v>100</v>
-      </c>
-      <c r="T76" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="U76" s="26">
-        <v>0</v>
-      </c>
-      <c r="V76" s="26">
-        <v>0</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" s="52" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B77" s="26">
-        <v>2001</v>
-      </c>
-      <c r="D77" s="26">
-        <v>1</v>
-      </c>
-      <c r="E77" s="26">
-        <v>0</v>
-      </c>
-      <c r="F77" s="26">
-        <v>0</v>
-      </c>
-      <c r="G77" s="26">
-        <v>0</v>
-      </c>
-      <c r="H77" s="26">
-        <v>0</v>
-      </c>
-      <c r="I77" s="26">
-        <v>0</v>
-      </c>
-      <c r="J77" s="26">
-        <v>7</v>
-      </c>
-      <c r="K77" s="26">
-        <v>0</v>
-      </c>
-      <c r="L77" s="26">
-        <v>2</v>
-      </c>
-      <c r="M77" s="26">
-        <v>8</v>
-      </c>
-      <c r="N77" s="26">
-        <v>0</v>
-      </c>
-      <c r="O77" s="26">
-        <v>0</v>
-      </c>
-      <c r="P77" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="26">
-        <v>0</v>
-      </c>
-      <c r="R77" s="26">
-        <v>2</v>
-      </c>
-      <c r="S77" s="26">
-        <v>0</v>
-      </c>
-      <c r="T77" s="26">
-        <v>0</v>
-      </c>
-      <c r="U77" s="26">
-        <v>0</v>
-      </c>
-      <c r="V77" s="26">
-        <v>0</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A78" s="52" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B78" s="26">
-        <v>2002</v>
-      </c>
-      <c r="D78" s="26">
-        <v>1</v>
-      </c>
-      <c r="E78" s="26">
-        <v>0</v>
-      </c>
-      <c r="F78" s="26">
-        <v>0</v>
-      </c>
-      <c r="G78" s="26">
-        <v>0</v>
-      </c>
-      <c r="H78" s="26">
-        <v>0</v>
-      </c>
-      <c r="I78" s="26">
-        <v>0</v>
-      </c>
-      <c r="J78" s="26">
-        <v>23</v>
-      </c>
-      <c r="K78" s="26">
-        <v>0</v>
-      </c>
-      <c r="L78" s="26">
-        <v>2</v>
-      </c>
-      <c r="M78" s="26">
-        <v>8</v>
-      </c>
-      <c r="N78" s="26">
-        <v>0</v>
-      </c>
-      <c r="O78" s="26">
-        <v>0</v>
-      </c>
-      <c r="P78" s="26">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="26">
-        <v>0</v>
-      </c>
-      <c r="R78" s="26">
-        <v>3</v>
-      </c>
-      <c r="S78" s="26">
-        <v>299</v>
-      </c>
-      <c r="T78" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="U78" s="26">
-        <v>0</v>
-      </c>
-      <c r="V78" s="26">
-        <v>0</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A79" s="52" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B79" s="26">
-        <v>2003</v>
-      </c>
-      <c r="D79" s="26">
-        <v>4</v>
-      </c>
-      <c r="E79" s="26">
-        <v>0</v>
-      </c>
-      <c r="F79" s="26">
-        <v>0</v>
-      </c>
-      <c r="G79" s="26">
-        <v>0</v>
-      </c>
-      <c r="H79" s="26">
-        <v>0</v>
-      </c>
-      <c r="I79" s="26">
-        <v>0</v>
-      </c>
-      <c r="J79" s="26">
-        <v>0</v>
-      </c>
-      <c r="K79" s="26">
-        <v>0</v>
-      </c>
-      <c r="L79" s="26">
-        <v>0</v>
-      </c>
-      <c r="M79" s="26">
-        <v>0</v>
-      </c>
-      <c r="N79" s="26">
-        <v>1</v>
-      </c>
-      <c r="O79" s="26">
-        <v>2</v>
-      </c>
-      <c r="P79" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q79" s="26">
-        <v>1</v>
-      </c>
-      <c r="R79" s="26">
-        <v>0</v>
-      </c>
-      <c r="S79" s="26">
-        <v>100</v>
-      </c>
-      <c r="T79" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="U79" s="26">
-        <v>0</v>
-      </c>
-      <c r="V79" s="26">
-        <v>0</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A80" s="52" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B80" s="26">
-        <v>2004</v>
-      </c>
-      <c r="D80" s="26">
-        <v>4</v>
-      </c>
-      <c r="E80" s="26">
-        <v>0</v>
-      </c>
-      <c r="F80" s="26">
-        <v>0</v>
-      </c>
-      <c r="G80" s="26">
-        <v>0</v>
-      </c>
-      <c r="H80" s="26">
-        <v>0</v>
-      </c>
-      <c r="I80" s="26">
-        <v>0</v>
-      </c>
-      <c r="J80" s="26">
-        <v>0</v>
-      </c>
-      <c r="K80" s="26">
-        <v>0</v>
-      </c>
-      <c r="L80" s="26">
-        <v>0</v>
-      </c>
-      <c r="M80" s="26">
-        <v>0</v>
-      </c>
-      <c r="N80" s="26">
-        <v>1</v>
-      </c>
-      <c r="O80" s="26">
-        <v>4</v>
-      </c>
-      <c r="P80" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q80" s="26">
-        <v>0</v>
-      </c>
-      <c r="R80" s="26">
-        <v>2</v>
-      </c>
-      <c r="S80" s="26">
-        <v>100</v>
-      </c>
-      <c r="T80" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="U80" s="26">
-        <v>100</v>
-      </c>
-      <c r="V80" s="26" t="s">
-        <v>259</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A81" s="52" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B81" s="26">
-        <v>2010</v>
-      </c>
-      <c r="D81" s="26">
-        <v>1</v>
-      </c>
-      <c r="E81" s="26">
-        <v>0</v>
-      </c>
-      <c r="F81" s="26">
-        <v>0</v>
-      </c>
-      <c r="G81" s="26">
-        <v>0</v>
-      </c>
-      <c r="H81" s="26">
-        <v>0</v>
-      </c>
-      <c r="I81" s="26">
-        <v>30</v>
-      </c>
-      <c r="J81" s="26">
-        <v>3</v>
-      </c>
-      <c r="K81" s="26">
-        <v>0</v>
-      </c>
-      <c r="L81" s="26">
-        <v>0</v>
-      </c>
-      <c r="M81" s="26">
-        <v>0</v>
-      </c>
-      <c r="N81" s="26">
-        <v>2</v>
-      </c>
-      <c r="O81" s="26">
-        <v>4</v>
-      </c>
-      <c r="P81" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q81" s="26">
-        <v>0</v>
-      </c>
-      <c r="R81" s="26">
-        <v>0</v>
-      </c>
-      <c r="S81" s="26">
-        <v>100</v>
-      </c>
-      <c r="T81" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="U81" s="26">
-        <v>0</v>
-      </c>
-      <c r="V81" s="26">
-        <v>0</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A82" s="52" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B82" s="26">
-        <v>2011</v>
-      </c>
-      <c r="D82" s="26">
-        <v>0</v>
-      </c>
-      <c r="E82" s="26">
-        <v>0</v>
-      </c>
-      <c r="F82" s="26">
-        <v>0</v>
-      </c>
-      <c r="G82" s="26">
-        <v>0</v>
-      </c>
-      <c r="H82" s="26">
-        <v>0</v>
-      </c>
-      <c r="I82" s="26">
-        <v>0</v>
-      </c>
-      <c r="J82" s="26">
-        <v>3</v>
-      </c>
-      <c r="K82" s="26">
-        <v>0</v>
-      </c>
-      <c r="L82" s="26">
-        <v>0</v>
-      </c>
-      <c r="M82" s="26">
-        <v>0</v>
-      </c>
-      <c r="N82" s="26">
-        <v>1</v>
-      </c>
-      <c r="O82" s="26">
-        <v>3</v>
-      </c>
-      <c r="P82" s="26">
-        <v>3</v>
-      </c>
-      <c r="Q82" s="26">
-        <v>0</v>
-      </c>
-      <c r="R82" s="26">
-        <v>0</v>
-      </c>
-      <c r="S82" s="26">
-        <v>100</v>
-      </c>
-      <c r="T82" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="U82" s="26">
-        <v>0</v>
-      </c>
-      <c r="V82" s="26">
-        <v>0</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A83" s="52" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B83" s="26">
-        <v>2012</v>
-      </c>
-      <c r="D83" s="26">
-        <v>0</v>
-      </c>
-      <c r="E83" s="26">
-        <v>0</v>
-      </c>
-      <c r="F83" s="26">
-        <v>0</v>
-      </c>
-      <c r="G83" s="26">
-        <v>0</v>
-      </c>
-      <c r="H83" s="26">
-        <v>0</v>
-      </c>
-      <c r="I83" s="26">
-        <v>0</v>
-      </c>
-      <c r="J83" s="26">
-        <v>5</v>
-      </c>
-      <c r="K83" s="26">
-        <v>0</v>
-      </c>
-      <c r="L83" s="26">
-        <v>0</v>
-      </c>
-      <c r="M83" s="26">
-        <v>0</v>
-      </c>
-      <c r="N83" s="26">
-        <v>1</v>
-      </c>
-      <c r="O83" s="26">
-        <v>2</v>
-      </c>
-      <c r="P83" s="26">
-        <v>2</v>
-      </c>
-      <c r="Q83" s="26">
-        <v>1</v>
-      </c>
-      <c r="R83" s="26">
-        <v>0</v>
-      </c>
-      <c r="S83" s="26">
-        <v>100</v>
-      </c>
-      <c r="T83" s="26" t="s">
-        <v>265</v>
-      </c>
-      <c r="U83" s="26">
-        <v>0</v>
-      </c>
-      <c r="V83" s="26">
-        <v>0</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A84" s="52" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="B84" s="26">
-        <v>2013</v>
+        <v>2000</v>
       </c>
       <c r="D84" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="26">
         <v>0</v>
@@ -11146,43 +10754,43 @@
         <v>0</v>
       </c>
       <c r="H84" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" s="26">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J84" s="26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K84" s="26">
         <v>0</v>
       </c>
       <c r="L84" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" s="26">
+        <v>0</v>
+      </c>
+      <c r="N84" s="26">
+        <v>1</v>
+      </c>
+      <c r="O84" s="26">
         <v>4</v>
       </c>
-      <c r="N84" s="26">
-        <v>1</v>
-      </c>
-      <c r="O84" s="26">
-        <v>5</v>
-      </c>
       <c r="P84" s="26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q84" s="26">
         <v>0</v>
       </c>
       <c r="R84" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S84" s="26">
         <v>100</v>
       </c>
       <c r="T84" s="26" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="U84" s="26">
         <v>0</v>
@@ -11193,10 +10801,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A85" s="52" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B85" s="26">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="D85" s="26">
         <v>1</v>
@@ -11214,40 +10822,40 @@
         <v>0</v>
       </c>
       <c r="I85" s="26">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="J85" s="26">
+        <v>7</v>
+      </c>
+      <c r="K85" s="26">
+        <v>0</v>
+      </c>
+      <c r="L85" s="26">
+        <v>2</v>
+      </c>
+      <c r="M85" s="26">
         <v>8</v>
       </c>
-      <c r="K85" s="26">
-        <v>0</v>
-      </c>
-      <c r="L85" s="26">
-        <v>0</v>
-      </c>
-      <c r="M85" s="26">
-        <v>0</v>
-      </c>
       <c r="N85" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P85" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q85" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R85" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S85" s="26">
-        <v>100</v>
-      </c>
-      <c r="T85" s="26" t="s">
-        <v>267</v>
+        <v>0</v>
+      </c>
+      <c r="T85" s="26">
+        <v>0</v>
       </c>
       <c r="U85" s="26">
         <v>0</v>
@@ -11258,10 +10866,10 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A86" s="52" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B86" s="26">
-        <v>2030</v>
+        <v>2002</v>
       </c>
       <c r="D86" s="26">
         <v>1</v>
@@ -11279,40 +10887,40 @@
         <v>0</v>
       </c>
       <c r="I86" s="26">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="J86" s="26">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="K86" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L86" s="26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" s="26">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N86" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O86" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="P86" s="26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="26">
         <v>0</v>
       </c>
       <c r="R86" s="26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S86" s="26">
-        <v>100</v>
+        <v>299</v>
       </c>
       <c r="T86" s="26" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="U86" s="26">
         <v>0</v>
@@ -11323,13 +10931,13 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A87" s="52" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B87" s="26">
-        <v>2040</v>
+        <v>2003</v>
       </c>
       <c r="D87" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E87" s="26">
         <v>0</v>
@@ -11344,10 +10952,10 @@
         <v>0</v>
       </c>
       <c r="I87" s="26">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="J87" s="26">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K87" s="26">
         <v>0</v>
@@ -11359,42 +10967,42 @@
         <v>0</v>
       </c>
       <c r="N87" s="26">
+        <v>1</v>
+      </c>
+      <c r="O87" s="26">
         <v>2</v>
       </c>
-      <c r="O87" s="26">
-        <v>20</v>
-      </c>
       <c r="P87" s="26">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q87" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S87" s="26">
-        <v>503</v>
+        <v>100</v>
       </c>
       <c r="T87" s="26" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="U87" s="26">
-        <v>100</v>
-      </c>
-      <c r="V87" s="26" t="s">
-        <v>119</v>
+        <v>0</v>
+      </c>
+      <c r="V87" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A88" s="52" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B88" s="26">
-        <v>2100</v>
+        <v>2004</v>
       </c>
       <c r="D88" s="26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E88" s="26">
         <v>0</v>
@@ -11406,10 +11014,10 @@
         <v>0</v>
       </c>
       <c r="H88" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" s="26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J88" s="26">
         <v>0</v>
@@ -11427,10 +11035,10 @@
         <v>1</v>
       </c>
       <c r="O88" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P88" s="26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q88" s="26">
         <v>0</v>
@@ -11439,24 +11047,24 @@
         <v>2</v>
       </c>
       <c r="S88" s="26">
-        <v>504</v>
+        <v>100</v>
       </c>
       <c r="T88" s="26" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="U88" s="26">
         <v>100</v>
       </c>
       <c r="V88" s="26" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A89" s="52" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B89" s="26">
-        <v>2101</v>
+        <v>2010</v>
       </c>
       <c r="D89" s="26">
         <v>1</v>
@@ -11474,40 +11082,40 @@
         <v>0</v>
       </c>
       <c r="I89" s="26">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J89" s="26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K89" s="26">
         <v>0</v>
       </c>
       <c r="L89" s="26">
+        <v>0</v>
+      </c>
+      <c r="M89" s="26">
+        <v>0</v>
+      </c>
+      <c r="N89" s="26">
         <v>2</v>
       </c>
-      <c r="M89" s="26">
-        <v>6</v>
-      </c>
-      <c r="N89" s="26">
-        <v>0</v>
-      </c>
       <c r="O89" s="26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P89" s="26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q89" s="26">
         <v>0</v>
       </c>
       <c r="R89" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S89" s="26">
-        <v>0</v>
-      </c>
-      <c r="T89" s="26">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="T89" s="26" t="s">
+        <v>263</v>
       </c>
       <c r="U89" s="26">
         <v>0</v>
@@ -11518,13 +11126,13 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A90" s="52" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B90" s="26">
-        <v>2102</v>
+        <v>2011</v>
       </c>
       <c r="D90" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E90" s="26">
         <v>0</v>
@@ -11542,37 +11150,37 @@
         <v>0</v>
       </c>
       <c r="J90" s="26">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K90" s="26">
         <v>0</v>
       </c>
       <c r="L90" s="26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M90" s="26">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N90" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O90" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P90" s="26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q90" s="26">
         <v>0</v>
       </c>
       <c r="R90" s="26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S90" s="26">
-        <v>299</v>
+        <v>100</v>
       </c>
       <c r="T90" s="26" t="s">
-        <v>144</v>
+        <v>264</v>
       </c>
       <c r="U90" s="26">
         <v>0</v>
@@ -11583,13 +11191,13 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A91" s="52" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B91" s="26">
-        <v>2103</v>
+        <v>2012</v>
       </c>
       <c r="D91" s="26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E91" s="26">
         <v>0</v>
@@ -11607,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K91" s="26">
         <v>0</v>
@@ -11637,7 +11245,7 @@
         <v>100</v>
       </c>
       <c r="T91" s="26" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="U91" s="26">
         <v>0</v>
@@ -11648,34 +11256,846 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A92" s="52" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B92" s="26">
-        <v>2110</v>
+        <v>2013</v>
+      </c>
+      <c r="D92" s="26">
+        <v>0</v>
+      </c>
+      <c r="E92" s="26">
+        <v>0</v>
+      </c>
+      <c r="F92" s="26">
+        <v>0</v>
+      </c>
+      <c r="G92" s="26">
+        <v>0</v>
+      </c>
+      <c r="H92" s="26">
+        <v>0</v>
+      </c>
+      <c r="I92" s="26">
+        <v>0</v>
+      </c>
+      <c r="J92" s="26">
+        <v>7</v>
+      </c>
+      <c r="K92" s="26">
+        <v>0</v>
+      </c>
+      <c r="L92" s="26">
+        <v>1</v>
+      </c>
+      <c r="M92" s="26">
+        <v>4</v>
+      </c>
+      <c r="N92" s="26">
+        <v>1</v>
+      </c>
+      <c r="O92" s="26">
+        <v>5</v>
+      </c>
+      <c r="P92" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q92" s="26">
+        <v>0</v>
+      </c>
+      <c r="R92" s="26">
+        <v>0</v>
+      </c>
+      <c r="S92" s="26">
+        <v>100</v>
+      </c>
+      <c r="T92" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="U92" s="26">
+        <v>0</v>
+      </c>
+      <c r="V92" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A93" s="52" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="B93" s="26">
-        <v>2120</v>
+        <v>2020</v>
+      </c>
+      <c r="D93" s="26">
+        <v>1</v>
+      </c>
+      <c r="E93" s="26">
+        <v>0</v>
+      </c>
+      <c r="F93" s="26">
+        <v>0</v>
+      </c>
+      <c r="G93" s="26">
+        <v>0</v>
+      </c>
+      <c r="H93" s="26">
+        <v>0</v>
+      </c>
+      <c r="I93" s="26">
+        <v>50</v>
+      </c>
+      <c r="J93" s="26">
+        <v>8</v>
+      </c>
+      <c r="K93" s="26">
+        <v>0</v>
+      </c>
+      <c r="L93" s="26">
+        <v>0</v>
+      </c>
+      <c r="M93" s="26">
+        <v>0</v>
+      </c>
+      <c r="N93" s="26">
+        <v>1</v>
+      </c>
+      <c r="O93" s="26">
+        <v>6</v>
+      </c>
+      <c r="P93" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q93" s="26">
+        <v>1</v>
+      </c>
+      <c r="R93" s="26">
+        <v>0</v>
+      </c>
+      <c r="S93" s="26">
+        <v>100</v>
+      </c>
+      <c r="T93" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="U93" s="26">
+        <v>0</v>
+      </c>
+      <c r="V93" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A94" s="52" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="B94" s="26">
-        <v>2130</v>
+        <v>2030</v>
+      </c>
+      <c r="D94" s="26">
+        <v>1</v>
+      </c>
+      <c r="E94" s="26">
+        <v>0</v>
+      </c>
+      <c r="F94" s="26">
+        <v>0</v>
+      </c>
+      <c r="G94" s="26">
+        <v>0</v>
+      </c>
+      <c r="H94" s="26">
+        <v>0</v>
+      </c>
+      <c r="I94" s="26">
+        <v>80</v>
+      </c>
+      <c r="J94" s="26">
+        <v>12</v>
+      </c>
+      <c r="K94" s="26">
+        <v>10</v>
+      </c>
+      <c r="L94" s="26">
+        <v>0</v>
+      </c>
+      <c r="M94" s="26">
+        <v>0</v>
+      </c>
+      <c r="N94" s="26">
+        <v>2</v>
+      </c>
+      <c r="O94" s="26">
+        <v>10</v>
+      </c>
+      <c r="P94" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q94" s="26">
+        <v>0</v>
+      </c>
+      <c r="R94" s="26">
+        <v>1</v>
+      </c>
+      <c r="S94" s="26">
+        <v>100</v>
+      </c>
+      <c r="T94" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="U94" s="26">
+        <v>0</v>
+      </c>
+      <c r="V94" s="26">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A95" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="B95" s="26">
+        <v>2040</v>
+      </c>
+      <c r="D95" s="26">
+        <v>1</v>
+      </c>
+      <c r="E95" s="26">
+        <v>0</v>
+      </c>
+      <c r="F95" s="26">
+        <v>0</v>
+      </c>
+      <c r="G95" s="26">
+        <v>0</v>
+      </c>
+      <c r="H95" s="26">
+        <v>0</v>
+      </c>
+      <c r="I95" s="26">
+        <v>120</v>
+      </c>
+      <c r="J95" s="26">
+        <v>20</v>
+      </c>
+      <c r="K95" s="26">
+        <v>0</v>
+      </c>
+      <c r="L95" s="26">
+        <v>0</v>
+      </c>
+      <c r="M95" s="26">
+        <v>0</v>
+      </c>
+      <c r="N95" s="26">
+        <v>2</v>
+      </c>
+      <c r="O95" s="26">
+        <v>20</v>
+      </c>
+      <c r="P95" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q95" s="26">
+        <v>0</v>
+      </c>
+      <c r="R95" s="26">
+        <v>2</v>
+      </c>
+      <c r="S95" s="26">
+        <v>503</v>
+      </c>
+      <c r="T95" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="U95" s="26">
+        <v>100</v>
+      </c>
+      <c r="V95" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A96" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B96" s="26">
+        <v>2100</v>
+      </c>
+      <c r="D96" s="26">
+        <v>1</v>
+      </c>
+      <c r="E96" s="26">
+        <v>0</v>
+      </c>
+      <c r="F96" s="26">
+        <v>0</v>
+      </c>
+      <c r="G96" s="26">
+        <v>0</v>
+      </c>
+      <c r="H96" s="26">
+        <v>2</v>
+      </c>
+      <c r="I96" s="26">
+        <v>100</v>
+      </c>
+      <c r="J96" s="26">
+        <v>0</v>
+      </c>
+      <c r="K96" s="26">
+        <v>0</v>
+      </c>
+      <c r="L96" s="26">
+        <v>0</v>
+      </c>
+      <c r="M96" s="26">
+        <v>0</v>
+      </c>
+      <c r="N96" s="26">
+        <v>1</v>
+      </c>
+      <c r="O96" s="26">
+        <v>2</v>
+      </c>
+      <c r="P96" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q96" s="26">
+        <v>0</v>
+      </c>
+      <c r="R96" s="26">
+        <v>2</v>
+      </c>
+      <c r="S96" s="26">
+        <v>504</v>
+      </c>
+      <c r="T96" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="U96" s="26">
+        <v>100</v>
+      </c>
+      <c r="V96" s="26" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A97" s="52" t="s">
+        <v>270</v>
+      </c>
+      <c r="B97" s="26">
+        <v>2101</v>
+      </c>
+      <c r="D97" s="26">
+        <v>1</v>
+      </c>
+      <c r="E97" s="26">
+        <v>0</v>
+      </c>
+      <c r="F97" s="26">
+        <v>0</v>
+      </c>
+      <c r="G97" s="26">
+        <v>0</v>
+      </c>
+      <c r="H97" s="26">
+        <v>0</v>
+      </c>
+      <c r="I97" s="26">
+        <v>0</v>
+      </c>
+      <c r="J97" s="26">
+        <v>6</v>
+      </c>
+      <c r="K97" s="26">
+        <v>0</v>
+      </c>
+      <c r="L97" s="26">
+        <v>2</v>
+      </c>
+      <c r="M97" s="26">
+        <v>6</v>
+      </c>
+      <c r="N97" s="26">
+        <v>0</v>
+      </c>
+      <c r="O97" s="26">
+        <v>0</v>
+      </c>
+      <c r="P97" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="26">
+        <v>0</v>
+      </c>
+      <c r="R97" s="26">
+        <v>2</v>
+      </c>
+      <c r="S97" s="26">
+        <v>0</v>
+      </c>
+      <c r="T97" s="26">
+        <v>0</v>
+      </c>
+      <c r="U97" s="26">
+        <v>0</v>
+      </c>
+      <c r="V97" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A98" s="52" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" s="26">
+        <v>2102</v>
+      </c>
+      <c r="D98" s="26">
+        <v>1</v>
+      </c>
+      <c r="E98" s="26">
+        <v>0</v>
+      </c>
+      <c r="F98" s="26">
+        <v>0</v>
+      </c>
+      <c r="G98" s="26">
+        <v>0</v>
+      </c>
+      <c r="H98" s="26">
+        <v>0</v>
+      </c>
+      <c r="I98" s="26">
+        <v>0</v>
+      </c>
+      <c r="J98" s="26">
+        <v>20</v>
+      </c>
+      <c r="K98" s="26">
+        <v>0</v>
+      </c>
+      <c r="L98" s="26">
+        <v>2</v>
+      </c>
+      <c r="M98" s="26">
+        <v>6</v>
+      </c>
+      <c r="N98" s="26">
+        <v>0</v>
+      </c>
+      <c r="O98" s="26">
+        <v>0</v>
+      </c>
+      <c r="P98" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="26">
+        <v>0</v>
+      </c>
+      <c r="R98" s="26">
+        <v>3</v>
+      </c>
+      <c r="S98" s="26">
+        <v>299</v>
+      </c>
+      <c r="T98" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U98" s="26">
+        <v>0</v>
+      </c>
+      <c r="V98" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A99" s="52" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="26">
+        <v>2103</v>
+      </c>
+      <c r="D99" s="26">
+        <v>4</v>
+      </c>
+      <c r="E99" s="26">
+        <v>0</v>
+      </c>
+      <c r="F99" s="26">
+        <v>0</v>
+      </c>
+      <c r="G99" s="26">
+        <v>0</v>
+      </c>
+      <c r="H99" s="26">
+        <v>0</v>
+      </c>
+      <c r="I99" s="26">
+        <v>0</v>
+      </c>
+      <c r="J99" s="26">
+        <v>0</v>
+      </c>
+      <c r="K99" s="26">
+        <v>0</v>
+      </c>
+      <c r="L99" s="26">
+        <v>0</v>
+      </c>
+      <c r="M99" s="26">
+        <v>0</v>
+      </c>
+      <c r="N99" s="26">
+        <v>1</v>
+      </c>
+      <c r="O99" s="26">
+        <v>2</v>
+      </c>
+      <c r="P99" s="26">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="26">
+        <v>1</v>
+      </c>
+      <c r="R99" s="26">
+        <v>0</v>
+      </c>
+      <c r="S99" s="26">
+        <v>100</v>
+      </c>
+      <c r="T99" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="U99" s="26">
+        <v>0</v>
+      </c>
+      <c r="V99" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A100" s="52" t="s">
+        <v>273</v>
+      </c>
+      <c r="B100" s="26">
+        <v>2110</v>
+      </c>
+      <c r="D100" s="26">
+        <v>1</v>
+      </c>
+      <c r="E100" s="26">
+        <v>0</v>
+      </c>
+      <c r="F100" s="26">
+        <v>0</v>
+      </c>
+      <c r="G100" s="26">
+        <v>0</v>
+      </c>
+      <c r="H100" s="26">
+        <v>0</v>
+      </c>
+      <c r="I100" s="26">
+        <v>30</v>
+      </c>
+      <c r="J100" s="26">
+        <v>4</v>
+      </c>
+      <c r="K100" s="26">
+        <v>0</v>
+      </c>
+      <c r="L100" s="26">
+        <v>0</v>
+      </c>
+      <c r="M100" s="26">
+        <v>0</v>
+      </c>
+      <c r="N100" s="26">
+        <v>2</v>
+      </c>
+      <c r="O100" s="26">
+        <v>5</v>
+      </c>
+      <c r="P100" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="26">
+        <v>0</v>
+      </c>
+      <c r="R100" s="26">
+        <v>0</v>
+      </c>
+      <c r="S100" s="26">
+        <v>100</v>
+      </c>
+      <c r="T100" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="U100" s="26">
+        <v>210</v>
+      </c>
+      <c r="V100" s="26" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A101" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="B101" s="26">
+        <v>2120</v>
+      </c>
+      <c r="D101" s="26">
+        <v>1</v>
+      </c>
+      <c r="E101" s="26">
+        <v>0</v>
+      </c>
+      <c r="F101" s="26">
+        <v>0</v>
+      </c>
+      <c r="G101" s="26">
+        <v>0</v>
+      </c>
+      <c r="H101" s="26">
+        <v>0</v>
+      </c>
+      <c r="I101" s="26">
+        <v>50</v>
+      </c>
+      <c r="J101" s="26">
+        <v>7</v>
+      </c>
+      <c r="K101" s="26">
+        <v>0</v>
+      </c>
+      <c r="L101" s="26">
+        <v>0</v>
+      </c>
+      <c r="M101" s="26">
+        <v>0</v>
+      </c>
+      <c r="N101" s="26">
+        <v>1</v>
+      </c>
+      <c r="O101" s="26">
+        <v>3</v>
+      </c>
+      <c r="P101" s="26">
+        <v>6</v>
+      </c>
+      <c r="Q101" s="26">
+        <v>0</v>
+      </c>
+      <c r="R101" s="26">
+        <v>0</v>
+      </c>
+      <c r="S101" s="26">
+        <v>100</v>
+      </c>
+      <c r="T101" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="U101" s="26">
+        <v>0</v>
+      </c>
+      <c r="V101" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A102" s="52" t="s">
+        <v>275</v>
+      </c>
+      <c r="B102" s="26">
+        <v>2130</v>
+      </c>
+      <c r="D102" s="26">
+        <v>1</v>
+      </c>
+      <c r="E102" s="26">
+        <v>0</v>
+      </c>
+      <c r="F102" s="26">
+        <v>0</v>
+      </c>
+      <c r="G102" s="26">
+        <v>0</v>
+      </c>
+      <c r="H102" s="26">
+        <v>0</v>
+      </c>
+      <c r="I102" s="26">
+        <v>75</v>
+      </c>
+      <c r="J102" s="26">
+        <v>10</v>
+      </c>
+      <c r="K102" s="26">
+        <v>0</v>
+      </c>
+      <c r="L102" s="26">
+        <v>0</v>
+      </c>
+      <c r="M102" s="26">
+        <v>0</v>
+      </c>
+      <c r="N102" s="26">
+        <v>2</v>
+      </c>
+      <c r="O102" s="26">
+        <v>10</v>
+      </c>
+      <c r="P102" s="26">
+        <v>10</v>
+      </c>
+      <c r="Q102" s="26">
+        <v>0</v>
+      </c>
+      <c r="R102" s="26">
+        <v>1</v>
+      </c>
+      <c r="S102" s="26">
+        <v>100</v>
+      </c>
+      <c r="T102" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="U102" s="26">
+        <v>0</v>
+      </c>
+      <c r="V102" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A103" s="52" t="s">
         <v>276</v>
       </c>
-      <c r="B95" s="26">
+      <c r="B103" s="26">
         <v>2140</v>
+      </c>
+      <c r="D103" s="26">
+        <v>1</v>
+      </c>
+      <c r="E103" s="26">
+        <v>0</v>
+      </c>
+      <c r="F103" s="26">
+        <v>0</v>
+      </c>
+      <c r="G103" s="26">
+        <v>0</v>
+      </c>
+      <c r="H103" s="26">
+        <v>0</v>
+      </c>
+      <c r="I103" s="26">
+        <v>130</v>
+      </c>
+      <c r="J103" s="26">
+        <v>18</v>
+      </c>
+      <c r="K103" s="26">
+        <v>0</v>
+      </c>
+      <c r="L103" s="26">
+        <v>1</v>
+      </c>
+      <c r="M103" s="26">
+        <v>2</v>
+      </c>
+      <c r="N103" s="26">
+        <v>2</v>
+      </c>
+      <c r="O103" s="26">
+        <v>20</v>
+      </c>
+      <c r="P103" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q103" s="26">
+        <v>0</v>
+      </c>
+      <c r="R103" s="26">
+        <v>2</v>
+      </c>
+      <c r="S103" s="26">
+        <v>100</v>
+      </c>
+      <c r="T103" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="U103" s="26">
+        <v>0</v>
+      </c>
+      <c r="V103" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A104" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="B104" s="26">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A105" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="B105" s="26">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A106" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" s="26">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A107" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" s="26">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A108" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="B108" s="26">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A109" s="52" t="s">
+        <v>288</v>
+      </c>
+      <c r="B109" s="26">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A110" s="52" t="s">
+        <v>289</v>
+      </c>
+      <c r="B110" s="26">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A111" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" s="26">
+        <v>2240</v>
       </c>
     </row>
   </sheetData>
